--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -38,12 +38,12 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>#Desc</t>
   </si>
   <si>
-    <t>Reward</t>
-  </si>
-  <si>
     <t>UseLevel</t>
   </si>
   <si>
@@ -56,7 +56,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>(map#sep=;|),int,int</t>
+    <t>GameItemType</t>
   </si>
   <si>
     <t>##group</t>
@@ -74,16 +74,19 @@
     <t>道具名字</t>
   </si>
   <si>
+    <t>道具类型</t>
+  </si>
+  <si>
     <t>道具描述</t>
   </si>
   <si>
-    <t>奖励包内容</t>
-  </si>
-  <si>
     <t>道具使用等级限制</t>
   </si>
   <si>
     <t>道具60001</t>
+  </si>
+  <si>
+    <t>GameItemType_Normal</t>
   </si>
   <si>
     <t>道具包60001描述</t>
@@ -1178,7 +1181,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1186,8 +1189,8 @@
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="13.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="18.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="35.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.125" style="5" customWidth="1"/>
     <col min="7" max="7" width="14.375" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
@@ -1224,10 +1227,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
@@ -1264,7 +1267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:5">
       <c r="B5" s="4">
         <v>60001</v>
       </c>
@@ -1274,214 +1277,274 @@
       <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="4">
         <v>60002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="4">
         <v>60003</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="4">
         <v>60004</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="4">
         <v>60005</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="4">
         <v>60006</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="4">
         <v>60007</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="4">
         <v>60008</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="4">
         <v>60009</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="4">
         <v>60010</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="4">
         <v>60011</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" s="4">
         <v>60012</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="4">
         <v>60013</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="4">
         <v>60014</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="4">
         <v>60015</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="4">
         <v>60016</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="4">
         <v>60017</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="4">
         <v>60018</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="4">
         <v>60019</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="4">
         <v>60020</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23070" windowHeight="10080" tabRatio="809"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="ItemConfig" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -47,6 +47,9 @@
     <t>UseLevel</t>
   </si>
   <si>
+    <t>MaxCount</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>GameItemType</t>
   </si>
   <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -81,6 +87,9 @@
   </si>
   <si>
     <t>道具使用等级限制</t>
+  </si>
+  <si>
+    <t>最大堆叠数</t>
   </si>
   <si>
     <t>道具60001</t>
@@ -832,7 +841,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,10 +852,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1178,13 +1199,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="13.875" style="4" customWidth="1"/>
@@ -1192,359 +1213,429 @@
     <col min="4" max="4" width="24.375" style="4" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="6" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:7">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:7">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="4">
         <v>60001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+        <v>23</v>
+      </c>
+      <c r="G5" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="4">
         <v>60002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+        <v>25</v>
+      </c>
+      <c r="G6" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="4">
         <v>60003</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+        <v>27</v>
+      </c>
+      <c r="G7" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="4">
         <v>60004</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+        <v>29</v>
+      </c>
+      <c r="G8" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="4">
         <v>60005</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+        <v>31</v>
+      </c>
+      <c r="G9" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="4">
         <v>60006</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+        <v>33</v>
+      </c>
+      <c r="G10" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="4">
         <v>60007</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+        <v>35</v>
+      </c>
+      <c r="G11" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="4">
         <v>60008</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+        <v>37</v>
+      </c>
+      <c r="G12" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="4">
         <v>60009</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+        <v>39</v>
+      </c>
+      <c r="G13" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="4">
         <v>60010</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
+        <v>41</v>
+      </c>
+      <c r="G14" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="4">
         <v>60011</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
+        <v>43</v>
+      </c>
+      <c r="G15" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="4">
         <v>60012</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+        <v>45</v>
+      </c>
+      <c r="G16" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="4">
         <v>60013</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+        <v>47</v>
+      </c>
+      <c r="G17" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="4">
         <v>60014</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
+        <v>49</v>
+      </c>
+      <c r="G18" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="4">
         <v>60015</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
+        <v>51</v>
+      </c>
+      <c r="G19" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="4">
         <v>60016</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
+        <v>53</v>
+      </c>
+      <c r="G20" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="4">
         <v>60017</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
+        <v>55</v>
+      </c>
+      <c r="G21" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="4">
         <v>60018</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
+        <v>57</v>
+      </c>
+      <c r="G22" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="4">
         <v>60019</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
+        <v>59</v>
+      </c>
+      <c r="G23" s="6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="4">
         <v>60020</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="G24" s="6">
+        <v>999</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
+    <workbookView windowWidth="23550" windowHeight="11250" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="ItemConfig" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,9 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Quality</t>
+  </si>
+  <si>
     <t>#Desc</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
     <t>GameItemType</t>
   </si>
   <si>
+    <t>GameItemQualityType</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
@@ -83,6 +89,9 @@
     <t>道具类型</t>
   </si>
   <si>
+    <t>道具品质</t>
+  </si>
+  <si>
     <t>道具描述</t>
   </si>
   <si>
@@ -98,6 +107,9 @@
     <t>GameItemType_Normal</t>
   </si>
   <si>
+    <t>白</t>
+  </si>
+  <si>
     <t>道具包60001描述</t>
   </si>
   <si>
@@ -149,70 +161,34 @@
     <t>道具包60009描述</t>
   </si>
   <si>
-    <t>道具60010</t>
-  </si>
-  <si>
-    <t>道具包60010描述</t>
-  </si>
-  <si>
-    <t>道具60011</t>
-  </si>
-  <si>
-    <t>道具包60011描述</t>
-  </si>
-  <si>
-    <t>道具60012</t>
-  </si>
-  <si>
-    <t>道具包60012描述</t>
-  </si>
-  <si>
-    <t>道具60013</t>
-  </si>
-  <si>
-    <t>道具包60013描述</t>
-  </si>
-  <si>
-    <t>道具60014</t>
-  </si>
-  <si>
-    <t>道具包60014描述</t>
-  </si>
-  <si>
-    <t>道具60015</t>
-  </si>
-  <si>
-    <t>道具包60015描述</t>
-  </si>
-  <si>
-    <t>道具60016</t>
-  </si>
-  <si>
-    <t>道具包60016描述</t>
-  </si>
-  <si>
-    <t>道具60017</t>
-  </si>
-  <si>
-    <t>道具包60017描述</t>
-  </si>
-  <si>
-    <t>道具60018</t>
-  </si>
-  <si>
-    <t>道具包60018描述</t>
-  </si>
-  <si>
-    <t>道具60019</t>
-  </si>
-  <si>
-    <t>道具包60019描述</t>
-  </si>
-  <si>
-    <t>道具60020</t>
-  </si>
-  <si>
-    <t>道具包60020描述</t>
+    <t>破布头巾</t>
+  </si>
+  <si>
+    <t>GameItemType_Equipment</t>
+  </si>
+  <si>
+    <t>碎裂的项链</t>
+  </si>
+  <si>
+    <t>破布披肩</t>
+  </si>
+  <si>
+    <t>破布旅衣</t>
+  </si>
+  <si>
+    <t>破布腰带</t>
+  </si>
+  <si>
+    <t>破布裤子</t>
+  </si>
+  <si>
+    <t>破布鞋子</t>
+  </si>
+  <si>
+    <t>碎裂的戒指</t>
+  </si>
+  <si>
+    <t>碎裂的饰品</t>
   </si>
 </sst>
 </file>
@@ -851,10 +827,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1199,25 +1175,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="13.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="18.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="4" max="5" width="41.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="4" customWidth="1"/>
+    <col min="9" max="11" width="9" style="5"/>
+    <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1233,310 +1210,417 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:7">
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:11">
       <c r="A2" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:7">
+      <c r="H2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:11">
       <c r="A3" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="12"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="4">
         <v>60001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="6">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:8">
       <c r="B6" s="4">
         <v>60002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="6">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8">
       <c r="B7" s="4">
         <v>60003</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:8">
       <c r="B8" s="4">
         <v>60004</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="6">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:8">
       <c r="B9" s="4">
         <v>60005</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="6">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:8">
       <c r="B10" s="4">
         <v>60006</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="6">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:8">
       <c r="B11" s="4">
         <v>60007</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="6">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:8">
       <c r="B12" s="4">
         <v>60008</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="6">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:8">
       <c r="B13" s="4">
         <v>60009</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="6">
+        <v>26</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:8">
       <c r="B14" s="4">
         <v>60010</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="6">
+        <v>26</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:8">
       <c r="B15" s="4">
         <v>60011</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="6">
+        <v>26</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:8">
       <c r="B16" s="4">
         <v>60012</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="6">
+        <v>26</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:8">
       <c r="B17" s="4">
         <v>60013</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="6">
+        <v>26</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:8">
       <c r="B18" s="4">
         <v>60014</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:8">
       <c r="B19" s="4">
         <v>60015</v>
       </c>
@@ -1544,97 +1628,87 @@
         <v>50</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="6">
+        <v>26</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:8">
       <c r="B20" s="4">
         <v>60016</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="6">
+        <v>26</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:8">
       <c r="B21" s="4">
         <v>60017</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="6">
+        <v>26</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:8">
       <c r="B22" s="4">
         <v>60018</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="6">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="4">
-        <v>60019</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="6">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="4">
-        <v>60020</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="6">
+        <v>26</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
         <v>999</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23550" windowHeight="11250" tabRatio="809"/>
+    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="ItemConfig" sheetId="6" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ItemConfig!$A$1:$H$22</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -817,7 +820,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,23 +830,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1178,7 +1169,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1188,115 +1179,115 @@
     <col min="3" max="3" width="18.875" style="4" customWidth="1"/>
     <col min="4" max="5" width="41.25" style="4" customWidth="1"/>
     <col min="6" max="6" width="25.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="4" customWidth="1"/>
     <col min="8" max="8" width="14.375" style="4" customWidth="1"/>
-    <col min="9" max="11" width="9" style="5"/>
-    <col min="12" max="16384" width="9" style="6"/>
+    <col min="9" max="11" width="9" style="4"/>
+    <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:11">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:11">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="4">
@@ -1314,7 +1305,7 @@
       <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>1</v>
       </c>
       <c r="H5" s="4">
@@ -1337,7 +1328,7 @@
       <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>1</v>
       </c>
       <c r="H6" s="4">
@@ -1360,7 +1351,7 @@
       <c r="F7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>1</v>
       </c>
       <c r="H7" s="4">
@@ -1383,7 +1374,7 @@
       <c r="F8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>1</v>
       </c>
       <c r="H8" s="4">
@@ -1406,7 +1397,7 @@
       <c r="F9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>1</v>
       </c>
       <c r="H9" s="4">
@@ -1429,7 +1420,7 @@
       <c r="F10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>1</v>
       </c>
       <c r="H10" s="4">
@@ -1452,7 +1443,7 @@
       <c r="F11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>1</v>
       </c>
       <c r="H11" s="4">
@@ -1475,7 +1466,7 @@
       <c r="F12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>1</v>
       </c>
       <c r="H12" s="4">
@@ -1498,7 +1489,7 @@
       <c r="F13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>1</v>
       </c>
       <c r="H13" s="4">
@@ -1521,7 +1512,7 @@
       <c r="F14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>1</v>
       </c>
       <c r="H14" s="4">
@@ -1544,7 +1535,7 @@
       <c r="F15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>1</v>
       </c>
       <c r="H15" s="4">
@@ -1567,7 +1558,7 @@
       <c r="F16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>1</v>
       </c>
       <c r="H16" s="4">
@@ -1590,7 +1581,7 @@
       <c r="F17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>1</v>
       </c>
       <c r="H17" s="4">
@@ -1613,7 +1604,7 @@
       <c r="F18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>1</v>
       </c>
       <c r="H18" s="4">
@@ -1636,7 +1627,7 @@
       <c r="F19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>1</v>
       </c>
       <c r="H19" s="4">
@@ -1659,7 +1650,7 @@
       <c r="F20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>1</v>
       </c>
       <c r="H20" s="4">
@@ -1682,7 +1673,7 @@
       <c r="F21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>1</v>
       </c>
       <c r="H21" s="4">
@@ -1705,7 +1696,7 @@
       <c r="F22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>1</v>
       </c>
       <c r="H22" s="4">
@@ -1713,6 +1704,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H22">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="ItemConfig" sheetId="6" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <t>道具60001</t>
   </si>
   <si>
-    <t>GameItemType_Normal</t>
+    <t>普通</t>
   </si>
   <si>
     <t>白</t>
@@ -167,7 +167,7 @@
     <t>破布头巾</t>
   </si>
   <si>
-    <t>GameItemType_Equipment</t>
+    <t>装备</t>
   </si>
   <si>
     <t>碎裂的项链</t>
@@ -1169,7 +1169,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
+    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="ItemConfig" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -56,6 +56,9 @@
     <t>MaxCount</t>
   </si>
   <si>
+    <t>EquipmentType</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
     <t>long</t>
   </si>
   <si>
+    <t>EquipmentType?</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -104,6 +110,9 @@
     <t>最大堆叠数</t>
   </si>
   <si>
+    <t>装备位置</t>
+  </si>
+  <si>
     <t>道具60001</t>
   </si>
   <si>
@@ -170,28 +179,55 @@
     <t>装备</t>
   </si>
   <si>
+    <t>头</t>
+  </si>
+  <si>
     <t>碎裂的项链</t>
   </si>
   <si>
+    <t>项链</t>
+  </si>
+  <si>
     <t>破布披肩</t>
   </si>
   <si>
+    <t>肩膀</t>
+  </si>
+  <si>
     <t>破布旅衣</t>
   </si>
   <si>
+    <t>胸</t>
+  </si>
+  <si>
     <t>破布腰带</t>
   </si>
   <si>
+    <t>腰带</t>
+  </si>
+  <si>
     <t>破布裤子</t>
   </si>
   <si>
+    <t>裤子</t>
+  </si>
+  <si>
     <t>破布鞋子</t>
   </si>
   <si>
+    <t>鞋子</t>
+  </si>
+  <si>
     <t>碎裂的戒指</t>
   </si>
   <si>
+    <t>戒指</t>
+  </si>
+  <si>
     <t>碎裂的饰品</t>
+  </si>
+  <si>
+    <t>饰品</t>
   </si>
 </sst>
 </file>
@@ -820,7 +856,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,6 +875,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1169,7 +1208,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1181,7 +1220,8 @@
     <col min="6" max="6" width="25.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="4" customWidth="1"/>
     <col min="8" max="8" width="14.375" style="4" customWidth="1"/>
-    <col min="9" max="11" width="9" style="4"/>
+    <col min="9" max="9" width="17.875" style="4" customWidth="1"/>
+    <col min="10" max="11" width="9" style="4"/>
     <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -1210,46 +1250,50 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:11">
       <c r="A2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="H2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:11">
       <c r="A3" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -1262,30 +1306,32 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
@@ -1294,16 +1340,16 @@
         <v>60001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -1317,16 +1363,16 @@
         <v>60002</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
@@ -1340,16 +1386,16 @@
         <v>60003</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -1363,16 +1409,16 @@
         <v>60004</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -1386,16 +1432,16 @@
         <v>60005</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
@@ -1409,16 +1455,16 @@
         <v>60006</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -1432,16 +1478,16 @@
         <v>60007</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
@@ -1455,16 +1501,16 @@
         <v>60008</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -1478,16 +1524,16 @@
         <v>60009</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -1496,211 +1542,238 @@
         <v>999</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:9">
       <c r="B14" s="4">
         <v>60010</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
       </c>
       <c r="H14" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="4">
         <v>60011</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
       </c>
       <c r="H15" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="4">
         <v>60012</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
       </c>
       <c r="H16" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="4">
         <v>60013</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
       </c>
       <c r="H17" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="4">
         <v>60014</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
       </c>
       <c r="H18" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="4">
         <v>60015</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
       </c>
       <c r="H19" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="4">
         <v>60016</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
       </c>
       <c r="H20" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="4">
         <v>60017</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
       </c>
       <c r="H21" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="4">
         <v>60018</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G22" s="4">
         <v>1</v>
       </c>
       <c r="H22" s="4">
-        <v>999</v>
+        <v>1</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -228,6 +228,24 @@
   </si>
   <si>
     <t>饰品</t>
+  </si>
+  <si>
+    <t>裂皮头巾</t>
+  </si>
+  <si>
+    <t>裂皮护肩</t>
+  </si>
+  <si>
+    <t>裂皮护甲</t>
+  </si>
+  <si>
+    <t>裂皮腰带</t>
+  </si>
+  <si>
+    <t>裂皮裤子</t>
+  </si>
+  <si>
+    <t>裂皮鞋子</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1223,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1216,9 +1234,10 @@
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="13.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="18.875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="41.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11" style="4" customWidth="1"/>
     <col min="8" max="8" width="14.375" style="4" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="4" customWidth="1"/>
     <col min="10" max="11" width="9" style="4"/>
@@ -1776,6 +1795,162 @@
         <v>65</v>
       </c>
     </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="4">
+        <v>60019</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="4">
+        <v>60020</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="4">
+        <v>60021</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="4">
+        <v>60022</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="4">
+        <v>60023</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="4">
+        <v>60024</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H22">
     <extLst/>

--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -10,7 +10,7 @@
     <sheet name="ItemConfig" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ItemConfig!$A$1:$H$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ItemConfig!$A$1:$G$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Quality</t>
   </si>
   <si>
-    <t>#Desc</t>
-  </si>
-  <si>
     <t>UseLevel</t>
   </si>
   <si>
@@ -65,7 +62,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
+    <t>text</t>
   </si>
   <si>
     <t>GameItemType</t>
@@ -86,6 +83,9 @@
     <t>c</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -101,9 +101,6 @@
     <t>道具品质</t>
   </si>
   <si>
-    <t>道具描述</t>
-  </si>
-  <si>
     <t>道具使用等级限制</t>
   </si>
   <si>
@@ -113,139 +110,40 @@
     <t>装备位置</t>
   </si>
   <si>
-    <t>道具60001</t>
-  </si>
-  <si>
     <t>普通</t>
   </si>
   <si>
     <t>白</t>
   </si>
   <si>
-    <t>道具包60001描述</t>
-  </si>
-  <si>
-    <t>道具60002</t>
-  </si>
-  <si>
-    <t>道具包60002描述</t>
-  </si>
-  <si>
-    <t>道具60003</t>
-  </si>
-  <si>
-    <t>道具包60003描述</t>
-  </si>
-  <si>
-    <t>道具60004</t>
-  </si>
-  <si>
-    <t>道具包60004描述</t>
-  </si>
-  <si>
-    <t>道具60005</t>
-  </si>
-  <si>
-    <t>道具包60005描述</t>
-  </si>
-  <si>
-    <t>道具60006</t>
-  </si>
-  <si>
-    <t>道具包60006描述</t>
-  </si>
-  <si>
-    <t>道具60007</t>
-  </si>
-  <si>
-    <t>道具包60007描述</t>
-  </si>
-  <si>
-    <t>道具60008</t>
-  </si>
-  <si>
-    <t>道具包60008描述</t>
-  </si>
-  <si>
-    <t>道具60009</t>
-  </si>
-  <si>
-    <t>道具包60009描述</t>
-  </si>
-  <si>
-    <t>破布头巾</t>
-  </si>
-  <si>
     <t>装备</t>
   </si>
   <si>
     <t>头</t>
   </si>
   <si>
-    <t>碎裂的项链</t>
-  </si>
-  <si>
     <t>项链</t>
   </si>
   <si>
-    <t>破布披肩</t>
-  </si>
-  <si>
     <t>肩膀</t>
   </si>
   <si>
-    <t>破布旅衣</t>
-  </si>
-  <si>
     <t>胸</t>
   </si>
   <si>
-    <t>破布腰带</t>
-  </si>
-  <si>
     <t>腰带</t>
   </si>
   <si>
-    <t>破布裤子</t>
-  </si>
-  <si>
     <t>裤子</t>
   </si>
   <si>
-    <t>破布鞋子</t>
-  </si>
-  <si>
     <t>鞋子</t>
   </si>
   <si>
-    <t>碎裂的戒指</t>
-  </si>
-  <si>
     <t>戒指</t>
   </si>
   <si>
-    <t>碎裂的饰品</t>
-  </si>
-  <si>
     <t>饰品</t>
-  </si>
-  <si>
-    <t>裂皮头巾</t>
-  </si>
-  <si>
-    <t>裂皮护肩</t>
-  </si>
-  <si>
-    <t>裂皮护甲</t>
-  </si>
-  <si>
-    <t>裂皮腰带</t>
-  </si>
-  <si>
-    <t>裂皮裤子</t>
-  </si>
-  <si>
-    <t>裂皮鞋子</t>
   </si>
 </sst>
 </file>
@@ -1223,10 +1121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1236,15 +1134,14 @@
     <col min="3" max="3" width="18.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="22.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="4" customWidth="1"/>
-    <col min="10" max="11" width="9" style="4"/>
-    <col min="12" max="16384" width="9" style="5"/>
+    <col min="6" max="6" width="16.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="9" style="4"/>
+    <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1269,61 +1166,56 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:10">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:10">
+      <c r="A3" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:11">
-      <c r="A3" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1348,611 +1240,536 @@
       <c r="H4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="2:8">
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="4">
         <v>60001</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
+      <c r="C5" s="4">
+        <v>20001</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
       </c>
       <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:7">
       <c r="B6" s="4">
         <v>60002</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
+      <c r="C6" s="4">
+        <v>20002</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
       </c>
       <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:7">
       <c r="B7" s="4">
         <v>60003</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>33</v>
+      <c r="C7" s="4">
+        <v>20003</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
       </c>
       <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:7">
       <c r="B8" s="4">
         <v>60004</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>35</v>
+      <c r="C8" s="4">
+        <v>20004</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:7">
       <c r="B9" s="4">
         <v>60005</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>37</v>
+      <c r="C9" s="4">
+        <v>20005</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
       </c>
       <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:7">
       <c r="B10" s="4">
         <v>60006</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>39</v>
+      <c r="C10" s="4">
+        <v>20006</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
       </c>
       <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:7">
       <c r="B11" s="4">
         <v>60007</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>41</v>
+      <c r="C11" s="4">
+        <v>20007</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
       </c>
       <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:7">
       <c r="B12" s="4">
         <v>60008</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
+      <c r="C12" s="4">
+        <v>20008</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
       </c>
       <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:7">
       <c r="B13" s="4">
         <v>60009</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>45</v>
+      <c r="C13" s="4">
+        <v>20009</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
       </c>
       <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:8">
       <c r="B14" s="4">
         <v>60010</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>47</v>
+      <c r="C14" s="4">
+        <v>20010</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="4">
         <v>60011</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>50</v>
+      <c r="C15" s="4">
+        <v>20011</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
+      <c r="H15" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="4">
         <v>60012</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>52</v>
+      <c r="C16" s="4">
+        <v>20012</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>52</v>
+        <v>27</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
       </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
+      <c r="H16" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="4">
         <v>60013</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>54</v>
+      <c r="C17" s="4">
+        <v>20013</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>54</v>
+        <v>27</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
       </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="H17" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="4">
         <v>60014</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>56</v>
+      <c r="C18" s="4">
+        <v>20014</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>56</v>
+        <v>27</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
       </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
+      <c r="H18" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="4">
         <v>60015</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>58</v>
+      <c r="C19" s="4">
+        <v>20015</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>58</v>
+        <v>27</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
       </c>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
+      <c r="H19" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="4">
         <v>60016</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>60</v>
+      <c r="C20" s="4">
+        <v>20016</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>60</v>
+        <v>27</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
       </c>
-      <c r="H20" s="4">
-        <v>1</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
+      <c r="H20" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="4">
         <v>60017</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>62</v>
+      <c r="C21" s="4">
+        <v>20017</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>62</v>
+        <v>27</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
       </c>
-      <c r="H21" s="4">
-        <v>1</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
+      <c r="H21" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="4">
         <v>60018</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>64</v>
+      <c r="C22" s="4">
+        <v>20018</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>64</v>
+        <v>27</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
       </c>
       <c r="G22" s="4">
         <v>1</v>
       </c>
-      <c r="H22" s="4">
-        <v>1</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
+      <c r="H22" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23" s="4">
         <v>60019</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>66</v>
+      <c r="C23" s="4">
+        <v>20019</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24" s="4">
         <v>60020</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>67</v>
+      <c r="C24" s="4">
+        <v>20020</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>67</v>
+        <v>27</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
       </c>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
+      <c r="H24" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25" s="4">
         <v>60021</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>68</v>
+      <c r="C25" s="4">
+        <v>20020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>68</v>
+        <v>27</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
       </c>
       <c r="G25" s="4">
         <v>1</v>
       </c>
-      <c r="H25" s="4">
-        <v>1</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
+      <c r="H25" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26" s="4">
         <v>60022</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>69</v>
+      <c r="C26" s="4">
+        <v>20020</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>69</v>
+        <v>27</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
       </c>
-      <c r="H26" s="4">
-        <v>1</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
+      <c r="H26" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
       <c r="B27" s="4">
         <v>60023</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>70</v>
+      <c r="C27" s="4">
+        <v>20020</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>70</v>
+        <v>27</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
       </c>
-      <c r="H27" s="4">
-        <v>1</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
+      <c r="H27" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28" s="4">
         <v>60024</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>71</v>
+      <c r="C28" s="4">
+        <v>20020</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>71</v>
+        <v>27</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
       </c>
-      <c r="H28" s="4">
-        <v>1</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>61</v>
+      <c r="H28" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H22">
+  <autoFilter ref="A1:G22">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -1124,7 +1124,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1138,7 +1138,7 @@
     <col min="7" max="7" width="14.375" style="4" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="4" customWidth="1"/>
     <col min="9" max="10" width="9" style="4"/>
-    <col min="11" max="16384" width="9" style="5"/>
+    <col min="11" max="16383" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
@@ -1248,7 +1248,7 @@
         <v>60001</v>
       </c>
       <c r="C5" s="4">
-        <v>20001</v>
+        <v>60001</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>26</v>
@@ -1268,7 +1268,7 @@
         <v>60002</v>
       </c>
       <c r="C6" s="4">
-        <v>20002</v>
+        <v>60002</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>26</v>
@@ -1288,7 +1288,7 @@
         <v>60003</v>
       </c>
       <c r="C7" s="4">
-        <v>20003</v>
+        <v>60003</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>26</v>
@@ -1308,7 +1308,7 @@
         <v>60004</v>
       </c>
       <c r="C8" s="4">
-        <v>20004</v>
+        <v>60004</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>26</v>
@@ -1328,7 +1328,7 @@
         <v>60005</v>
       </c>
       <c r="C9" s="4">
-        <v>20005</v>
+        <v>60005</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>26</v>
@@ -1348,7 +1348,7 @@
         <v>60006</v>
       </c>
       <c r="C10" s="4">
-        <v>20006</v>
+        <v>60006</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>26</v>
@@ -1368,7 +1368,7 @@
         <v>60007</v>
       </c>
       <c r="C11" s="4">
-        <v>20007</v>
+        <v>60007</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>26</v>
@@ -1388,7 +1388,7 @@
         <v>60008</v>
       </c>
       <c r="C12" s="4">
-        <v>20008</v>
+        <v>60008</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>26</v>
@@ -1408,7 +1408,7 @@
         <v>60009</v>
       </c>
       <c r="C13" s="4">
-        <v>20009</v>
+        <v>60009</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>26</v>
@@ -1428,7 +1428,7 @@
         <v>60010</v>
       </c>
       <c r="C14" s="4">
-        <v>20010</v>
+        <v>60010</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>28</v>
@@ -1451,7 +1451,7 @@
         <v>60011</v>
       </c>
       <c r="C15" s="4">
-        <v>20011</v>
+        <v>60011</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>28</v>
@@ -1474,7 +1474,7 @@
         <v>60012</v>
       </c>
       <c r="C16" s="4">
-        <v>20012</v>
+        <v>60012</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>28</v>
@@ -1497,7 +1497,7 @@
         <v>60013</v>
       </c>
       <c r="C17" s="4">
-        <v>20013</v>
+        <v>60013</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>28</v>
@@ -1520,7 +1520,7 @@
         <v>60014</v>
       </c>
       <c r="C18" s="4">
-        <v>20014</v>
+        <v>60014</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>28</v>
@@ -1543,7 +1543,7 @@
         <v>60015</v>
       </c>
       <c r="C19" s="4">
-        <v>20015</v>
+        <v>60015</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>28</v>
@@ -1566,7 +1566,7 @@
         <v>60016</v>
       </c>
       <c r="C20" s="4">
-        <v>20016</v>
+        <v>60016</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>28</v>
@@ -1589,7 +1589,7 @@
         <v>60017</v>
       </c>
       <c r="C21" s="4">
-        <v>20017</v>
+        <v>60017</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>28</v>
@@ -1612,7 +1612,7 @@
         <v>60018</v>
       </c>
       <c r="C22" s="4">
-        <v>20018</v>
+        <v>60018</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>28</v>
@@ -1635,7 +1635,7 @@
         <v>60019</v>
       </c>
       <c r="C23" s="4">
-        <v>20019</v>
+        <v>60019</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>28</v>
@@ -1658,7 +1658,7 @@
         <v>60020</v>
       </c>
       <c r="C24" s="4">
-        <v>20020</v>
+        <v>60020</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>28</v>
@@ -1681,7 +1681,7 @@
         <v>60021</v>
       </c>
       <c r="C25" s="4">
-        <v>20020</v>
+        <v>60021</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>28</v>
@@ -1704,7 +1704,7 @@
         <v>60022</v>
       </c>
       <c r="C26" s="4">
-        <v>20020</v>
+        <v>60022</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>28</v>
@@ -1727,7 +1727,7 @@
         <v>60023</v>
       </c>
       <c r="C27" s="4">
-        <v>20020</v>
+        <v>60023</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>28</v>
@@ -1750,7 +1750,7 @@
         <v>60024</v>
       </c>
       <c r="C28" s="4">
-        <v>20020</v>
+        <v>60024</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>28</v>

--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -10,7 +10,7 @@
     <sheet name="ItemConfig" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ItemConfig!$A$1:$G$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ItemConfig!$A$1:$G$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
   <si>
     <t>##var</t>
   </si>
@@ -56,6 +56,9 @@
     <t>EquipmentType</t>
   </si>
   <si>
+    <t>Icon</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
     <t>EquipmentType?</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -110,40 +116,187 @@
     <t>装备位置</t>
   </si>
   <si>
+    <t>道具图标</t>
+  </si>
+  <si>
+    <t>itemname_60001</t>
+  </si>
+  <si>
     <t>普通</t>
   </si>
   <si>
     <t>白</t>
   </si>
   <si>
+    <t>itemicon_60001</t>
+  </si>
+  <si>
+    <t>itemname_60002</t>
+  </si>
+  <si>
+    <t>itemicon_60002</t>
+  </si>
+  <si>
+    <t>itemname_60003</t>
+  </si>
+  <si>
+    <t>itemicon_60003</t>
+  </si>
+  <si>
+    <t>itemname_60004</t>
+  </si>
+  <si>
+    <t>itemicon_60004</t>
+  </si>
+  <si>
+    <t>itemname_60005</t>
+  </si>
+  <si>
+    <t>itemicon_60005</t>
+  </si>
+  <si>
+    <t>itemname_60006</t>
+  </si>
+  <si>
+    <t>itemicon_60006</t>
+  </si>
+  <si>
+    <t>itemname_60007</t>
+  </si>
+  <si>
+    <t>itemicon_60007</t>
+  </si>
+  <si>
+    <t>itemname_60008</t>
+  </si>
+  <si>
+    <t>itemicon_60008</t>
+  </si>
+  <si>
+    <t>itemname_60009</t>
+  </si>
+  <si>
+    <t>itemicon_60009</t>
+  </si>
+  <si>
+    <t>itemname_60010</t>
+  </si>
+  <si>
     <t>装备</t>
   </si>
   <si>
     <t>头</t>
   </si>
   <si>
+    <t>itemicon_60010</t>
+  </si>
+  <si>
+    <t>itemname_60011</t>
+  </si>
+  <si>
     <t>项链</t>
   </si>
   <si>
+    <t>itemicon_60011</t>
+  </si>
+  <si>
+    <t>itemname_60012</t>
+  </si>
+  <si>
     <t>肩膀</t>
   </si>
   <si>
+    <t>itemicon_60012</t>
+  </si>
+  <si>
+    <t>itemname_60013</t>
+  </si>
+  <si>
     <t>胸</t>
   </si>
   <si>
+    <t>itemicon_60013</t>
+  </si>
+  <si>
+    <t>itemname_60014</t>
+  </si>
+  <si>
     <t>腰带</t>
   </si>
   <si>
+    <t>itemicon_60014</t>
+  </si>
+  <si>
+    <t>itemname_60015</t>
+  </si>
+  <si>
     <t>裤子</t>
   </si>
   <si>
+    <t>itemicon_60015</t>
+  </si>
+  <si>
+    <t>itemname_60016</t>
+  </si>
+  <si>
     <t>鞋子</t>
   </si>
   <si>
+    <t>itemicon_60016</t>
+  </si>
+  <si>
+    <t>itemname_60017</t>
+  </si>
+  <si>
     <t>戒指</t>
   </si>
   <si>
+    <t>itemicon_60017</t>
+  </si>
+  <si>
+    <t>itemname_60018</t>
+  </si>
+  <si>
     <t>饰品</t>
+  </si>
+  <si>
+    <t>itemicon_60018</t>
+  </si>
+  <si>
+    <t>itemname_60019</t>
+  </si>
+  <si>
+    <t>itemicon_60019</t>
+  </si>
+  <si>
+    <t>itemname_60020</t>
+  </si>
+  <si>
+    <t>itemicon_60020</t>
+  </si>
+  <si>
+    <t>itemname_60021</t>
+  </si>
+  <si>
+    <t>itemicon_60021</t>
+  </si>
+  <si>
+    <t>itemname_60022</t>
+  </si>
+  <si>
+    <t>itemicon_60022</t>
+  </si>
+  <si>
+    <t>itemname_60023</t>
+  </si>
+  <si>
+    <t>itemicon_60023</t>
+  </si>
+  <si>
+    <t>itemname_60024</t>
+  </si>
+  <si>
+    <t>itemicon_60024</t>
   </si>
 </sst>
 </file>
@@ -1124,20 +1277,21 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="13.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="22.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="16.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="14.375" style="4" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="4" customWidth="1"/>
-    <col min="9" max="10" width="9" style="4"/>
+    <col min="9" max="9" width="16.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4"/>
     <col min="11" max="16383" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -1166,95 +1320,103 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="6"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:10">
       <c r="A2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J2" s="7"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:10">
       <c r="A3" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="I3" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:9">
       <c r="B5" s="4">
         <v>60001</v>
       </c>
-      <c r="C5" s="4">
-        <v>60001</v>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1262,19 +1424,22 @@
       <c r="G5" s="4">
         <v>999</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="I5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="4">
         <v>60002</v>
       </c>
-      <c r="C6" s="4">
-        <v>60002</v>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -1282,19 +1447,22 @@
       <c r="G6" s="4">
         <v>999</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="I6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="4">
         <v>60003</v>
       </c>
-      <c r="C7" s="4">
-        <v>60003</v>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1302,19 +1470,22 @@
       <c r="G7" s="4">
         <v>999</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="I7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="4">
         <v>60004</v>
       </c>
-      <c r="C8" s="4">
-        <v>60004</v>
+      <c r="C8" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1322,19 +1493,22 @@
       <c r="G8" s="4">
         <v>999</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="I8" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="4">
         <v>60005</v>
       </c>
-      <c r="C9" s="4">
-        <v>60005</v>
+      <c r="C9" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -1342,19 +1516,22 @@
       <c r="G9" s="4">
         <v>999</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="I9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="4">
         <v>60006</v>
       </c>
-      <c r="C10" s="4">
-        <v>60006</v>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -1362,19 +1539,22 @@
       <c r="G10" s="4">
         <v>999</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="I10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="4">
         <v>60007</v>
       </c>
-      <c r="C11" s="4">
-        <v>60007</v>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1382,19 +1562,22 @@
       <c r="G11" s="4">
         <v>999</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="I11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" s="4">
         <v>60008</v>
       </c>
-      <c r="C12" s="4">
-        <v>60008</v>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -1402,19 +1585,22 @@
       <c r="G12" s="4">
         <v>999</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="I12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="4">
         <v>60009</v>
       </c>
-      <c r="C13" s="4">
-        <v>60009</v>
+      <c r="C13" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -1422,19 +1608,22 @@
       <c r="G13" s="4">
         <v>999</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="I13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="4">
         <v>60010</v>
       </c>
-      <c r="C14" s="4">
-        <v>60010</v>
+      <c r="C14" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -1443,21 +1632,24 @@
         <v>1</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
+        <v>51</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="4">
         <v>60011</v>
       </c>
-      <c r="C15" s="4">
-        <v>60011</v>
+      <c r="C15" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -1466,21 +1658,24 @@
         <v>1</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+        <v>54</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="4">
         <v>60012</v>
       </c>
-      <c r="C16" s="4">
-        <v>60012</v>
+      <c r="C16" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -1489,21 +1684,24 @@
         <v>1</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
+        <v>57</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="4">
         <v>60013</v>
       </c>
-      <c r="C17" s="4">
-        <v>60013</v>
+      <c r="C17" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -1512,21 +1710,24 @@
         <v>1</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
+        <v>60</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="4">
         <v>60014</v>
       </c>
-      <c r="C18" s="4">
-        <v>60014</v>
+      <c r="C18" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -1535,21 +1736,24 @@
         <v>1</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+        <v>63</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="4">
         <v>60015</v>
       </c>
-      <c r="C19" s="4">
-        <v>60015</v>
+      <c r="C19" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -1558,21 +1762,24 @@
         <v>1</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
+        <v>66</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="4">
         <v>60016</v>
       </c>
-      <c r="C20" s="4">
-        <v>60016</v>
+      <c r="C20" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -1581,21 +1788,24 @@
         <v>1</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
+        <v>69</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="4">
         <v>60017</v>
       </c>
-      <c r="C21" s="4">
-        <v>60017</v>
+      <c r="C21" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -1604,21 +1814,24 @@
         <v>1</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
+        <v>72</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="4">
         <v>60018</v>
       </c>
-      <c r="C22" s="4">
-        <v>60018</v>
+      <c r="C22" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -1627,21 +1840,24 @@
         <v>1</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
+        <v>75</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23" s="4">
         <v>60019</v>
       </c>
-      <c r="C23" s="4">
-        <v>60019</v>
+      <c r="C23" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -1650,21 +1866,24 @@
         <v>1</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
+        <v>51</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24" s="4">
         <v>60020</v>
       </c>
-      <c r="C24" s="4">
-        <v>60020</v>
+      <c r="C24" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -1673,21 +1892,24 @@
         <v>1</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
+        <v>57</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" s="4">
         <v>60021</v>
       </c>
-      <c r="C25" s="4">
-        <v>60021</v>
+      <c r="C25" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -1696,21 +1918,24 @@
         <v>1</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
+        <v>60</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" s="4">
         <v>60022</v>
       </c>
-      <c r="C26" s="4">
-        <v>60022</v>
+      <c r="C26" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
@@ -1719,21 +1944,24 @@
         <v>1</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
+        <v>63</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
       <c r="B27" s="4">
         <v>60023</v>
       </c>
-      <c r="C27" s="4">
-        <v>60023</v>
+      <c r="C27" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -1742,21 +1970,24 @@
         <v>1</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
+        <v>66</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28" s="4">
         <v>60024</v>
       </c>
-      <c r="C28" s="4">
-        <v>60024</v>
+      <c r="C28" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -1765,11 +1996,14 @@
         <v>1</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>35</v>
+        <v>69</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G22">
+  <autoFilter ref="A1:G28">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
+    <workbookView windowWidth="22095" windowHeight="7740" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="ItemConfig" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -119,9 +119,6 @@
     <t>道具图标</t>
   </si>
   <si>
-    <t>itemname_60001</t>
-  </si>
-  <si>
     <t>普通</t>
   </si>
   <si>
@@ -131,57 +128,30 @@
     <t>itemicon_60001</t>
   </si>
   <si>
-    <t>itemname_60002</t>
-  </si>
-  <si>
     <t>itemicon_60002</t>
   </si>
   <si>
-    <t>itemname_60003</t>
-  </si>
-  <si>
     <t>itemicon_60003</t>
   </si>
   <si>
-    <t>itemname_60004</t>
-  </si>
-  <si>
     <t>itemicon_60004</t>
   </si>
   <si>
-    <t>itemname_60005</t>
-  </si>
-  <si>
     <t>itemicon_60005</t>
   </si>
   <si>
-    <t>itemname_60006</t>
-  </si>
-  <si>
     <t>itemicon_60006</t>
   </si>
   <si>
-    <t>itemname_60007</t>
-  </si>
-  <si>
     <t>itemicon_60007</t>
   </si>
   <si>
-    <t>itemname_60008</t>
-  </si>
-  <si>
     <t>itemicon_60008</t>
   </si>
   <si>
-    <t>itemname_60009</t>
-  </si>
-  <si>
     <t>itemicon_60009</t>
   </si>
   <si>
-    <t>itemname_60010</t>
-  </si>
-  <si>
     <t>装备</t>
   </si>
   <si>
@@ -191,112 +161,82 @@
     <t>itemicon_60010</t>
   </si>
   <si>
-    <t>itemname_60011</t>
-  </si>
-  <si>
     <t>项链</t>
   </si>
   <si>
     <t>itemicon_60011</t>
   </si>
   <si>
-    <t>itemname_60012</t>
-  </si>
-  <si>
     <t>肩膀</t>
   </si>
   <si>
     <t>itemicon_60012</t>
   </si>
   <si>
-    <t>itemname_60013</t>
-  </si>
-  <si>
     <t>胸</t>
   </si>
   <si>
     <t>itemicon_60013</t>
   </si>
   <si>
-    <t>itemname_60014</t>
-  </si>
-  <si>
     <t>腰带</t>
   </si>
   <si>
     <t>itemicon_60014</t>
   </si>
   <si>
-    <t>itemname_60015</t>
-  </si>
-  <si>
     <t>裤子</t>
   </si>
   <si>
     <t>itemicon_60015</t>
   </si>
   <si>
-    <t>itemname_60016</t>
-  </si>
-  <si>
     <t>鞋子</t>
   </si>
   <si>
     <t>itemicon_60016</t>
   </si>
   <si>
-    <t>itemname_60017</t>
-  </si>
-  <si>
     <t>戒指</t>
   </si>
   <si>
     <t>itemicon_60017</t>
   </si>
   <si>
-    <t>itemname_60018</t>
-  </si>
-  <si>
     <t>饰品</t>
   </si>
   <si>
     <t>itemicon_60018</t>
   </si>
   <si>
-    <t>itemname_60019</t>
-  </si>
-  <si>
     <t>itemicon_60019</t>
   </si>
   <si>
-    <t>itemname_60020</t>
-  </si>
-  <si>
     <t>itemicon_60020</t>
   </si>
   <si>
-    <t>itemname_60021</t>
-  </si>
-  <si>
     <t>itemicon_60021</t>
   </si>
   <si>
-    <t>itemname_60022</t>
-  </si>
-  <si>
     <t>itemicon_60022</t>
   </si>
   <si>
-    <t>itemname_60023</t>
-  </si>
-  <si>
     <t>itemicon_60023</t>
   </si>
   <si>
-    <t>itemname_60024</t>
-  </si>
-  <si>
     <t>itemicon_60024</t>
+  </si>
+  <si>
+    <t>宝石</t>
+  </si>
+  <si>
+    <t>绿</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>紫</t>
   </si>
 </sst>
 </file>
@@ -309,7 +249,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +259,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -794,138 +740,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -947,6 +893,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1274,23 +1226,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="13.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="29.25" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="22.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="16.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="14.375" style="4" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="9" style="4"/>
     <col min="11" max="16383" width="9" style="5"/>
   </cols>
@@ -1409,38 +1361,40 @@
       <c r="B5" s="4">
         <v>60001</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="4" t="str">
+        <f>_xlfn.CONCAT("itemname_",B5)</f>
+        <v>itemname_60001</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>999</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>999</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="4">
         <v>60002</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
+      <c r="C6" s="4" t="str">
+        <f t="shared" ref="C6:C28" si="0">_xlfn.CONCAT("itemname_",B6)</f>
+        <v>itemname_60002</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
@@ -1448,22 +1402,23 @@
         <v>999</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="4">
         <v>60003</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>35</v>
+      <c r="C7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60003</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
@@ -1471,22 +1426,23 @@
         <v>999</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4">
         <v>60004</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>37</v>
+      <c r="C8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60004</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
@@ -1494,22 +1450,23 @@
         <v>999</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="4">
         <v>60005</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>39</v>
+      <c r="C9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60005</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
@@ -1517,22 +1474,23 @@
         <v>999</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="4">
         <v>60006</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>41</v>
+      <c r="C10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60006</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
@@ -1540,22 +1498,23 @@
         <v>999</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="4">
         <v>60007</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>43</v>
+      <c r="C11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60007</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
@@ -1563,22 +1522,23 @@
         <v>999</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="4">
         <v>60008</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>45</v>
+      <c r="C12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60008</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
@@ -1586,22 +1546,23 @@
         <v>999</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="4">
         <v>60009</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>47</v>
+      <c r="C13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60009</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
@@ -1609,21 +1570,22 @@
         <v>999</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="4">
         <v>60010</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>49</v>
+      <c r="C14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60010</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -1632,24 +1594,25 @@
         <v>1</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="4">
         <v>60011</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>53</v>
+      <c r="C15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60011</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -1658,24 +1621,25 @@
         <v>1</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="4">
         <v>60012</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>56</v>
+      <c r="C16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60012</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -1684,24 +1648,25 @@
         <v>1</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="4">
         <v>60013</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>59</v>
+      <c r="C17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60013</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -1710,50 +1675,52 @@
         <v>1</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="4">
         <v>60014</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>62</v>
+      <c r="C18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60014</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="4">
         <v>60015</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>65</v>
+      <c r="C19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60015</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -1762,24 +1729,25 @@
         <v>1</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="4">
         <v>60016</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>68</v>
+      <c r="C20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60016</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -1788,24 +1756,25 @@
         <v>1</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="4">
         <v>60017</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>71</v>
+      <c r="C21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60017</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -1814,24 +1783,25 @@
         <v>1</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="4">
         <v>60018</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>74</v>
+      <c r="C22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60018</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -1840,24 +1810,25 @@
         <v>1</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="4">
         <v>60019</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>77</v>
+      <c r="C23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60019</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -1866,24 +1837,25 @@
         <v>1</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="4">
         <v>60020</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>79</v>
+      <c r="C24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60020</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -1892,24 +1864,25 @@
         <v>1</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="4">
         <v>60021</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>81</v>
+      <c r="C25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60021</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -1918,24 +1891,25 @@
         <v>1</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="4">
         <v>60022</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>83</v>
+      <c r="C26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60022</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
@@ -1944,24 +1918,25 @@
         <v>1</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="4">
         <v>60023</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>85</v>
+      <c r="C27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60023</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -1970,24 +1945,25 @@
         <v>1</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="4">
         <v>60024</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>87</v>
+      <c r="C28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60024</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -1996,10 +1972,1760 @@
         <v>1</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>88</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" ht="17.25" spans="2:9">
+      <c r="B29" s="10">
+        <v>610001</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f t="shared" ref="C29:C60" si="1">_xlfn.CONCAT("itemname_",B29)</f>
+        <v>itemname_610001</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>999</v>
+      </c>
+      <c r="I29" s="4" t="str">
+        <f>_xlfn.CONCAT("itemicon_",B29)</f>
+        <v>itemicon_610001</v>
+      </c>
+    </row>
+    <row r="30" ht="17.25" spans="2:9">
+      <c r="B30" s="10">
+        <v>610002</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_610002</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>999</v>
+      </c>
+      <c r="I30" s="4" t="str">
+        <f t="shared" ref="I30:I61" si="2">_xlfn.CONCAT("itemicon_",B30)</f>
+        <v>itemicon_610002</v>
+      </c>
+    </row>
+    <row r="31" ht="17.25" spans="2:9">
+      <c r="B31" s="10">
+        <v>610003</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_610003</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>999</v>
+      </c>
+      <c r="I31" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_610003</v>
+      </c>
+    </row>
+    <row r="32" ht="17.25" spans="2:9">
+      <c r="B32" s="10">
+        <v>610004</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_610004</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>999</v>
+      </c>
+      <c r="I32" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_610004</v>
+      </c>
+    </row>
+    <row r="33" ht="17.25" spans="2:9">
+      <c r="B33" s="10">
+        <v>610005</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_610005</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4">
+        <v>999</v>
+      </c>
+      <c r="I33" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_610005</v>
+      </c>
+    </row>
+    <row r="34" ht="17.25" spans="2:9">
+      <c r="B34" s="10">
+        <v>610006</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_610006</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>999</v>
+      </c>
+      <c r="I34" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_610006</v>
+      </c>
+    </row>
+    <row r="35" ht="17.25" spans="2:9">
+      <c r="B35" s="10">
+        <v>610007</v>
+      </c>
+      <c r="C35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_610007</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>999</v>
+      </c>
+      <c r="I35" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_610007</v>
+      </c>
+    </row>
+    <row r="36" ht="17.25" spans="2:9">
+      <c r="B36" s="10">
+        <v>610008</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_610008</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>999</v>
+      </c>
+      <c r="I36" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_610008</v>
+      </c>
+    </row>
+    <row r="37" ht="17.25" spans="2:9">
+      <c r="B37" s="10">
+        <v>610009</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_610009</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>999</v>
+      </c>
+      <c r="I37" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_610009</v>
+      </c>
+    </row>
+    <row r="38" ht="17.25" spans="2:9">
+      <c r="B38" s="10">
+        <v>610010</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_610010</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>999</v>
+      </c>
+      <c r="I38" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_610010</v>
+      </c>
+    </row>
+    <row r="39" ht="17.25" spans="2:9">
+      <c r="B39" s="10">
+        <v>620001</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_620001</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>999</v>
+      </c>
+      <c r="I39" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_620001</v>
+      </c>
+    </row>
+    <row r="40" ht="17.25" spans="2:9">
+      <c r="B40" s="10">
+        <v>620002</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_620002</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>999</v>
+      </c>
+      <c r="I40" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_620002</v>
+      </c>
+    </row>
+    <row r="41" ht="17.25" spans="2:9">
+      <c r="B41" s="10">
+        <v>620003</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_620003</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>999</v>
+      </c>
+      <c r="I41" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_620003</v>
+      </c>
+    </row>
+    <row r="42" ht="17.25" spans="2:9">
+      <c r="B42" s="10">
+        <v>620004</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_620004</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <v>999</v>
+      </c>
+      <c r="I42" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_620004</v>
+      </c>
+    </row>
+    <row r="43" ht="17.25" spans="2:9">
+      <c r="B43" s="10">
+        <v>620005</v>
+      </c>
+      <c r="C43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_620005</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>999</v>
+      </c>
+      <c r="I43" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_620005</v>
+      </c>
+    </row>
+    <row r="44" ht="17.25" spans="2:9">
+      <c r="B44" s="10">
+        <v>620006</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_620006</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>999</v>
+      </c>
+      <c r="I44" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_620006</v>
+      </c>
+    </row>
+    <row r="45" ht="17.25" spans="2:9">
+      <c r="B45" s="10">
+        <v>620007</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_620007</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>999</v>
+      </c>
+      <c r="I45" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_620007</v>
+      </c>
+    </row>
+    <row r="46" ht="17.25" spans="2:9">
+      <c r="B46" s="10">
+        <v>620008</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_620008</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>999</v>
+      </c>
+      <c r="I46" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_620008</v>
+      </c>
+    </row>
+    <row r="47" ht="17.25" spans="2:9">
+      <c r="B47" s="10">
+        <v>620009</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_620009</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4">
+        <v>999</v>
+      </c>
+      <c r="I47" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_620009</v>
+      </c>
+    </row>
+    <row r="48" ht="17.25" spans="2:9">
+      <c r="B48" s="10">
+        <v>620010</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_620010</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
+        <v>999</v>
+      </c>
+      <c r="I48" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_620010</v>
+      </c>
+    </row>
+    <row r="49" ht="17.25" spans="2:9">
+      <c r="B49" s="10">
+        <v>630001</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_630001</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4">
+        <v>999</v>
+      </c>
+      <c r="I49" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_630001</v>
+      </c>
+    </row>
+    <row r="50" ht="17.25" spans="2:9">
+      <c r="B50" s="10">
+        <v>630002</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_630002</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4">
+        <v>999</v>
+      </c>
+      <c r="I50" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_630002</v>
+      </c>
+    </row>
+    <row r="51" ht="17.25" spans="2:9">
+      <c r="B51" s="10">
+        <v>630003</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_630003</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4">
+        <v>999</v>
+      </c>
+      <c r="I51" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_630003</v>
+      </c>
+    </row>
+    <row r="52" ht="17.25" spans="2:9">
+      <c r="B52" s="10">
+        <v>630004</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_630004</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4">
+        <v>999</v>
+      </c>
+      <c r="I52" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_630004</v>
+      </c>
+    </row>
+    <row r="53" ht="17.25" spans="2:9">
+      <c r="B53" s="10">
+        <v>630005</v>
+      </c>
+      <c r="C53" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_630005</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4">
+        <v>999</v>
+      </c>
+      <c r="I53" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_630005</v>
+      </c>
+    </row>
+    <row r="54" ht="17.25" spans="2:9">
+      <c r="B54" s="10">
+        <v>630006</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_630006</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4">
+        <v>999</v>
+      </c>
+      <c r="I54" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_630006</v>
+      </c>
+    </row>
+    <row r="55" ht="17.25" spans="2:9">
+      <c r="B55" s="10">
+        <v>630007</v>
+      </c>
+      <c r="C55" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_630007</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4">
+        <v>999</v>
+      </c>
+      <c r="I55" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_630007</v>
+      </c>
+    </row>
+    <row r="56" ht="17.25" spans="2:9">
+      <c r="B56" s="10">
+        <v>630008</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_630008</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="4">
+        <v>999</v>
+      </c>
+      <c r="I56" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_630008</v>
+      </c>
+    </row>
+    <row r="57" ht="17.25" spans="2:9">
+      <c r="B57" s="10">
+        <v>630009</v>
+      </c>
+      <c r="C57" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_630009</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4">
+        <v>999</v>
+      </c>
+      <c r="I57" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_630009</v>
+      </c>
+    </row>
+    <row r="58" ht="17.25" spans="2:9">
+      <c r="B58" s="10">
+        <v>630010</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_630010</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4">
+        <v>999</v>
+      </c>
+      <c r="I58" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_630010</v>
+      </c>
+    </row>
+    <row r="59" ht="17.25" spans="2:9">
+      <c r="B59" s="11">
+        <v>640001</v>
+      </c>
+      <c r="C59" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_640001</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4">
+        <v>999</v>
+      </c>
+      <c r="I59" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_640001</v>
+      </c>
+    </row>
+    <row r="60" ht="17.25" spans="2:9">
+      <c r="B60" s="11">
+        <v>640002</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>itemname_640002</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4">
+        <v>999</v>
+      </c>
+      <c r="I60" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_640002</v>
+      </c>
+    </row>
+    <row r="61" ht="17.25" spans="2:9">
+      <c r="B61" s="11">
+        <v>640003</v>
+      </c>
+      <c r="C61" s="4" t="str">
+        <f t="shared" ref="C61:C88" si="3">_xlfn.CONCAT("itemname_",B61)</f>
+        <v>itemname_640003</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="4">
+        <v>999</v>
+      </c>
+      <c r="I61" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>itemicon_640003</v>
+      </c>
+    </row>
+    <row r="62" ht="17.25" spans="2:9">
+      <c r="B62" s="11">
+        <v>640004</v>
+      </c>
+      <c r="C62" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_640004</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4">
+        <v>999</v>
+      </c>
+      <c r="I62" s="4" t="str">
+        <f t="shared" ref="I62:I88" si="4">_xlfn.CONCAT("itemicon_",B62)</f>
+        <v>itemicon_640004</v>
+      </c>
+    </row>
+    <row r="63" ht="17.25" spans="2:9">
+      <c r="B63" s="11">
+        <v>640005</v>
+      </c>
+      <c r="C63" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_640005</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4">
+        <v>999</v>
+      </c>
+      <c r="I63" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_640005</v>
+      </c>
+    </row>
+    <row r="64" ht="17.25" spans="2:9">
+      <c r="B64" s="11">
+        <v>640006</v>
+      </c>
+      <c r="C64" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_640006</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4">
+        <v>999</v>
+      </c>
+      <c r="I64" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_640006</v>
+      </c>
+    </row>
+    <row r="65" ht="17.25" spans="2:9">
+      <c r="B65" s="11">
+        <v>640007</v>
+      </c>
+      <c r="C65" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_640007</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4">
+        <v>999</v>
+      </c>
+      <c r="I65" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_640007</v>
+      </c>
+    </row>
+    <row r="66" ht="17.25" spans="2:9">
+      <c r="B66" s="11">
+        <v>640008</v>
+      </c>
+      <c r="C66" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_640008</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4">
+        <v>999</v>
+      </c>
+      <c r="I66" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_640008</v>
+      </c>
+    </row>
+    <row r="67" ht="17.25" spans="2:9">
+      <c r="B67" s="11">
+        <v>640009</v>
+      </c>
+      <c r="C67" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_640009</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4">
+        <v>999</v>
+      </c>
+      <c r="I67" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_640009</v>
+      </c>
+    </row>
+    <row r="68" ht="17.25" spans="2:9">
+      <c r="B68" s="11">
+        <v>640010</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_640010</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4">
+        <v>999</v>
+      </c>
+      <c r="I68" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_640010</v>
+      </c>
+    </row>
+    <row r="69" ht="17.25" spans="2:9">
+      <c r="B69" s="11">
+        <v>650001</v>
+      </c>
+      <c r="C69" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_650001</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4">
+        <v>999</v>
+      </c>
+      <c r="I69" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_650001</v>
+      </c>
+    </row>
+    <row r="70" ht="17.25" spans="2:9">
+      <c r="B70" s="11">
+        <v>650002</v>
+      </c>
+      <c r="C70" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_650002</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4">
+        <v>999</v>
+      </c>
+      <c r="I70" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_650002</v>
+      </c>
+    </row>
+    <row r="71" ht="17.25" spans="2:9">
+      <c r="B71" s="11">
+        <v>650003</v>
+      </c>
+      <c r="C71" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_650003</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4">
+        <v>999</v>
+      </c>
+      <c r="I71" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_650003</v>
+      </c>
+    </row>
+    <row r="72" ht="17.25" spans="2:9">
+      <c r="B72" s="11">
+        <v>650004</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_650004</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4">
+        <v>999</v>
+      </c>
+      <c r="I72" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_650004</v>
+      </c>
+    </row>
+    <row r="73" ht="17.25" spans="2:9">
+      <c r="B73" s="11">
+        <v>650005</v>
+      </c>
+      <c r="C73" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_650005</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4">
+        <v>999</v>
+      </c>
+      <c r="I73" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_650005</v>
+      </c>
+    </row>
+    <row r="74" ht="17.25" spans="2:9">
+      <c r="B74" s="11">
+        <v>650006</v>
+      </c>
+      <c r="C74" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_650006</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4">
+        <v>999</v>
+      </c>
+      <c r="I74" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_650006</v>
+      </c>
+    </row>
+    <row r="75" ht="17.25" spans="2:9">
+      <c r="B75" s="11">
+        <v>650007</v>
+      </c>
+      <c r="C75" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_650007</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" s="4">
+        <v>999</v>
+      </c>
+      <c r="I75" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_650007</v>
+      </c>
+    </row>
+    <row r="76" ht="17.25" spans="2:9">
+      <c r="B76" s="11">
+        <v>650008</v>
+      </c>
+      <c r="C76" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_650008</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" s="4">
+        <v>999</v>
+      </c>
+      <c r="I76" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_650008</v>
+      </c>
+    </row>
+    <row r="77" ht="17.25" spans="2:9">
+      <c r="B77" s="11">
+        <v>650009</v>
+      </c>
+      <c r="C77" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_650009</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="G77" s="4">
+        <v>999</v>
+      </c>
+      <c r="I77" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_650009</v>
+      </c>
+    </row>
+    <row r="78" ht="17.25" spans="2:9">
+      <c r="B78" s="11">
+        <v>650010</v>
+      </c>
+      <c r="C78" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_650010</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+      <c r="G78" s="4">
+        <v>999</v>
+      </c>
+      <c r="I78" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_650010</v>
+      </c>
+    </row>
+    <row r="79" ht="17.25" spans="2:9">
+      <c r="B79" s="11">
+        <v>660001</v>
+      </c>
+      <c r="C79" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_660001</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1</v>
+      </c>
+      <c r="G79" s="4">
+        <v>999</v>
+      </c>
+      <c r="I79" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_660001</v>
+      </c>
+    </row>
+    <row r="80" ht="17.25" spans="2:9">
+      <c r="B80" s="11">
+        <v>660002</v>
+      </c>
+      <c r="C80" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_660002</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+      <c r="G80" s="4">
+        <v>999</v>
+      </c>
+      <c r="I80" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_660002</v>
+      </c>
+    </row>
+    <row r="81" ht="17.25" spans="2:9">
+      <c r="B81" s="11">
+        <v>660003</v>
+      </c>
+      <c r="C81" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_660003</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+      <c r="G81" s="4">
+        <v>999</v>
+      </c>
+      <c r="I81" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_660003</v>
+      </c>
+    </row>
+    <row r="82" ht="17.25" spans="2:9">
+      <c r="B82" s="11">
+        <v>660004</v>
+      </c>
+      <c r="C82" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_660004</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" s="4">
+        <v>999</v>
+      </c>
+      <c r="I82" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_660004</v>
+      </c>
+    </row>
+    <row r="83" ht="17.25" spans="2:9">
+      <c r="B83" s="11">
+        <v>660005</v>
+      </c>
+      <c r="C83" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_660005</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+      <c r="G83" s="4">
+        <v>999</v>
+      </c>
+      <c r="I83" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_660005</v>
+      </c>
+    </row>
+    <row r="84" ht="17.25" spans="2:9">
+      <c r="B84" s="11">
+        <v>660006</v>
+      </c>
+      <c r="C84" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_660006</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" s="4">
+        <v>999</v>
+      </c>
+      <c r="I84" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_660006</v>
+      </c>
+    </row>
+    <row r="85" ht="17.25" spans="2:9">
+      <c r="B85" s="11">
+        <v>660007</v>
+      </c>
+      <c r="C85" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_660007</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+      <c r="G85" s="4">
+        <v>999</v>
+      </c>
+      <c r="I85" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_660007</v>
+      </c>
+    </row>
+    <row r="86" ht="17.25" spans="2:9">
+      <c r="B86" s="11">
+        <v>660008</v>
+      </c>
+      <c r="C86" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_660008</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+      <c r="G86" s="4">
+        <v>999</v>
+      </c>
+      <c r="I86" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_660008</v>
+      </c>
+    </row>
+    <row r="87" ht="17.25" spans="2:9">
+      <c r="B87" s="11">
+        <v>660009</v>
+      </c>
+      <c r="C87" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_660009</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1</v>
+      </c>
+      <c r="G87" s="4">
+        <v>999</v>
+      </c>
+      <c r="I87" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_660009</v>
+      </c>
+    </row>
+    <row r="88" ht="17.25" spans="2:9">
+      <c r="B88" s="11">
+        <v>660010</v>
+      </c>
+      <c r="C88" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_660010</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F88" s="4">
+        <v>1</v>
+      </c>
+      <c r="G88" s="4">
+        <v>999</v>
+      </c>
+      <c r="I88" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_660010</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="4">
+        <v>670001</v>
+      </c>
+      <c r="C89" s="4" t="str">
+        <f t="shared" ref="C89:C98" si="5">_xlfn.CONCAT("itemname_",B89)</f>
+        <v>itemname_670001</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1</v>
+      </c>
+      <c r="G89" s="4">
+        <v>999</v>
+      </c>
+      <c r="I89" s="4" t="str">
+        <f t="shared" ref="I89:I98" si="6">_xlfn.CONCAT("itemicon_",B89)</f>
+        <v>itemicon_670001</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="B90" s="4">
+        <v>670002</v>
+      </c>
+      <c r="C90" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>itemname_670002</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+      <c r="G90" s="4">
+        <v>999</v>
+      </c>
+      <c r="I90" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>itemicon_670002</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="B91" s="4">
+        <v>670003</v>
+      </c>
+      <c r="C91" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>itemname_670003</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4">
+        <v>999</v>
+      </c>
+      <c r="I91" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>itemicon_670003</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="4">
+        <v>670004</v>
+      </c>
+      <c r="C92" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>itemname_670004</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1</v>
+      </c>
+      <c r="G92" s="4">
+        <v>999</v>
+      </c>
+      <c r="I92" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>itemicon_670004</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="4">
+        <v>670005</v>
+      </c>
+      <c r="C93" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>itemname_670005</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4">
+        <v>999</v>
+      </c>
+      <c r="I93" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>itemicon_670005</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" s="4">
+        <v>670006</v>
+      </c>
+      <c r="C94" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>itemname_670006</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F94" s="4">
+        <v>1</v>
+      </c>
+      <c r="G94" s="4">
+        <v>999</v>
+      </c>
+      <c r="I94" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>itemicon_670006</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="4">
+        <v>670007</v>
+      </c>
+      <c r="C95" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>itemname_670007</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+      <c r="G95" s="4">
+        <v>999</v>
+      </c>
+      <c r="I95" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>itemicon_670007</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="4">
+        <v>670008</v>
+      </c>
+      <c r="C96" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>itemname_670008</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F96" s="4">
+        <v>1</v>
+      </c>
+      <c r="G96" s="4">
+        <v>999</v>
+      </c>
+      <c r="I96" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>itemicon_670008</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="4">
+        <v>670009</v>
+      </c>
+      <c r="C97" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>itemname_670009</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
+      <c r="G97" s="4">
+        <v>999</v>
+      </c>
+      <c r="I97" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>itemicon_670009</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="4">
+        <v>670010</v>
+      </c>
+      <c r="C98" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>itemname_670010</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+      <c r="G98" s="4">
+        <v>999</v>
+      </c>
+      <c r="I98" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>itemicon_670010</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -10,7 +10,7 @@
     <sheet name="ItemConfig" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ItemConfig!$A$1:$G$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ItemConfig!$A$1:$G$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1229,7 +1229,7 @@
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3729,7 +3729,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G28">
+  <autoFilter ref="A1:G98">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
+    <workbookView windowWidth="18465" windowHeight="8325" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="普通道具" sheetId="6" r:id="rId1"/>
@@ -1297,7 +1297,7 @@
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18465" windowHeight="8325" tabRatio="809"/>
+    <workbookView windowWidth="20175" windowHeight="8325" tabRatio="809" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="普通道具" sheetId="6" r:id="rId1"/>
@@ -1296,8 +1296,8 @@
   <sheetPr/>
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2803,8 +2803,8 @@
   <sheetPr/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20175" windowHeight="8325" tabRatio="809" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="普通道具" sheetId="6" r:id="rId1"/>
     <sheet name="装备" sheetId="7" r:id="rId2"/>
     <sheet name="宝石" sheetId="8" r:id="rId3"/>
+    <sheet name="坐骑激活道具" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">普通道具!$A$1:$G$98</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="99">
   <si>
     <t>##var</t>
   </si>
@@ -299,6 +300,36 @@
   </si>
   <si>
     <t>紫</t>
+  </si>
+  <si>
+    <t>itemname_920001</t>
+  </si>
+  <si>
+    <t>itemname_920002</t>
+  </si>
+  <si>
+    <t>itemname_920003</t>
+  </si>
+  <si>
+    <t>itemname_920004</t>
+  </si>
+  <si>
+    <t>itemname_920005</t>
+  </si>
+  <si>
+    <t>itemname_920006</t>
+  </si>
+  <si>
+    <t>itemname_920007</t>
+  </si>
+  <si>
+    <t>itemname_920008</t>
+  </si>
+  <si>
+    <t>itemname_920009</t>
+  </si>
+  <si>
+    <t>itemname_920010</t>
   </si>
 </sst>
 </file>
@@ -940,6 +971,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -964,9 +998,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1302,1495 +1333,1495 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="14.375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="29.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="22.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9" style="8"/>
-    <col min="11" max="16383" width="9" style="11"/>
-    <col min="16384" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="2" width="14.375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="29.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="9" customWidth="1"/>
+    <col min="10" max="10" width="9" style="9"/>
+    <col min="11" max="16383" width="9" style="12"/>
+    <col min="16384" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:10">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="6"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>60001</v>
       </c>
-      <c r="C5" s="8" t="str">
+      <c r="C5" s="9" t="str">
         <f>_xlfn.CONCAT("itemname_",B5)</f>
         <v>itemname_60001</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>999</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>999</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>60002</v>
       </c>
-      <c r="C6" s="8" t="str">
-        <f t="shared" ref="C6:C13" si="0">_xlfn.CONCAT("itemname_",B6)</f>
+      <c r="C6" s="9" t="str">
+        <f t="shared" ref="C6:C14" si="0">_xlfn.CONCAT("itemname_",B6)</f>
         <v>itemname_60002</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>999</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>999</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>60003</v>
       </c>
-      <c r="C7" s="8" t="str">
+      <c r="C7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60003</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>999</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>999</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>60004</v>
       </c>
-      <c r="C8" s="8" t="str">
+      <c r="C8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60004</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
-        <v>999</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>999</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>60005</v>
       </c>
-      <c r="C9" s="8" t="str">
+      <c r="C9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60005</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>999</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>999</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>60006</v>
       </c>
-      <c r="C10" s="8" t="str">
+      <c r="C10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60006</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>999</v>
-      </c>
-      <c r="I10" s="8" t="s">
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>999</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>60007</v>
       </c>
-      <c r="C11" s="8" t="str">
+      <c r="C11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60007</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>999</v>
-      </c>
-      <c r="I11" s="8" t="s">
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>999</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>60008</v>
       </c>
-      <c r="C12" s="8" t="str">
+      <c r="C12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60008</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="8">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8">
-        <v>999</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>999</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>60009</v>
       </c>
-      <c r="C13" s="8" t="str">
+      <c r="C13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60009</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8">
-        <v>999</v>
-      </c>
-      <c r="I13" s="8" t="s">
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>710001</v>
       </c>
-      <c r="C14" s="8" t="str">
-        <f>_xlfn.CONCAT("itemname_",B14)</f>
+      <c r="C14" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>itemname_710001</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
         <v>9999</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="8" t="s">
+      <c r="H14" s="13"/>
+      <c r="I14" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>710002</v>
       </c>
-      <c r="C15" s="8" t="str">
+      <c r="C15" s="9" t="str">
         <f t="shared" ref="C15:C33" si="1">_xlfn.CONCAT("itemname_",B15)</f>
         <v>itemname_710002</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
         <v>9999</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="8" t="s">
+      <c r="H15" s="13"/>
+      <c r="I15" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>710003</v>
       </c>
-      <c r="C16" s="8" t="str">
+      <c r="C16" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710003</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
         <v>9999</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="8" t="s">
+      <c r="H16" s="13"/>
+      <c r="I16" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>710004</v>
       </c>
-      <c r="C17" s="8" t="str">
+      <c r="C17" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710004</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="8">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
         <v>9999</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="8" t="s">
+      <c r="H17" s="13"/>
+      <c r="I17" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <v>710005</v>
       </c>
-      <c r="C18" s="8" t="str">
+      <c r="C18" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710005</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="8">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
         <v>9999</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="8" t="s">
+      <c r="H18" s="13"/>
+      <c r="I18" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>710006</v>
       </c>
-      <c r="C19" s="8" t="str">
+      <c r="C19" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710006</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
         <v>9999</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="8" t="s">
+      <c r="H19" s="13"/>
+      <c r="I19" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="13">
+      <c r="B20" s="11">
         <v>710007</v>
       </c>
-      <c r="C20" s="8" t="str">
+      <c r="C20" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710007</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="8">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
         <v>9999</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="8" t="s">
+      <c r="H20" s="13"/>
+      <c r="I20" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="13">
+      <c r="B21" s="11">
         <v>710008</v>
       </c>
-      <c r="C21" s="8" t="str">
+      <c r="C21" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710008</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9">
         <v>9999</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="8" t="s">
+      <c r="H21" s="13"/>
+      <c r="I21" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="13">
+      <c r="B22" s="11">
         <v>710009</v>
       </c>
-      <c r="C22" s="8" t="str">
+      <c r="C22" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710009</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="8">
-        <v>1</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
         <v>9999</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="8" t="s">
+      <c r="H22" s="13"/>
+      <c r="I22" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="13">
+      <c r="B23" s="11">
         <v>710010</v>
       </c>
-      <c r="C23" s="8" t="str">
+      <c r="C23" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710010</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="8">
-        <v>1</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
         <v>9999</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="8" t="s">
+      <c r="H23" s="13"/>
+      <c r="I23" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="13">
+      <c r="B24" s="11">
         <v>710011</v>
       </c>
-      <c r="C24" s="8" t="str">
+      <c r="C24" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710011</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
         <v>9999</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="8" t="s">
+      <c r="H24" s="13"/>
+      <c r="I24" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="13">
+      <c r="B25" s="11">
         <v>710012</v>
       </c>
-      <c r="C25" s="8" t="str">
+      <c r="C25" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710012</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="8">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
         <v>9999</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="8" t="s">
+      <c r="H25" s="13"/>
+      <c r="I25" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="13">
+      <c r="B26" s="11">
         <v>710013</v>
       </c>
-      <c r="C26" s="8" t="str">
+      <c r="C26" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710013</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="8">
-        <v>1</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
         <v>9999</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="8" t="s">
+      <c r="H26" s="13"/>
+      <c r="I26" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="13">
+      <c r="B27" s="11">
         <v>710014</v>
       </c>
-      <c r="C27" s="8" t="str">
+      <c r="C27" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710014</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="8">
-        <v>1</v>
-      </c>
-      <c r="G27" s="8">
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9">
         <v>9999</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="8" t="s">
+      <c r="H27" s="13"/>
+      <c r="I27" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="13">
+      <c r="B28" s="11">
         <v>710015</v>
       </c>
-      <c r="C28" s="8" t="str">
+      <c r="C28" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710015</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="8">
-        <v>1</v>
-      </c>
-      <c r="G28" s="8">
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
         <v>9999</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="8" t="s">
+      <c r="H28" s="13"/>
+      <c r="I28" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="13">
+      <c r="B29" s="11">
         <v>710016</v>
       </c>
-      <c r="C29" s="8" t="str">
+      <c r="C29" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710016</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="8">
-        <v>1</v>
-      </c>
-      <c r="G29" s="8">
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
         <v>9999</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="8" t="s">
+      <c r="H29" s="13"/>
+      <c r="I29" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="13">
+      <c r="B30" s="11">
         <v>710017</v>
       </c>
-      <c r="C30" s="8" t="str">
+      <c r="C30" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710017</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="8">
-        <v>1</v>
-      </c>
-      <c r="G30" s="8">
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9">
         <v>9999</v>
       </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="8" t="s">
+      <c r="H30" s="13"/>
+      <c r="I30" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="13">
+      <c r="B31" s="11">
         <v>710018</v>
       </c>
-      <c r="C31" s="8" t="str">
+      <c r="C31" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710018</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="8">
-        <v>1</v>
-      </c>
-      <c r="G31" s="8">
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
         <v>9999</v>
       </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="8" t="s">
+      <c r="H31" s="13"/>
+      <c r="I31" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="13">
+      <c r="B32" s="11">
         <v>710019</v>
       </c>
-      <c r="C32" s="8" t="str">
+      <c r="C32" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710019</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="8">
-        <v>1</v>
-      </c>
-      <c r="G32" s="8">
+      <c r="F32" s="9">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
         <v>9999</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="8" t="s">
+      <c r="H32" s="13"/>
+      <c r="I32" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="13">
+      <c r="B33" s="11">
         <v>710020</v>
       </c>
-      <c r="C33" s="8" t="str">
+      <c r="C33" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710020</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="8">
-        <v>1</v>
-      </c>
-      <c r="G33" s="8">
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9">
         <v>9999</v>
       </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="8" t="s">
+      <c r="H33" s="13"/>
+      <c r="I33" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="13"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="13"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="13"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="13"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="13"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="13"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="13"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="13"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="13"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="13"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="13"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="13"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="13"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="13"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="13"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="13"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="13"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="13"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="13"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="13"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="13"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="13"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="13"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
     </row>
     <row r="57" spans="2:9">
-      <c r="B57" s="13"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
     </row>
     <row r="58" spans="2:9">
-      <c r="B58" s="13"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
     </row>
     <row r="59" spans="2:9">
-      <c r="B59" s="13"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="13"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
     </row>
     <row r="61" spans="2:9">
-      <c r="B61" s="13"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="13"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="13"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="13"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
     </row>
     <row r="65" spans="2:9">
-      <c r="B65" s="13"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
     </row>
     <row r="66" spans="2:9">
-      <c r="B66" s="13"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
     </row>
     <row r="67" spans="2:9">
-      <c r="B67" s="13"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
     </row>
     <row r="68" spans="2:9">
-      <c r="B68" s="13"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
     </row>
     <row r="69" spans="2:9">
-      <c r="B69" s="13"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
     </row>
     <row r="70" spans="2:9">
-      <c r="B70" s="13"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
     </row>
     <row r="71" spans="2:9">
-      <c r="B71" s="13"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
     </row>
     <row r="72" spans="2:9">
-      <c r="B72" s="13"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
     </row>
     <row r="73" spans="2:9">
-      <c r="B73" s="13"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="13"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
     </row>
     <row r="75" spans="2:9">
-      <c r="B75" s="13"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
     </row>
     <row r="76" spans="2:9">
-      <c r="B76" s="13"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
     </row>
     <row r="77" spans="2:9">
-      <c r="B77" s="13"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="13"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="13"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="13"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
     </row>
     <row r="81" spans="2:9">
-      <c r="B81" s="13"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
     </row>
     <row r="82" spans="2:9">
-      <c r="B82" s="13"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
     </row>
     <row r="83" spans="2:9">
-      <c r="B83" s="13"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="13"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
     </row>
     <row r="85" spans="2:9">
-      <c r="B85" s="13"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
     </row>
     <row r="86" spans="2:9">
-      <c r="B86" s="13"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
     </row>
     <row r="87" spans="2:9">
-      <c r="B87" s="13"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
     </row>
     <row r="88" spans="2:9">
-      <c r="B88" s="13"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
     </row>
     <row r="89" spans="2:9">
-      <c r="B89" s="13"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
     </row>
     <row r="90" spans="2:9">
-      <c r="B90" s="13"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
     </row>
     <row r="91" spans="2:9">
-      <c r="B91" s="13"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
     </row>
     <row r="92" spans="2:9">
-      <c r="B92" s="13"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
     </row>
     <row r="93" spans="2:9">
-      <c r="B93" s="13"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
     </row>
     <row r="94" spans="2:9">
-      <c r="B94" s="13"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
     </row>
     <row r="95" spans="2:9">
-      <c r="B95" s="13"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
     </row>
     <row r="96" spans="2:9">
-      <c r="B96" s="13"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
     </row>
     <row r="97" spans="2:9">
-      <c r="B97" s="13"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
     </row>
     <row r="98" spans="2:9">
-      <c r="B98" s="13"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2803,8 +2834,8 @@
   <sheetPr/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2820,517 +2851,517 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="6"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" ht="16.5" spans="2:9">
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>60010</v>
       </c>
-      <c r="C5" s="8" t="str">
+      <c r="C5" s="9" t="str">
         <f t="shared" ref="C5:C19" si="0">_xlfn.CONCAT("itemname_",B5)</f>
         <v>itemname_60010</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:9">
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>60011</v>
       </c>
-      <c r="C6" s="8" t="str">
+      <c r="C6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60011</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:9">
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>60012</v>
       </c>
-      <c r="C7" s="8" t="str">
+      <c r="C7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60012</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:9">
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>60013</v>
       </c>
-      <c r="C8" s="8" t="str">
+      <c r="C8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60013</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="2:9">
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>60014</v>
       </c>
-      <c r="C9" s="8" t="str">
+      <c r="C9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60014</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:9">
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>60015</v>
       </c>
-      <c r="C10" s="8" t="str">
+      <c r="C10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60015</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10" t="s">
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:9">
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>60016</v>
       </c>
-      <c r="C11" s="8" t="str">
+      <c r="C11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60016</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:9">
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>60017</v>
       </c>
-      <c r="C12" s="8" t="str">
+      <c r="C12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60017</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="8">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10" t="s">
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:9">
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>60018</v>
       </c>
-      <c r="C13" s="8" t="str">
+      <c r="C13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60018</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="10" t="s">
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:9">
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>60019</v>
       </c>
-      <c r="C14" s="8" t="str">
+      <c r="C14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60019</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:9">
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>60020</v>
       </c>
-      <c r="C15" s="8" t="str">
+      <c r="C15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60020</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:9">
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>60021</v>
       </c>
-      <c r="C16" s="8" t="str">
+      <c r="C16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60021</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="10" t="s">
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:9">
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>60022</v>
       </c>
-      <c r="C17" s="8" t="str">
+      <c r="C17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60022</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="8">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10" t="s">
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:9">
-      <c r="B18" s="8">
+      <c r="B18" s="9">
         <v>60023</v>
       </c>
-      <c r="C18" s="8" t="str">
+      <c r="C18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60023</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="8">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="10" t="s">
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:9">
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>60024</v>
       </c>
-      <c r="C19" s="8" t="str">
+      <c r="C19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60024</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="10" t="s">
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3346,7 +3377,7 @@
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3362,1933 +3393,2312 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="6"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" ht="17.25" spans="2:9">
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>610001</v>
       </c>
-      <c r="C5" s="8" t="str">
+      <c r="C5" s="9" t="str">
         <f t="shared" ref="C5:C68" si="0">_xlfn.CONCAT("itemname_",B5)</f>
         <v>itemname_610001</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>999</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="str">
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>999</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="str">
         <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("itemicon_",B5)</f>
         <v>itemicon_610001</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="2:9">
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>610002</v>
       </c>
-      <c r="C6" s="8" t="str">
+      <c r="C6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610002</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>999</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="str">
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>999</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610002</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="2:9">
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>610003</v>
       </c>
-      <c r="C7" s="8" t="str">
+      <c r="C7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610003</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>999</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8" t="str">
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>999</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610003</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="2:9">
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>610004</v>
       </c>
-      <c r="C8" s="8" t="str">
+      <c r="C8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610004</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
-        <v>999</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8" t="str">
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>999</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610004</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="2:9">
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>610005</v>
       </c>
-      <c r="C9" s="8" t="str">
+      <c r="C9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610005</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>999</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8" t="str">
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>999</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610005</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="2:9">
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>610006</v>
       </c>
-      <c r="C10" s="8" t="str">
+      <c r="C10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610006</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>999</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8" t="str">
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>999</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610006</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="2:9">
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>610007</v>
       </c>
-      <c r="C11" s="8" t="str">
+      <c r="C11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610007</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>999</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8" t="str">
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>999</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610007</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="2:9">
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>610008</v>
       </c>
-      <c r="C12" s="8" t="str">
+      <c r="C12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610008</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="8">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8">
-        <v>999</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8" t="str">
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>999</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610008</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="2:9">
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>610009</v>
       </c>
-      <c r="C13" s="8" t="str">
+      <c r="C13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610009</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8">
-        <v>999</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8" t="str">
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610009</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="2:9">
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>610010</v>
       </c>
-      <c r="C14" s="8" t="str">
+      <c r="C14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610010</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
-        <v>999</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8" t="str">
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>999</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610010</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="2:9">
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>620001</v>
       </c>
-      <c r="C15" s="8" t="str">
+      <c r="C15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620001</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8">
-        <v>999</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8" t="str">
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>999</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620001</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="2:9">
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>620002</v>
       </c>
-      <c r="C16" s="8" t="str">
+      <c r="C16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620002</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8">
-        <v>999</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8" t="str">
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>999</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620002</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="2:9">
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>620003</v>
       </c>
-      <c r="C17" s="8" t="str">
+      <c r="C17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620003</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="8">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8">
-        <v>999</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8" t="str">
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>999</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620003</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="2:9">
-      <c r="B18" s="7">
+      <c r="B18" s="8">
         <v>620004</v>
       </c>
-      <c r="C18" s="8" t="str">
+      <c r="C18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620004</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="8">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8">
-        <v>999</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8" t="str">
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>999</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620004</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="2:9">
-      <c r="B19" s="7">
+      <c r="B19" s="8">
         <v>620005</v>
       </c>
-      <c r="C19" s="8" t="str">
+      <c r="C19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620005</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8">
-        <v>999</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8" t="str">
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
+        <v>999</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620005</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="2:9">
-      <c r="B20" s="7">
+      <c r="B20" s="8">
         <v>620006</v>
       </c>
-      <c r="C20" s="8" t="str">
+      <c r="C20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620006</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="8">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8">
-        <v>999</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8" t="str">
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
+        <v>999</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620006</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="2:9">
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>620007</v>
       </c>
-      <c r="C21" s="8" t="str">
+      <c r="C21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620007</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8">
-        <v>999</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8" t="str">
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9">
+        <v>999</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620007</v>
       </c>
     </row>
     <row r="22" ht="17.25" spans="2:9">
-      <c r="B22" s="7">
+      <c r="B22" s="8">
         <v>620008</v>
       </c>
-      <c r="C22" s="8" t="str">
+      <c r="C22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620008</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="D22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="8">
-        <v>1</v>
-      </c>
-      <c r="G22" s="8">
-        <v>999</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8" t="str">
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <v>999</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620008</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="2:9">
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>620009</v>
       </c>
-      <c r="C23" s="8" t="str">
+      <c r="C23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620009</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="D23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="8">
-        <v>1</v>
-      </c>
-      <c r="G23" s="8">
-        <v>999</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8" t="str">
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>999</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620009</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="2:9">
-      <c r="B24" s="7">
+      <c r="B24" s="8">
         <v>620010</v>
       </c>
-      <c r="C24" s="8" t="str">
+      <c r="C24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620010</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8">
-        <v>999</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8" t="str">
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <v>999</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620010</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="2:9">
-      <c r="B25" s="7">
+      <c r="B25" s="8">
         <v>630001</v>
       </c>
-      <c r="C25" s="8" t="str">
+      <c r="C25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630001</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="D25" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="8">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8">
-        <v>999</v>
-      </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8" t="str">
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <v>999</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630001</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="2:9">
-      <c r="B26" s="7">
+      <c r="B26" s="8">
         <v>630002</v>
       </c>
-      <c r="C26" s="8" t="str">
+      <c r="C26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630002</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="D26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="8">
-        <v>1</v>
-      </c>
-      <c r="G26" s="8">
-        <v>999</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8" t="str">
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>999</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630002</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="2:9">
-      <c r="B27" s="7">
+      <c r="B27" s="8">
         <v>630003</v>
       </c>
-      <c r="C27" s="8" t="str">
+      <c r="C27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630003</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="D27" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="8">
-        <v>1</v>
-      </c>
-      <c r="G27" s="8">
-        <v>999</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8" t="str">
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9">
+        <v>999</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630003</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="2:9">
-      <c r="B28" s="7">
+      <c r="B28" s="8">
         <v>630004</v>
       </c>
-      <c r="C28" s="8" t="str">
+      <c r="C28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630004</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="8" t="s">
+      <c r="D28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="8">
-        <v>1</v>
-      </c>
-      <c r="G28" s="8">
-        <v>999</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8" t="str">
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
+        <v>999</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630004</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="2:9">
-      <c r="B29" s="7">
+      <c r="B29" s="8">
         <v>630005</v>
       </c>
-      <c r="C29" s="8" t="str">
+      <c r="C29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630005</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="D29" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="8">
-        <v>1</v>
-      </c>
-      <c r="G29" s="8">
-        <v>999</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8" t="str">
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>999</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630005</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="2:9">
-      <c r="B30" s="7">
+      <c r="B30" s="8">
         <v>630006</v>
       </c>
-      <c r="C30" s="8" t="str">
+      <c r="C30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630006</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="D30" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="8">
-        <v>1</v>
-      </c>
-      <c r="G30" s="8">
-        <v>999</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8" t="str">
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9">
+        <v>999</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630006</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="2:9">
-      <c r="B31" s="7">
+      <c r="B31" s="8">
         <v>630007</v>
       </c>
-      <c r="C31" s="8" t="str">
+      <c r="C31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630007</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="8" t="s">
+      <c r="D31" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="8">
-        <v>1</v>
-      </c>
-      <c r="G31" s="8">
-        <v>999</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8" t="str">
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
+        <v>999</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630007</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="2:9">
-      <c r="B32" s="7">
+      <c r="B32" s="8">
         <v>630008</v>
       </c>
-      <c r="C32" s="8" t="str">
+      <c r="C32" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630008</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="8" t="s">
+      <c r="D32" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="8">
-        <v>1</v>
-      </c>
-      <c r="G32" s="8">
-        <v>999</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8" t="str">
+      <c r="F32" s="9">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
+        <v>999</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630008</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="2:9">
-      <c r="B33" s="7">
+      <c r="B33" s="8">
         <v>630009</v>
       </c>
-      <c r="C33" s="8" t="str">
+      <c r="C33" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630009</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="8" t="s">
+      <c r="D33" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F33" s="8">
-        <v>1</v>
-      </c>
-      <c r="G33" s="8">
-        <v>999</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8" t="str">
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9">
+        <v>999</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630009</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="2:9">
-      <c r="B34" s="7">
+      <c r="B34" s="8">
         <v>630010</v>
       </c>
-      <c r="C34" s="8" t="str">
+      <c r="C34" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630010</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="8" t="s">
+      <c r="D34" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="8">
-        <v>1</v>
-      </c>
-      <c r="G34" s="8">
-        <v>999</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8" t="str">
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9">
+        <v>999</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630010</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="2:9">
-      <c r="B35" s="9">
+      <c r="B35" s="10">
         <v>640001</v>
       </c>
-      <c r="C35" s="8" t="str">
+      <c r="C35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640001</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="8" t="s">
+      <c r="D35" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="8">
-        <v>1</v>
-      </c>
-      <c r="G35" s="8">
-        <v>999</v>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8" t="str">
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9">
+        <v>999</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640001</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="2:9">
-      <c r="B36" s="9">
+      <c r="B36" s="10">
         <v>640002</v>
       </c>
-      <c r="C36" s="8" t="str">
+      <c r="C36" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640002</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="8" t="s">
+      <c r="D36" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="8">
-        <v>1</v>
-      </c>
-      <c r="G36" s="8">
-        <v>999</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8" t="str">
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="9">
+        <v>999</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640002</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="2:9">
-      <c r="B37" s="9">
+      <c r="B37" s="10">
         <v>640003</v>
       </c>
-      <c r="C37" s="8" t="str">
+      <c r="C37" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640003</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="8" t="s">
+      <c r="D37" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="8">
-        <v>1</v>
-      </c>
-      <c r="G37" s="8">
-        <v>999</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8" t="str">
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9">
+        <v>999</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640003</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="2:9">
-      <c r="B38" s="9">
+      <c r="B38" s="10">
         <v>640004</v>
       </c>
-      <c r="C38" s="8" t="str">
+      <c r="C38" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640004</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="8" t="s">
+      <c r="D38" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F38" s="8">
-        <v>1</v>
-      </c>
-      <c r="G38" s="8">
-        <v>999</v>
-      </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8" t="str">
+      <c r="F38" s="9">
+        <v>1</v>
+      </c>
+      <c r="G38" s="9">
+        <v>999</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640004</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="2:9">
-      <c r="B39" s="9">
+      <c r="B39" s="10">
         <v>640005</v>
       </c>
-      <c r="C39" s="8" t="str">
+      <c r="C39" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640005</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="8" t="s">
+      <c r="D39" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="8">
-        <v>1</v>
-      </c>
-      <c r="G39" s="8">
-        <v>999</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8" t="str">
+      <c r="F39" s="9">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9">
+        <v>999</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640005</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="2:9">
-      <c r="B40" s="9">
+      <c r="B40" s="10">
         <v>640006</v>
       </c>
-      <c r="C40" s="8" t="str">
+      <c r="C40" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640006</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="8" t="s">
+      <c r="D40" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F40" s="8">
-        <v>1</v>
-      </c>
-      <c r="G40" s="8">
-        <v>999</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8" t="str">
+      <c r="F40" s="9">
+        <v>1</v>
+      </c>
+      <c r="G40" s="9">
+        <v>999</v>
+      </c>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640006</v>
       </c>
     </row>
     <row r="41" ht="17.25" spans="2:9">
-      <c r="B41" s="9">
+      <c r="B41" s="10">
         <v>640007</v>
       </c>
-      <c r="C41" s="8" t="str">
+      <c r="C41" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640007</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="8" t="s">
+      <c r="D41" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="8">
-        <v>1</v>
-      </c>
-      <c r="G41" s="8">
-        <v>999</v>
-      </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8" t="str">
+      <c r="F41" s="9">
+        <v>1</v>
+      </c>
+      <c r="G41" s="9">
+        <v>999</v>
+      </c>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640007</v>
       </c>
     </row>
     <row r="42" ht="17.25" spans="2:9">
-      <c r="B42" s="9">
+      <c r="B42" s="10">
         <v>640008</v>
       </c>
-      <c r="C42" s="8" t="str">
+      <c r="C42" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640008</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="8" t="s">
+      <c r="D42" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F42" s="8">
-        <v>1</v>
-      </c>
-      <c r="G42" s="8">
-        <v>999</v>
-      </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8" t="str">
+      <c r="F42" s="9">
+        <v>1</v>
+      </c>
+      <c r="G42" s="9">
+        <v>999</v>
+      </c>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640008</v>
       </c>
     </row>
     <row r="43" ht="17.25" spans="2:9">
-      <c r="B43" s="9">
+      <c r="B43" s="10">
         <v>640009</v>
       </c>
-      <c r="C43" s="8" t="str">
+      <c r="C43" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640009</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="8" t="s">
+      <c r="D43" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="8">
-        <v>1</v>
-      </c>
-      <c r="G43" s="8">
-        <v>999</v>
-      </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8" t="str">
+      <c r="F43" s="9">
+        <v>1</v>
+      </c>
+      <c r="G43" s="9">
+        <v>999</v>
+      </c>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640009</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="2:9">
-      <c r="B44" s="9">
+      <c r="B44" s="10">
         <v>640010</v>
       </c>
-      <c r="C44" s="8" t="str">
+      <c r="C44" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640010</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" s="8" t="s">
+      <c r="D44" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="8">
-        <v>1</v>
-      </c>
-      <c r="G44" s="8">
-        <v>999</v>
-      </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8" t="str">
+      <c r="F44" s="9">
+        <v>1</v>
+      </c>
+      <c r="G44" s="9">
+        <v>999</v>
+      </c>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640010</v>
       </c>
     </row>
     <row r="45" ht="17.25" spans="2:9">
-      <c r="B45" s="9">
+      <c r="B45" s="10">
         <v>650001</v>
       </c>
-      <c r="C45" s="8" t="str">
+      <c r="C45" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650001</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="8" t="s">
+      <c r="D45" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="8">
-        <v>1</v>
-      </c>
-      <c r="G45" s="8">
-        <v>999</v>
-      </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8" t="str">
+      <c r="F45" s="9">
+        <v>1</v>
+      </c>
+      <c r="G45" s="9">
+        <v>999</v>
+      </c>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650001</v>
       </c>
     </row>
     <row r="46" ht="17.25" spans="2:9">
-      <c r="B46" s="9">
+      <c r="B46" s="10">
         <v>650002</v>
       </c>
-      <c r="C46" s="8" t="str">
+      <c r="C46" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650002</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="8" t="s">
+      <c r="D46" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F46" s="8">
-        <v>1</v>
-      </c>
-      <c r="G46" s="8">
-        <v>999</v>
-      </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8" t="str">
+      <c r="F46" s="9">
+        <v>1</v>
+      </c>
+      <c r="G46" s="9">
+        <v>999</v>
+      </c>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650002</v>
       </c>
     </row>
     <row r="47" ht="17.25" spans="2:9">
-      <c r="B47" s="9">
+      <c r="B47" s="10">
         <v>650003</v>
       </c>
-      <c r="C47" s="8" t="str">
+      <c r="C47" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650003</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="8" t="s">
+      <c r="D47" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F47" s="8">
-        <v>1</v>
-      </c>
-      <c r="G47" s="8">
-        <v>999</v>
-      </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8" t="str">
+      <c r="F47" s="9">
+        <v>1</v>
+      </c>
+      <c r="G47" s="9">
+        <v>999</v>
+      </c>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650003</v>
       </c>
     </row>
     <row r="48" ht="17.25" spans="2:9">
-      <c r="B48" s="9">
+      <c r="B48" s="10">
         <v>650004</v>
       </c>
-      <c r="C48" s="8" t="str">
+      <c r="C48" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650004</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="8" t="s">
+      <c r="D48" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F48" s="8">
-        <v>1</v>
-      </c>
-      <c r="G48" s="8">
-        <v>999</v>
-      </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8" t="str">
+      <c r="F48" s="9">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9">
+        <v>999</v>
+      </c>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650004</v>
       </c>
     </row>
     <row r="49" ht="17.25" spans="2:9">
-      <c r="B49" s="9">
+      <c r="B49" s="10">
         <v>650005</v>
       </c>
-      <c r="C49" s="8" t="str">
+      <c r="C49" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650005</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="8" t="s">
+      <c r="D49" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F49" s="8">
-        <v>1</v>
-      </c>
-      <c r="G49" s="8">
-        <v>999</v>
-      </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="str">
+      <c r="F49" s="9">
+        <v>1</v>
+      </c>
+      <c r="G49" s="9">
+        <v>999</v>
+      </c>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650005</v>
       </c>
     </row>
     <row r="50" ht="17.25" spans="2:9">
-      <c r="B50" s="9">
+      <c r="B50" s="10">
         <v>650006</v>
       </c>
-      <c r="C50" s="8" t="str">
+      <c r="C50" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650006</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" s="8" t="s">
+      <c r="D50" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="8">
-        <v>1</v>
-      </c>
-      <c r="G50" s="8">
-        <v>999</v>
-      </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8" t="str">
+      <c r="F50" s="9">
+        <v>1</v>
+      </c>
+      <c r="G50" s="9">
+        <v>999</v>
+      </c>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650006</v>
       </c>
     </row>
     <row r="51" ht="17.25" spans="2:9">
-      <c r="B51" s="9">
+      <c r="B51" s="10">
         <v>650007</v>
       </c>
-      <c r="C51" s="8" t="str">
+      <c r="C51" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650007</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="8" t="s">
+      <c r="D51" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F51" s="8">
-        <v>1</v>
-      </c>
-      <c r="G51" s="8">
-        <v>999</v>
-      </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8" t="str">
+      <c r="F51" s="9">
+        <v>1</v>
+      </c>
+      <c r="G51" s="9">
+        <v>999</v>
+      </c>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650007</v>
       </c>
     </row>
     <row r="52" ht="17.25" spans="2:9">
-      <c r="B52" s="9">
+      <c r="B52" s="10">
         <v>650008</v>
       </c>
-      <c r="C52" s="8" t="str">
+      <c r="C52" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650008</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="8" t="s">
+      <c r="D52" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F52" s="8">
-        <v>1</v>
-      </c>
-      <c r="G52" s="8">
-        <v>999</v>
-      </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="str">
+      <c r="F52" s="9">
+        <v>1</v>
+      </c>
+      <c r="G52" s="9">
+        <v>999</v>
+      </c>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650008</v>
       </c>
     </row>
     <row r="53" ht="17.25" spans="2:9">
-      <c r="B53" s="9">
+      <c r="B53" s="10">
         <v>650009</v>
       </c>
-      <c r="C53" s="8" t="str">
+      <c r="C53" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650009</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E53" s="8" t="s">
+      <c r="D53" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F53" s="8">
-        <v>1</v>
-      </c>
-      <c r="G53" s="8">
-        <v>999</v>
-      </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="str">
+      <c r="F53" s="9">
+        <v>1</v>
+      </c>
+      <c r="G53" s="9">
+        <v>999</v>
+      </c>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650009</v>
       </c>
     </row>
     <row r="54" ht="17.25" spans="2:9">
-      <c r="B54" s="9">
+      <c r="B54" s="10">
         <v>650010</v>
       </c>
-      <c r="C54" s="8" t="str">
+      <c r="C54" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650010</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E54" s="8" t="s">
+      <c r="D54" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F54" s="8">
-        <v>1</v>
-      </c>
-      <c r="G54" s="8">
-        <v>999</v>
-      </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8" t="str">
+      <c r="F54" s="9">
+        <v>1</v>
+      </c>
+      <c r="G54" s="9">
+        <v>999</v>
+      </c>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650010</v>
       </c>
     </row>
     <row r="55" ht="17.25" spans="2:9">
-      <c r="B55" s="9">
+      <c r="B55" s="10">
         <v>660001</v>
       </c>
-      <c r="C55" s="8" t="str">
+      <c r="C55" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660001</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" s="8" t="s">
+      <c r="D55" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F55" s="8">
-        <v>1</v>
-      </c>
-      <c r="G55" s="8">
-        <v>999</v>
-      </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8" t="str">
+      <c r="F55" s="9">
+        <v>1</v>
+      </c>
+      <c r="G55" s="9">
+        <v>999</v>
+      </c>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660001</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="2:9">
-      <c r="B56" s="9">
+      <c r="B56" s="10">
         <v>660002</v>
       </c>
-      <c r="C56" s="8" t="str">
+      <c r="C56" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660002</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E56" s="8" t="s">
+      <c r="D56" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F56" s="8">
-        <v>1</v>
-      </c>
-      <c r="G56" s="8">
-        <v>999</v>
-      </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8" t="str">
+      <c r="F56" s="9">
+        <v>1</v>
+      </c>
+      <c r="G56" s="9">
+        <v>999</v>
+      </c>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660002</v>
       </c>
     </row>
     <row r="57" ht="17.25" spans="2:9">
-      <c r="B57" s="9">
+      <c r="B57" s="10">
         <v>660003</v>
       </c>
-      <c r="C57" s="8" t="str">
+      <c r="C57" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660003</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="8" t="s">
+      <c r="D57" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F57" s="8">
-        <v>1</v>
-      </c>
-      <c r="G57" s="8">
-        <v>999</v>
-      </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8" t="str">
+      <c r="F57" s="9">
+        <v>1</v>
+      </c>
+      <c r="G57" s="9">
+        <v>999</v>
+      </c>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660003</v>
       </c>
     </row>
     <row r="58" ht="17.25" spans="2:9">
-      <c r="B58" s="9">
+      <c r="B58" s="10">
         <v>660004</v>
       </c>
-      <c r="C58" s="8" t="str">
+      <c r="C58" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660004</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E58" s="8" t="s">
+      <c r="D58" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F58" s="8">
-        <v>1</v>
-      </c>
-      <c r="G58" s="8">
-        <v>999</v>
-      </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8" t="str">
+      <c r="F58" s="9">
+        <v>1</v>
+      </c>
+      <c r="G58" s="9">
+        <v>999</v>
+      </c>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660004</v>
       </c>
     </row>
     <row r="59" ht="17.25" spans="2:9">
-      <c r="B59" s="9">
+      <c r="B59" s="10">
         <v>660005</v>
       </c>
-      <c r="C59" s="8" t="str">
+      <c r="C59" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660005</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" s="8" t="s">
+      <c r="D59" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F59" s="8">
-        <v>1</v>
-      </c>
-      <c r="G59" s="8">
-        <v>999</v>
-      </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8" t="str">
+      <c r="F59" s="9">
+        <v>1</v>
+      </c>
+      <c r="G59" s="9">
+        <v>999</v>
+      </c>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660005</v>
       </c>
     </row>
     <row r="60" ht="17.25" spans="2:9">
-      <c r="B60" s="9">
+      <c r="B60" s="10">
         <v>660006</v>
       </c>
-      <c r="C60" s="8" t="str">
+      <c r="C60" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660006</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60" s="8" t="s">
+      <c r="D60" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F60" s="8">
-        <v>1</v>
-      </c>
-      <c r="G60" s="8">
-        <v>999</v>
-      </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8" t="str">
+      <c r="F60" s="9">
+        <v>1</v>
+      </c>
+      <c r="G60" s="9">
+        <v>999</v>
+      </c>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660006</v>
       </c>
     </row>
     <row r="61" ht="17.25" spans="2:9">
-      <c r="B61" s="9">
+      <c r="B61" s="10">
         <v>660007</v>
       </c>
-      <c r="C61" s="8" t="str">
+      <c r="C61" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660007</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61" s="8" t="s">
+      <c r="D61" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F61" s="8">
-        <v>1</v>
-      </c>
-      <c r="G61" s="8">
-        <v>999</v>
-      </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8" t="str">
+      <c r="F61" s="9">
+        <v>1</v>
+      </c>
+      <c r="G61" s="9">
+        <v>999</v>
+      </c>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660007</v>
       </c>
     </row>
     <row r="62" ht="17.25" spans="2:9">
-      <c r="B62" s="9">
+      <c r="B62" s="10">
         <v>660008</v>
       </c>
-      <c r="C62" s="8" t="str">
+      <c r="C62" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660008</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62" s="8" t="s">
+      <c r="D62" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F62" s="8">
-        <v>1</v>
-      </c>
-      <c r="G62" s="8">
-        <v>999</v>
-      </c>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8" t="str">
+      <c r="F62" s="9">
+        <v>1</v>
+      </c>
+      <c r="G62" s="9">
+        <v>999</v>
+      </c>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660008</v>
       </c>
     </row>
     <row r="63" ht="17.25" spans="2:9">
-      <c r="B63" s="9">
+      <c r="B63" s="10">
         <v>660009</v>
       </c>
-      <c r="C63" s="8" t="str">
+      <c r="C63" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660009</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="8" t="s">
+      <c r="D63" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F63" s="8">
-        <v>1</v>
-      </c>
-      <c r="G63" s="8">
-        <v>999</v>
-      </c>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8" t="str">
+      <c r="F63" s="9">
+        <v>1</v>
+      </c>
+      <c r="G63" s="9">
+        <v>999</v>
+      </c>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660009</v>
       </c>
     </row>
     <row r="64" ht="17.25" spans="2:9">
-      <c r="B64" s="9">
+      <c r="B64" s="10">
         <v>660010</v>
       </c>
-      <c r="C64" s="8" t="str">
+      <c r="C64" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660010</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="8" t="s">
+      <c r="D64" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F64" s="8">
-        <v>1</v>
-      </c>
-      <c r="G64" s="8">
-        <v>999</v>
-      </c>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8" t="str">
+      <c r="F64" s="9">
+        <v>1</v>
+      </c>
+      <c r="G64" s="9">
+        <v>999</v>
+      </c>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660010</v>
       </c>
     </row>
     <row r="65" ht="16.5" spans="2:9">
-      <c r="B65" s="8">
+      <c r="B65" s="9">
         <v>670001</v>
       </c>
-      <c r="C65" s="8" t="str">
+      <c r="C65" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_670001</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65" s="8" t="s">
+      <c r="D65" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F65" s="8">
-        <v>1</v>
-      </c>
-      <c r="G65" s="8">
-        <v>999</v>
-      </c>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8" t="str">
+      <c r="F65" s="9">
+        <v>1</v>
+      </c>
+      <c r="G65" s="9">
+        <v>999</v>
+      </c>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_670001</v>
       </c>
     </row>
     <row r="66" ht="16.5" spans="2:9">
-      <c r="B66" s="8">
+      <c r="B66" s="9">
         <v>670002</v>
       </c>
-      <c r="C66" s="8" t="str">
+      <c r="C66" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_670002</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66" s="8" t="s">
+      <c r="D66" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F66" s="8">
-        <v>1</v>
-      </c>
-      <c r="G66" s="8">
-        <v>999</v>
-      </c>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8" t="str">
+      <c r="F66" s="9">
+        <v>1</v>
+      </c>
+      <c r="G66" s="9">
+        <v>999</v>
+      </c>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_670002</v>
       </c>
     </row>
     <row r="67" ht="16.5" spans="2:9">
-      <c r="B67" s="8">
+      <c r="B67" s="9">
         <v>670003</v>
       </c>
-      <c r="C67" s="8" t="str">
+      <c r="C67" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_670003</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E67" s="8" t="s">
+      <c r="D67" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F67" s="8">
-        <v>1</v>
-      </c>
-      <c r="G67" s="8">
-        <v>999</v>
-      </c>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8" t="str">
+      <c r="F67" s="9">
+        <v>1</v>
+      </c>
+      <c r="G67" s="9">
+        <v>999</v>
+      </c>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_670003</v>
       </c>
     </row>
     <row r="68" ht="16.5" spans="2:9">
-      <c r="B68" s="8">
+      <c r="B68" s="9">
         <v>670004</v>
       </c>
-      <c r="C68" s="8" t="str">
+      <c r="C68" s="9" t="str">
         <f t="shared" si="0"/>
         <v>itemname_670004</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E68" s="8" t="s">
+      <c r="D68" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F68" s="8">
-        <v>1</v>
-      </c>
-      <c r="G68" s="8">
-        <v>999</v>
-      </c>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8" t="str">
+      <c r="F68" s="9">
+        <v>1</v>
+      </c>
+      <c r="G68" s="9">
+        <v>999</v>
+      </c>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_670004</v>
       </c>
     </row>
     <row r="69" ht="16.5" spans="2:9">
-      <c r="B69" s="8">
+      <c r="B69" s="9">
         <v>670005</v>
       </c>
-      <c r="C69" s="8" t="str">
+      <c r="C69" s="9" t="str">
         <f t="shared" ref="C69:C74" si="2">_xlfn.CONCAT("itemname_",B69)</f>
         <v>itemname_670005</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E69" s="8" t="s">
+      <c r="D69" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F69" s="8">
-        <v>1</v>
-      </c>
-      <c r="G69" s="8">
-        <v>999</v>
-      </c>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8" t="str">
+      <c r="F69" s="9">
+        <v>1</v>
+      </c>
+      <c r="G69" s="9">
+        <v>999</v>
+      </c>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9" t="str">
         <f t="shared" ref="I69:I74" si="3">_xlfn.CONCAT("itemicon_",B69)</f>
         <v>itemicon_670005</v>
       </c>
     </row>
     <row r="70" ht="16.5" spans="2:9">
-      <c r="B70" s="8">
+      <c r="B70" s="9">
         <v>670006</v>
       </c>
-      <c r="C70" s="8" t="str">
+      <c r="C70" s="9" t="str">
         <f t="shared" si="2"/>
         <v>itemname_670006</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E70" s="8" t="s">
+      <c r="D70" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F70" s="8">
-        <v>1</v>
-      </c>
-      <c r="G70" s="8">
-        <v>999</v>
-      </c>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8" t="str">
+      <c r="F70" s="9">
+        <v>1</v>
+      </c>
+      <c r="G70" s="9">
+        <v>999</v>
+      </c>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670006</v>
       </c>
     </row>
     <row r="71" ht="16.5" spans="2:9">
-      <c r="B71" s="8">
+      <c r="B71" s="9">
         <v>670007</v>
       </c>
-      <c r="C71" s="8" t="str">
+      <c r="C71" s="9" t="str">
         <f t="shared" si="2"/>
         <v>itemname_670007</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E71" s="8" t="s">
+      <c r="D71" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F71" s="8">
-        <v>1</v>
-      </c>
-      <c r="G71" s="8">
-        <v>999</v>
-      </c>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8" t="str">
+      <c r="F71" s="9">
+        <v>1</v>
+      </c>
+      <c r="G71" s="9">
+        <v>999</v>
+      </c>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670007</v>
       </c>
     </row>
     <row r="72" ht="16.5" spans="2:9">
-      <c r="B72" s="8">
+      <c r="B72" s="9">
         <v>670008</v>
       </c>
-      <c r="C72" s="8" t="str">
+      <c r="C72" s="9" t="str">
         <f t="shared" si="2"/>
         <v>itemname_670008</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E72" s="8" t="s">
+      <c r="D72" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F72" s="8">
-        <v>1</v>
-      </c>
-      <c r="G72" s="8">
-        <v>999</v>
-      </c>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8" t="str">
+      <c r="F72" s="9">
+        <v>1</v>
+      </c>
+      <c r="G72" s="9">
+        <v>999</v>
+      </c>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670008</v>
       </c>
     </row>
     <row r="73" ht="16.5" spans="2:9">
-      <c r="B73" s="8">
+      <c r="B73" s="9">
         <v>670009</v>
       </c>
-      <c r="C73" s="8" t="str">
+      <c r="C73" s="9" t="str">
         <f t="shared" si="2"/>
         <v>itemname_670009</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E73" s="8" t="s">
+      <c r="D73" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F73" s="8">
-        <v>1</v>
-      </c>
-      <c r="G73" s="8">
-        <v>999</v>
-      </c>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8" t="str">
+      <c r="F73" s="9">
+        <v>1</v>
+      </c>
+      <c r="G73" s="9">
+        <v>999</v>
+      </c>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670009</v>
       </c>
     </row>
     <row r="74" ht="16.5" spans="2:9">
-      <c r="B74" s="8">
+      <c r="B74" s="9">
         <v>670010</v>
       </c>
-      <c r="C74" s="8" t="str">
+      <c r="C74" s="9" t="str">
         <f t="shared" si="2"/>
         <v>itemname_670010</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E74" s="8" t="s">
+      <c r="D74" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F74" s="8">
-        <v>1</v>
-      </c>
-      <c r="G74" s="8">
-        <v>999</v>
-      </c>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8" t="str">
+      <c r="F74" s="9">
+        <v>1</v>
+      </c>
+      <c r="G74" s="9">
+        <v>999</v>
+      </c>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670010</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="16.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:10">
+      <c r="A3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="4">
+        <v>920001</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f>_xlfn.CONCAT("itemicon_",B5)</f>
+        <v>itemicon_920001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4">
+        <v>920002</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f t="shared" ref="I6:I14" si="0">_xlfn.CONCAT("itemicon_",B6)</f>
+        <v>itemicon_920002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4">
+        <v>920003</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemicon_920003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4">
+        <v>920004</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemicon_920004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="4">
+        <v>920005</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemicon_920005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="4">
+        <v>920006</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemicon_920006</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="4">
+        <v>920007</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemicon_920007</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="4">
+        <v>920008</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemicon_920008</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="4">
+        <v>920009</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemicon_920009</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="4">
+        <v>920010</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemicon_920010</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="普通道具" sheetId="6" r:id="rId1"/>
     <sheet name="装备" sheetId="7" r:id="rId2"/>
     <sheet name="宝石" sheetId="8" r:id="rId3"/>
     <sheet name="坐骑激活道具" sheetId="9" r:id="rId4"/>
+    <sheet name="礼包" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">普通道具!$A$1:$G$98</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="99">
   <si>
     <t>##var</t>
   </si>
@@ -964,24 +965,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1327,27 +1340,27 @@
   <sheetPr/>
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="14.375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="29.25" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="22.875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="9" customWidth="1"/>
-    <col min="10" max="10" width="9" style="9"/>
-    <col min="11" max="16383" width="9" style="12"/>
-    <col min="16384" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="14.375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="29.25" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="13" customWidth="1"/>
+    <col min="10" max="10" width="9" style="13"/>
+    <col min="11" max="16383" width="9" style="16"/>
+    <col min="16384" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="8" customFormat="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1390,7 @@
       </c>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:10">
+    <row r="2" s="9" customFormat="1" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1407,7 +1420,7 @@
       </c>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:10">
+    <row r="3" s="10" customFormat="1" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1427,7 +1440,7 @@
       </c>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
+    <row r="4" s="8" customFormat="1" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1458,1370 +1471,1370 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="9">
+      <c r="B5" s="13">
         <v>60001</v>
       </c>
-      <c r="C5" s="9" t="str">
+      <c r="C5" s="13" t="str">
         <f>_xlfn.CONCAT("itemname_",B5)</f>
         <v>itemname_60001</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
-        <v>999</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13">
+        <v>999</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="9">
+      <c r="B6" s="13">
         <v>60002</v>
       </c>
-      <c r="C6" s="9" t="str">
+      <c r="C6" s="13" t="str">
         <f t="shared" ref="C6:C14" si="0">_xlfn.CONCAT("itemname_",B6)</f>
         <v>itemname_60002</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>999</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>999</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="9">
+      <c r="B7" s="13">
         <v>60003</v>
       </c>
-      <c r="C7" s="9" t="str">
+      <c r="C7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60003</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
-        <v>999</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13">
+        <v>999</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="9">
+      <c r="B8" s="13">
         <v>60004</v>
       </c>
-      <c r="C8" s="9" t="str">
+      <c r="C8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60004</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>999</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
+        <v>999</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="9">
+      <c r="B9" s="13">
         <v>60005</v>
       </c>
-      <c r="C9" s="9" t="str">
+      <c r="C9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60005</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>999</v>
-      </c>
-      <c r="I9" s="9" t="s">
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>999</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="9">
+      <c r="B10" s="13">
         <v>60006</v>
       </c>
-      <c r="C10" s="9" t="str">
+      <c r="C10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60006</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
-        <v>999</v>
-      </c>
-      <c r="I10" s="9" t="s">
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13">
+        <v>999</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="9">
+      <c r="B11" s="13">
         <v>60007</v>
       </c>
-      <c r="C11" s="9" t="str">
+      <c r="C11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60007</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9">
-        <v>999</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13">
+        <v>999</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="9">
+      <c r="B12" s="13">
         <v>60008</v>
       </c>
-      <c r="C12" s="9" t="str">
+      <c r="C12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60008</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
-        <v>999</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13">
+        <v>999</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="9">
+      <c r="B13" s="13">
         <v>60009</v>
       </c>
-      <c r="C13" s="9" t="str">
+      <c r="C13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60009</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
-      </c>
-      <c r="I13" s="9" t="s">
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13">
+        <v>999</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="11">
+      <c r="B14" s="15">
         <v>710001</v>
       </c>
-      <c r="C14" s="9" t="str">
+      <c r="C14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_710001</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13">
         <v>9999</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="9" t="s">
+      <c r="H14" s="17"/>
+      <c r="I14" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="11">
+      <c r="B15" s="15">
         <v>710002</v>
       </c>
-      <c r="C15" s="9" t="str">
+      <c r="C15" s="13" t="str">
         <f t="shared" ref="C15:C33" si="1">_xlfn.CONCAT("itemname_",B15)</f>
         <v>itemname_710002</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+      <c r="G15" s="13">
         <v>9999</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="9" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="11">
+      <c r="B16" s="15">
         <v>710003</v>
       </c>
-      <c r="C16" s="9" t="str">
+      <c r="C16" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710003</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13">
         <v>9999</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="9" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="11">
+      <c r="B17" s="15">
         <v>710004</v>
       </c>
-      <c r="C17" s="9" t="str">
+      <c r="C17" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710004</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13">
         <v>9999</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="9" t="s">
+      <c r="H17" s="17"/>
+      <c r="I17" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="11">
+      <c r="B18" s="15">
         <v>710005</v>
       </c>
-      <c r="C18" s="9" t="str">
+      <c r="C18" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710005</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="9">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9">
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13">
         <v>9999</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="9" t="s">
+      <c r="H18" s="17"/>
+      <c r="I18" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="11">
+      <c r="B19" s="15">
         <v>710006</v>
       </c>
-      <c r="C19" s="9" t="str">
+      <c r="C19" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710006</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="9">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13">
         <v>9999</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="9" t="s">
+      <c r="H19" s="17"/>
+      <c r="I19" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="11">
+      <c r="B20" s="15">
         <v>710007</v>
       </c>
-      <c r="C20" s="9" t="str">
+      <c r="C20" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710007</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="9">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13">
         <v>9999</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="9" t="s">
+      <c r="H20" s="17"/>
+      <c r="I20" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="11">
+      <c r="B21" s="15">
         <v>710008</v>
       </c>
-      <c r="C21" s="9" t="str">
+      <c r="C21" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710008</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="9">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9">
+      <c r="F21" s="13">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13">
         <v>9999</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="9" t="s">
+      <c r="H21" s="17"/>
+      <c r="I21" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="11">
+      <c r="B22" s="15">
         <v>710009</v>
       </c>
-      <c r="C22" s="9" t="str">
+      <c r="C22" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710009</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="9">
-        <v>1</v>
-      </c>
-      <c r="G22" s="9">
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13">
         <v>9999</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="9" t="s">
+      <c r="H22" s="17"/>
+      <c r="I22" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="11">
+      <c r="B23" s="15">
         <v>710010</v>
       </c>
-      <c r="C23" s="9" t="str">
+      <c r="C23" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710010</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="9">
-        <v>1</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13">
         <v>9999</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="9" t="s">
+      <c r="H23" s="17"/>
+      <c r="I23" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="11">
+      <c r="B24" s="15">
         <v>710011</v>
       </c>
-      <c r="C24" s="9" t="str">
+      <c r="C24" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710011</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="9">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="F24" s="13">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13">
         <v>9999</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="9" t="s">
+      <c r="H24" s="17"/>
+      <c r="I24" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="11">
+      <c r="B25" s="15">
         <v>710012</v>
       </c>
-      <c r="C25" s="9" t="str">
+      <c r="C25" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710012</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="9">
-        <v>1</v>
-      </c>
-      <c r="G25" s="9">
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13">
         <v>9999</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="9" t="s">
+      <c r="H25" s="17"/>
+      <c r="I25" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="11">
+      <c r="B26" s="15">
         <v>710013</v>
       </c>
-      <c r="C26" s="9" t="str">
+      <c r="C26" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710013</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="9">
-        <v>1</v>
-      </c>
-      <c r="G26" s="9">
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13">
         <v>9999</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="9" t="s">
+      <c r="H26" s="17"/>
+      <c r="I26" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="11">
+      <c r="B27" s="15">
         <v>710014</v>
       </c>
-      <c r="C27" s="9" t="str">
+      <c r="C27" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710014</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="9">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="F27" s="13">
+        <v>1</v>
+      </c>
+      <c r="G27" s="13">
         <v>9999</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="9" t="s">
+      <c r="H27" s="17"/>
+      <c r="I27" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="11">
+      <c r="B28" s="15">
         <v>710015</v>
       </c>
-      <c r="C28" s="9" t="str">
+      <c r="C28" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710015</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="9">
-        <v>1</v>
-      </c>
-      <c r="G28" s="9">
+      <c r="F28" s="13">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13">
         <v>9999</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="9" t="s">
+      <c r="H28" s="17"/>
+      <c r="I28" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="11">
+      <c r="B29" s="15">
         <v>710016</v>
       </c>
-      <c r="C29" s="9" t="str">
+      <c r="C29" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710016</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="9">
-        <v>1</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="F29" s="13">
+        <v>1</v>
+      </c>
+      <c r="G29" s="13">
         <v>9999</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="9" t="s">
+      <c r="H29" s="17"/>
+      <c r="I29" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="11">
+      <c r="B30" s="15">
         <v>710017</v>
       </c>
-      <c r="C30" s="9" t="str">
+      <c r="C30" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710017</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="9">
-        <v>1</v>
-      </c>
-      <c r="G30" s="9">
+      <c r="F30" s="13">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13">
         <v>9999</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="9" t="s">
+      <c r="H30" s="17"/>
+      <c r="I30" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="11">
+      <c r="B31" s="15">
         <v>710018</v>
       </c>
-      <c r="C31" s="9" t="str">
+      <c r="C31" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710018</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="9">
-        <v>1</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="F31" s="13">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13">
         <v>9999</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="9" t="s">
+      <c r="H31" s="17"/>
+      <c r="I31" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="11">
+      <c r="B32" s="15">
         <v>710019</v>
       </c>
-      <c r="C32" s="9" t="str">
+      <c r="C32" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710019</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="9">
-        <v>1</v>
-      </c>
-      <c r="G32" s="9">
+      <c r="F32" s="13">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13">
         <v>9999</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="9" t="s">
+      <c r="H32" s="17"/>
+      <c r="I32" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="11">
+      <c r="B33" s="15">
         <v>710020</v>
       </c>
-      <c r="C33" s="9" t="str">
+      <c r="C33" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710020</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="9">
-        <v>1</v>
-      </c>
-      <c r="G33" s="9">
+      <c r="F33" s="13">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13">
         <v>9999</v>
       </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="9" t="s">
+      <c r="H33" s="17"/>
+      <c r="I33" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="11"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="11"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="11"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="11"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="11"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="11"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="11"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="11"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="11"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="11"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="11"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="11"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="11"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="11"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="11"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="11"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="11"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="11"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="11"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="11"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="11"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="11"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="11"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
     </row>
     <row r="57" spans="2:9">
-      <c r="B57" s="11"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
     </row>
     <row r="58" spans="2:9">
-      <c r="B58" s="11"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
     </row>
     <row r="59" spans="2:9">
-      <c r="B59" s="11"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="11"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
     </row>
     <row r="61" spans="2:9">
-      <c r="B61" s="11"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="11"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="11"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="11"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
     </row>
     <row r="65" spans="2:9">
-      <c r="B65" s="11"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
     </row>
     <row r="66" spans="2:9">
-      <c r="B66" s="11"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
     </row>
     <row r="67" spans="2:9">
-      <c r="B67" s="11"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
     </row>
     <row r="68" spans="2:9">
-      <c r="B68" s="11"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
     </row>
     <row r="69" spans="2:9">
-      <c r="B69" s="11"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
     </row>
     <row r="70" spans="2:9">
-      <c r="B70" s="11"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
     </row>
     <row r="71" spans="2:9">
-      <c r="B71" s="11"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
     </row>
     <row r="72" spans="2:9">
-      <c r="B72" s="11"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
     </row>
     <row r="73" spans="2:9">
-      <c r="B73" s="11"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="11"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
     </row>
     <row r="75" spans="2:9">
-      <c r="B75" s="11"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
     </row>
     <row r="76" spans="2:9">
-      <c r="B76" s="11"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
     </row>
     <row r="77" spans="2:9">
-      <c r="B77" s="11"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="11"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="11"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="11"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
     </row>
     <row r="81" spans="2:9">
-      <c r="B81" s="11"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
     </row>
     <row r="82" spans="2:9">
-      <c r="B82" s="11"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
     </row>
     <row r="83" spans="2:9">
-      <c r="B83" s="11"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="11"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
     </row>
     <row r="85" spans="2:9">
-      <c r="B85" s="11"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
     </row>
     <row r="86" spans="2:9">
-      <c r="B86" s="11"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
     </row>
     <row r="87" spans="2:9">
-      <c r="B87" s="11"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
     </row>
     <row r="88" spans="2:9">
-      <c r="B88" s="11"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
     </row>
     <row r="89" spans="2:9">
-      <c r="B89" s="11"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
     </row>
     <row r="90" spans="2:9">
-      <c r="B90" s="11"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
     </row>
     <row r="91" spans="2:9">
-      <c r="B91" s="11"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
     </row>
     <row r="92" spans="2:9">
-      <c r="B92" s="11"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
     </row>
     <row r="93" spans="2:9">
-      <c r="B93" s="11"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
     </row>
     <row r="94" spans="2:9">
-      <c r="B94" s="11"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
     </row>
     <row r="95" spans="2:9">
-      <c r="B95" s="11"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
     </row>
     <row r="96" spans="2:9">
-      <c r="B96" s="11"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
     </row>
     <row r="97" spans="2:9">
-      <c r="B97" s="11"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
     </row>
     <row r="98" spans="2:9">
-      <c r="B98" s="11"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2850,7 +2863,7 @@
     <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:10">
+    <row r="1" s="8" customFormat="1" ht="16.5" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2880,7 +2893,7 @@
       </c>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:10">
+    <row r="2" s="9" customFormat="1" ht="16.5" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -2910,7 +2923,7 @@
       </c>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="3" s="10" customFormat="1" ht="16.5" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -2930,7 +2943,7 @@
       </c>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16.5" spans="1:10">
+    <row r="4" s="8" customFormat="1" ht="16.5" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -2961,407 +2974,407 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" ht="16.5" spans="2:9">
-      <c r="B5" s="9">
+      <c r="B5" s="13">
         <v>60010</v>
       </c>
-      <c r="C5" s="9" t="str">
+      <c r="C5" s="13" t="str">
         <f t="shared" ref="C5:C19" si="0">_xlfn.CONCAT("itemname_",B5)</f>
         <v>itemname_60010</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:9">
-      <c r="B6" s="9">
+      <c r="B6" s="13">
         <v>60011</v>
       </c>
-      <c r="C6" s="9" t="str">
+      <c r="C6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60011</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:9">
-      <c r="B7" s="9">
+      <c r="B7" s="13">
         <v>60012</v>
       </c>
-      <c r="C7" s="9" t="str">
+      <c r="C7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60012</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:9">
-      <c r="B8" s="9">
+      <c r="B8" s="13">
         <v>60013</v>
       </c>
-      <c r="C8" s="9" t="str">
+      <c r="C8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60013</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="2:9">
-      <c r="B9" s="9">
+      <c r="B9" s="13">
         <v>60014</v>
       </c>
-      <c r="C9" s="9" t="str">
+      <c r="C9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60014</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:9">
-      <c r="B10" s="9">
+      <c r="B10" s="13">
         <v>60015</v>
       </c>
-      <c r="C10" s="9" t="str">
+      <c r="C10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60015</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:9">
-      <c r="B11" s="9">
+      <c r="B11" s="13">
         <v>60016</v>
       </c>
-      <c r="C11" s="9" t="str">
+      <c r="C11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60016</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:9">
-      <c r="B12" s="9">
+      <c r="B12" s="13">
         <v>60017</v>
       </c>
-      <c r="C12" s="9" t="str">
+      <c r="C12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60017</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:9">
-      <c r="B13" s="9">
+      <c r="B13" s="13">
         <v>60018</v>
       </c>
-      <c r="C13" s="9" t="str">
+      <c r="C13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60018</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:9">
-      <c r="B14" s="9">
+      <c r="B14" s="13">
         <v>60019</v>
       </c>
-      <c r="C14" s="9" t="str">
+      <c r="C14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60019</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:9">
-      <c r="B15" s="9">
+      <c r="B15" s="13">
         <v>60020</v>
       </c>
-      <c r="C15" s="9" t="str">
+      <c r="C15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60020</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11" t="s">
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:9">
-      <c r="B16" s="9">
+      <c r="B16" s="13">
         <v>60021</v>
       </c>
-      <c r="C16" s="9" t="str">
+      <c r="C16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60021</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="11" t="s">
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:9">
-      <c r="B17" s="9">
+      <c r="B17" s="13">
         <v>60022</v>
       </c>
-      <c r="C17" s="9" t="str">
+      <c r="C17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60022</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="11" t="s">
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:9">
-      <c r="B18" s="9">
+      <c r="B18" s="13">
         <v>60023</v>
       </c>
-      <c r="C18" s="9" t="str">
+      <c r="C18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60023</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="9">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1</v>
-      </c>
-      <c r="H18" s="11" t="s">
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:9">
-      <c r="B19" s="9">
+      <c r="B19" s="13">
         <v>60024</v>
       </c>
-      <c r="C19" s="9" t="str">
+      <c r="C19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60024</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="9">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9">
-        <v>1</v>
-      </c>
-      <c r="H19" s="11" t="s">
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="13" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3392,7 +3405,7 @@
     <col min="9" max="9" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:10">
+    <row r="1" s="8" customFormat="1" ht="16.5" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3422,7 +3435,7 @@
       </c>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:10">
+    <row r="2" s="9" customFormat="1" ht="16.5" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -3452,7 +3465,7 @@
       </c>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="16.5" spans="1:10">
+    <row r="3" s="10" customFormat="1" ht="16.5" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -3472,7 +3485,7 @@
       </c>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16.5" spans="1:10">
+    <row r="4" s="8" customFormat="1" ht="16.5" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -3503,1821 +3516,1821 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" ht="17.25" spans="2:9">
-      <c r="B5" s="8">
+      <c r="B5" s="12">
         <v>610001</v>
       </c>
-      <c r="C5" s="9" t="str">
+      <c r="C5" s="13" t="str">
         <f t="shared" ref="C5:C68" si="0">_xlfn.CONCAT("itemname_",B5)</f>
         <v>itemname_610001</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
-        <v>999</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="str">
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13">
+        <v>999</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="str">
         <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("itemicon_",B5)</f>
         <v>itemicon_610001</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="2:9">
-      <c r="B6" s="8">
+      <c r="B6" s="12">
         <v>610002</v>
       </c>
-      <c r="C6" s="9" t="str">
+      <c r="C6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610002</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>999</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="str">
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>999</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610002</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="2:9">
-      <c r="B7" s="8">
+      <c r="B7" s="12">
         <v>610003</v>
       </c>
-      <c r="C7" s="9" t="str">
+      <c r="C7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610003</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
-        <v>999</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="str">
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13">
+        <v>999</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610003</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="2:9">
-      <c r="B8" s="8">
+      <c r="B8" s="12">
         <v>610004</v>
       </c>
-      <c r="C8" s="9" t="str">
+      <c r="C8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610004</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>999</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9" t="str">
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
+        <v>999</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610004</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="2:9">
-      <c r="B9" s="8">
+      <c r="B9" s="12">
         <v>610005</v>
       </c>
-      <c r="C9" s="9" t="str">
+      <c r="C9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610005</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>999</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9" t="str">
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>999</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610005</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="2:9">
-      <c r="B10" s="8">
+      <c r="B10" s="12">
         <v>610006</v>
       </c>
-      <c r="C10" s="9" t="str">
+      <c r="C10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610006</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
-        <v>999</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9" t="str">
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13">
+        <v>999</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610006</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="2:9">
-      <c r="B11" s="8">
+      <c r="B11" s="12">
         <v>610007</v>
       </c>
-      <c r="C11" s="9" t="str">
+      <c r="C11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610007</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9">
-        <v>999</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9" t="str">
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13">
+        <v>999</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610007</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="2:9">
-      <c r="B12" s="8">
+      <c r="B12" s="12">
         <v>610008</v>
       </c>
-      <c r="C12" s="9" t="str">
+      <c r="C12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610008</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
-        <v>999</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="str">
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13">
+        <v>999</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610008</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="2:9">
-      <c r="B13" s="8">
+      <c r="B13" s="12">
         <v>610009</v>
       </c>
-      <c r="C13" s="9" t="str">
+      <c r="C13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610009</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9" t="str">
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13">
+        <v>999</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610009</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="2:9">
-      <c r="B14" s="8">
+      <c r="B14" s="12">
         <v>610010</v>
       </c>
-      <c r="C14" s="9" t="str">
+      <c r="C14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610010</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>999</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9" t="str">
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13">
+        <v>999</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610010</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="2:9">
-      <c r="B15" s="8">
+      <c r="B15" s="12">
         <v>620001</v>
       </c>
-      <c r="C15" s="9" t="str">
+      <c r="C15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620001</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
-        <v>999</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9" t="str">
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+      <c r="G15" s="13">
+        <v>999</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620001</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="2:9">
-      <c r="B16" s="8">
+      <c r="B16" s="12">
         <v>620002</v>
       </c>
-      <c r="C16" s="9" t="str">
+      <c r="C16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620002</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
-        <v>999</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9" t="str">
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13">
+        <v>999</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620002</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="2:9">
-      <c r="B17" s="8">
+      <c r="B17" s="12">
         <v>620003</v>
       </c>
-      <c r="C17" s="9" t="str">
+      <c r="C17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620003</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
-        <v>999</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="str">
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13">
+        <v>999</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620003</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="2:9">
-      <c r="B18" s="8">
+      <c r="B18" s="12">
         <v>620004</v>
       </c>
-      <c r="C18" s="9" t="str">
+      <c r="C18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620004</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="9">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9">
-        <v>999</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9" t="str">
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13">
+        <v>999</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620004</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="2:9">
-      <c r="B19" s="8">
+      <c r="B19" s="12">
         <v>620005</v>
       </c>
-      <c r="C19" s="9" t="str">
+      <c r="C19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620005</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="9">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9">
-        <v>999</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9" t="str">
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13">
+        <v>999</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620005</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="2:9">
-      <c r="B20" s="8">
+      <c r="B20" s="12">
         <v>620006</v>
       </c>
-      <c r="C20" s="9" t="str">
+      <c r="C20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620006</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="9">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9">
-        <v>999</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9" t="str">
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13">
+        <v>999</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620006</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="2:9">
-      <c r="B21" s="8">
+      <c r="B21" s="12">
         <v>620007</v>
       </c>
-      <c r="C21" s="9" t="str">
+      <c r="C21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620007</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="9">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9">
-        <v>999</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9" t="str">
+      <c r="F21" s="13">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13">
+        <v>999</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620007</v>
       </c>
     </row>
     <row r="22" ht="17.25" spans="2:9">
-      <c r="B22" s="8">
+      <c r="B22" s="12">
         <v>620008</v>
       </c>
-      <c r="C22" s="9" t="str">
+      <c r="C22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620008</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="9">
-        <v>1</v>
-      </c>
-      <c r="G22" s="9">
-        <v>999</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9" t="str">
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13">
+        <v>999</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620008</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="2:9">
-      <c r="B23" s="8">
+      <c r="B23" s="12">
         <v>620009</v>
       </c>
-      <c r="C23" s="9" t="str">
+      <c r="C23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620009</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="9">
-        <v>1</v>
-      </c>
-      <c r="G23" s="9">
-        <v>999</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9" t="str">
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13">
+        <v>999</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620009</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="2:9">
-      <c r="B24" s="8">
+      <c r="B24" s="12">
         <v>620010</v>
       </c>
-      <c r="C24" s="9" t="str">
+      <c r="C24" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620010</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="9">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9">
-        <v>999</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9" t="str">
+      <c r="F24" s="13">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13">
+        <v>999</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620010</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="2:9">
-      <c r="B25" s="8">
+      <c r="B25" s="12">
         <v>630001</v>
       </c>
-      <c r="C25" s="9" t="str">
+      <c r="C25" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630001</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="9">
-        <v>1</v>
-      </c>
-      <c r="G25" s="9">
-        <v>999</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9" t="str">
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13">
+        <v>999</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630001</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="2:9">
-      <c r="B26" s="8">
+      <c r="B26" s="12">
         <v>630002</v>
       </c>
-      <c r="C26" s="9" t="str">
+      <c r="C26" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630002</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="9">
-        <v>1</v>
-      </c>
-      <c r="G26" s="9">
-        <v>999</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="str">
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13">
+        <v>999</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630002</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="2:9">
-      <c r="B27" s="8">
+      <c r="B27" s="12">
         <v>630003</v>
       </c>
-      <c r="C27" s="9" t="str">
+      <c r="C27" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630003</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="9">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9">
-        <v>999</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9" t="str">
+      <c r="F27" s="13">
+        <v>1</v>
+      </c>
+      <c r="G27" s="13">
+        <v>999</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630003</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="2:9">
-      <c r="B28" s="8">
+      <c r="B28" s="12">
         <v>630004</v>
       </c>
-      <c r="C28" s="9" t="str">
+      <c r="C28" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630004</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="9">
-        <v>1</v>
-      </c>
-      <c r="G28" s="9">
-        <v>999</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9" t="str">
+      <c r="F28" s="13">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13">
+        <v>999</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630004</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="2:9">
-      <c r="B29" s="8">
+      <c r="B29" s="12">
         <v>630005</v>
       </c>
-      <c r="C29" s="9" t="str">
+      <c r="C29" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630005</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="9">
-        <v>1</v>
-      </c>
-      <c r="G29" s="9">
-        <v>999</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9" t="str">
+      <c r="F29" s="13">
+        <v>1</v>
+      </c>
+      <c r="G29" s="13">
+        <v>999</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630005</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="2:9">
-      <c r="B30" s="8">
+      <c r="B30" s="12">
         <v>630006</v>
       </c>
-      <c r="C30" s="9" t="str">
+      <c r="C30" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630006</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="9">
-        <v>1</v>
-      </c>
-      <c r="G30" s="9">
-        <v>999</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9" t="str">
+      <c r="F30" s="13">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13">
+        <v>999</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630006</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="2:9">
-      <c r="B31" s="8">
+      <c r="B31" s="12">
         <v>630007</v>
       </c>
-      <c r="C31" s="9" t="str">
+      <c r="C31" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630007</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="9">
-        <v>1</v>
-      </c>
-      <c r="G31" s="9">
-        <v>999</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9" t="str">
+      <c r="F31" s="13">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13">
+        <v>999</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630007</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="2:9">
-      <c r="B32" s="8">
+      <c r="B32" s="12">
         <v>630008</v>
       </c>
-      <c r="C32" s="9" t="str">
+      <c r="C32" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630008</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="9">
-        <v>1</v>
-      </c>
-      <c r="G32" s="9">
-        <v>999</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9" t="str">
+      <c r="F32" s="13">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13">
+        <v>999</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630008</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="2:9">
-      <c r="B33" s="8">
+      <c r="B33" s="12">
         <v>630009</v>
       </c>
-      <c r="C33" s="9" t="str">
+      <c r="C33" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630009</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F33" s="9">
-        <v>1</v>
-      </c>
-      <c r="G33" s="9">
-        <v>999</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9" t="str">
+      <c r="F33" s="13">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13">
+        <v>999</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630009</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="2:9">
-      <c r="B34" s="8">
+      <c r="B34" s="12">
         <v>630010</v>
       </c>
-      <c r="C34" s="9" t="str">
+      <c r="C34" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630010</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="9" t="s">
+      <c r="D34" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="9">
-        <v>1</v>
-      </c>
-      <c r="G34" s="9">
-        <v>999</v>
-      </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9" t="str">
+      <c r="F34" s="13">
+        <v>1</v>
+      </c>
+      <c r="G34" s="13">
+        <v>999</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630010</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="2:9">
-      <c r="B35" s="10">
+      <c r="B35" s="14">
         <v>640001</v>
       </c>
-      <c r="C35" s="9" t="str">
+      <c r="C35" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640001</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="9">
-        <v>1</v>
-      </c>
-      <c r="G35" s="9">
-        <v>999</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9" t="str">
+      <c r="F35" s="13">
+        <v>1</v>
+      </c>
+      <c r="G35" s="13">
+        <v>999</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640001</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="2:9">
-      <c r="B36" s="10">
+      <c r="B36" s="14">
         <v>640002</v>
       </c>
-      <c r="C36" s="9" t="str">
+      <c r="C36" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640002</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="9">
-        <v>1</v>
-      </c>
-      <c r="G36" s="9">
-        <v>999</v>
-      </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9" t="str">
+      <c r="F36" s="13">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13">
+        <v>999</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640002</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="2:9">
-      <c r="B37" s="10">
+      <c r="B37" s="14">
         <v>640003</v>
       </c>
-      <c r="C37" s="9" t="str">
+      <c r="C37" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640003</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="9" t="s">
+      <c r="D37" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="9">
-        <v>1</v>
-      </c>
-      <c r="G37" s="9">
-        <v>999</v>
-      </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9" t="str">
+      <c r="F37" s="13">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13">
+        <v>999</v>
+      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640003</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="2:9">
-      <c r="B38" s="10">
+      <c r="B38" s="14">
         <v>640004</v>
       </c>
-      <c r="C38" s="9" t="str">
+      <c r="C38" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640004</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="9" t="s">
+      <c r="D38" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F38" s="9">
-        <v>1</v>
-      </c>
-      <c r="G38" s="9">
-        <v>999</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9" t="str">
+      <c r="F38" s="13">
+        <v>1</v>
+      </c>
+      <c r="G38" s="13">
+        <v>999</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640004</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="2:9">
-      <c r="B39" s="10">
+      <c r="B39" s="14">
         <v>640005</v>
       </c>
-      <c r="C39" s="9" t="str">
+      <c r="C39" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640005</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="9">
-        <v>1</v>
-      </c>
-      <c r="G39" s="9">
-        <v>999</v>
-      </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9" t="str">
+      <c r="F39" s="13">
+        <v>1</v>
+      </c>
+      <c r="G39" s="13">
+        <v>999</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640005</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="2:9">
-      <c r="B40" s="10">
+      <c r="B40" s="14">
         <v>640006</v>
       </c>
-      <c r="C40" s="9" t="str">
+      <c r="C40" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640006</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F40" s="9">
-        <v>1</v>
-      </c>
-      <c r="G40" s="9">
-        <v>999</v>
-      </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9" t="str">
+      <c r="F40" s="13">
+        <v>1</v>
+      </c>
+      <c r="G40" s="13">
+        <v>999</v>
+      </c>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640006</v>
       </c>
     </row>
     <row r="41" ht="17.25" spans="2:9">
-      <c r="B41" s="10">
+      <c r="B41" s="14">
         <v>640007</v>
       </c>
-      <c r="C41" s="9" t="str">
+      <c r="C41" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640007</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="9" t="s">
+      <c r="D41" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="9">
-        <v>1</v>
-      </c>
-      <c r="G41" s="9">
-        <v>999</v>
-      </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9" t="str">
+      <c r="F41" s="13">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13">
+        <v>999</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640007</v>
       </c>
     </row>
     <row r="42" ht="17.25" spans="2:9">
-      <c r="B42" s="10">
+      <c r="B42" s="14">
         <v>640008</v>
       </c>
-      <c r="C42" s="9" t="str">
+      <c r="C42" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640008</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F42" s="9">
-        <v>1</v>
-      </c>
-      <c r="G42" s="9">
-        <v>999</v>
-      </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9" t="str">
+      <c r="F42" s="13">
+        <v>1</v>
+      </c>
+      <c r="G42" s="13">
+        <v>999</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640008</v>
       </c>
     </row>
     <row r="43" ht="17.25" spans="2:9">
-      <c r="B43" s="10">
+      <c r="B43" s="14">
         <v>640009</v>
       </c>
-      <c r="C43" s="9" t="str">
+      <c r="C43" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640009</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="9">
-        <v>1</v>
-      </c>
-      <c r="G43" s="9">
-        <v>999</v>
-      </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9" t="str">
+      <c r="F43" s="13">
+        <v>1</v>
+      </c>
+      <c r="G43" s="13">
+        <v>999</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640009</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="2:9">
-      <c r="B44" s="10">
+      <c r="B44" s="14">
         <v>640010</v>
       </c>
-      <c r="C44" s="9" t="str">
+      <c r="C44" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640010</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="D44" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="9">
-        <v>1</v>
-      </c>
-      <c r="G44" s="9">
-        <v>999</v>
-      </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9" t="str">
+      <c r="F44" s="13">
+        <v>1</v>
+      </c>
+      <c r="G44" s="13">
+        <v>999</v>
+      </c>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640010</v>
       </c>
     </row>
     <row r="45" ht="17.25" spans="2:9">
-      <c r="B45" s="10">
+      <c r="B45" s="14">
         <v>650001</v>
       </c>
-      <c r="C45" s="9" t="str">
+      <c r="C45" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650001</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="9" t="s">
+      <c r="D45" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="9">
-        <v>1</v>
-      </c>
-      <c r="G45" s="9">
-        <v>999</v>
-      </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9" t="str">
+      <c r="F45" s="13">
+        <v>1</v>
+      </c>
+      <c r="G45" s="13">
+        <v>999</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650001</v>
       </c>
     </row>
     <row r="46" ht="17.25" spans="2:9">
-      <c r="B46" s="10">
+      <c r="B46" s="14">
         <v>650002</v>
       </c>
-      <c r="C46" s="9" t="str">
+      <c r="C46" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650002</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F46" s="9">
-        <v>1</v>
-      </c>
-      <c r="G46" s="9">
-        <v>999</v>
-      </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9" t="str">
+      <c r="F46" s="13">
+        <v>1</v>
+      </c>
+      <c r="G46" s="13">
+        <v>999</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650002</v>
       </c>
     </row>
     <row r="47" ht="17.25" spans="2:9">
-      <c r="B47" s="10">
+      <c r="B47" s="14">
         <v>650003</v>
       </c>
-      <c r="C47" s="9" t="str">
+      <c r="C47" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650003</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="9" t="s">
+      <c r="D47" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F47" s="9">
-        <v>1</v>
-      </c>
-      <c r="G47" s="9">
-        <v>999</v>
-      </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9" t="str">
+      <c r="F47" s="13">
+        <v>1</v>
+      </c>
+      <c r="G47" s="13">
+        <v>999</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650003</v>
       </c>
     </row>
     <row r="48" ht="17.25" spans="2:9">
-      <c r="B48" s="10">
+      <c r="B48" s="14">
         <v>650004</v>
       </c>
-      <c r="C48" s="9" t="str">
+      <c r="C48" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650004</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="9" t="s">
+      <c r="D48" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F48" s="9">
-        <v>1</v>
-      </c>
-      <c r="G48" s="9">
-        <v>999</v>
-      </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9" t="str">
+      <c r="F48" s="13">
+        <v>1</v>
+      </c>
+      <c r="G48" s="13">
+        <v>999</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650004</v>
       </c>
     </row>
     <row r="49" ht="17.25" spans="2:9">
-      <c r="B49" s="10">
+      <c r="B49" s="14">
         <v>650005</v>
       </c>
-      <c r="C49" s="9" t="str">
+      <c r="C49" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650005</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="D49" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F49" s="9">
-        <v>1</v>
-      </c>
-      <c r="G49" s="9">
-        <v>999</v>
-      </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9" t="str">
+      <c r="F49" s="13">
+        <v>1</v>
+      </c>
+      <c r="G49" s="13">
+        <v>999</v>
+      </c>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650005</v>
       </c>
     </row>
     <row r="50" ht="17.25" spans="2:9">
-      <c r="B50" s="10">
+      <c r="B50" s="14">
         <v>650006</v>
       </c>
-      <c r="C50" s="9" t="str">
+      <c r="C50" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650006</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" s="9" t="s">
+      <c r="D50" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="9">
-        <v>1</v>
-      </c>
-      <c r="G50" s="9">
-        <v>999</v>
-      </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9" t="str">
+      <c r="F50" s="13">
+        <v>1</v>
+      </c>
+      <c r="G50" s="13">
+        <v>999</v>
+      </c>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650006</v>
       </c>
     </row>
     <row r="51" ht="17.25" spans="2:9">
-      <c r="B51" s="10">
+      <c r="B51" s="14">
         <v>650007</v>
       </c>
-      <c r="C51" s="9" t="str">
+      <c r="C51" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650007</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F51" s="9">
-        <v>1</v>
-      </c>
-      <c r="G51" s="9">
-        <v>999</v>
-      </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9" t="str">
+      <c r="F51" s="13">
+        <v>1</v>
+      </c>
+      <c r="G51" s="13">
+        <v>999</v>
+      </c>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650007</v>
       </c>
     </row>
     <row r="52" ht="17.25" spans="2:9">
-      <c r="B52" s="10">
+      <c r="B52" s="14">
         <v>650008</v>
       </c>
-      <c r="C52" s="9" t="str">
+      <c r="C52" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650008</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="9" t="s">
+      <c r="D52" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F52" s="9">
-        <v>1</v>
-      </c>
-      <c r="G52" s="9">
-        <v>999</v>
-      </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9" t="str">
+      <c r="F52" s="13">
+        <v>1</v>
+      </c>
+      <c r="G52" s="13">
+        <v>999</v>
+      </c>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650008</v>
       </c>
     </row>
     <row r="53" ht="17.25" spans="2:9">
-      <c r="B53" s="10">
+      <c r="B53" s="14">
         <v>650009</v>
       </c>
-      <c r="C53" s="9" t="str">
+      <c r="C53" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650009</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E53" s="9" t="s">
+      <c r="D53" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F53" s="9">
-        <v>1</v>
-      </c>
-      <c r="G53" s="9">
-        <v>999</v>
-      </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9" t="str">
+      <c r="F53" s="13">
+        <v>1</v>
+      </c>
+      <c r="G53" s="13">
+        <v>999</v>
+      </c>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650009</v>
       </c>
     </row>
     <row r="54" ht="17.25" spans="2:9">
-      <c r="B54" s="10">
+      <c r="B54" s="14">
         <v>650010</v>
       </c>
-      <c r="C54" s="9" t="str">
+      <c r="C54" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650010</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E54" s="9" t="s">
+      <c r="D54" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F54" s="9">
-        <v>1</v>
-      </c>
-      <c r="G54" s="9">
-        <v>999</v>
-      </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9" t="str">
+      <c r="F54" s="13">
+        <v>1</v>
+      </c>
+      <c r="G54" s="13">
+        <v>999</v>
+      </c>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650010</v>
       </c>
     </row>
     <row r="55" ht="17.25" spans="2:9">
-      <c r="B55" s="10">
+      <c r="B55" s="14">
         <v>660001</v>
       </c>
-      <c r="C55" s="9" t="str">
+      <c r="C55" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660001</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" s="9" t="s">
+      <c r="D55" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F55" s="9">
-        <v>1</v>
-      </c>
-      <c r="G55" s="9">
-        <v>999</v>
-      </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9" t="str">
+      <c r="F55" s="13">
+        <v>1</v>
+      </c>
+      <c r="G55" s="13">
+        <v>999</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660001</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="2:9">
-      <c r="B56" s="10">
+      <c r="B56" s="14">
         <v>660002</v>
       </c>
-      <c r="C56" s="9" t="str">
+      <c r="C56" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660002</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E56" s="9" t="s">
+      <c r="D56" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F56" s="9">
-        <v>1</v>
-      </c>
-      <c r="G56" s="9">
-        <v>999</v>
-      </c>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9" t="str">
+      <c r="F56" s="13">
+        <v>1</v>
+      </c>
+      <c r="G56" s="13">
+        <v>999</v>
+      </c>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660002</v>
       </c>
     </row>
     <row r="57" ht="17.25" spans="2:9">
-      <c r="B57" s="10">
+      <c r="B57" s="14">
         <v>660003</v>
       </c>
-      <c r="C57" s="9" t="str">
+      <c r="C57" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660003</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="9" t="s">
+      <c r="D57" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F57" s="9">
-        <v>1</v>
-      </c>
-      <c r="G57" s="9">
-        <v>999</v>
-      </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9" t="str">
+      <c r="F57" s="13">
+        <v>1</v>
+      </c>
+      <c r="G57" s="13">
+        <v>999</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660003</v>
       </c>
     </row>
     <row r="58" ht="17.25" spans="2:9">
-      <c r="B58" s="10">
+      <c r="B58" s="14">
         <v>660004</v>
       </c>
-      <c r="C58" s="9" t="str">
+      <c r="C58" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660004</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E58" s="9" t="s">
+      <c r="D58" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F58" s="9">
-        <v>1</v>
-      </c>
-      <c r="G58" s="9">
-        <v>999</v>
-      </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9" t="str">
+      <c r="F58" s="13">
+        <v>1</v>
+      </c>
+      <c r="G58" s="13">
+        <v>999</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660004</v>
       </c>
     </row>
     <row r="59" ht="17.25" spans="2:9">
-      <c r="B59" s="10">
+      <c r="B59" s="14">
         <v>660005</v>
       </c>
-      <c r="C59" s="9" t="str">
+      <c r="C59" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660005</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" s="9" t="s">
+      <c r="D59" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F59" s="9">
-        <v>1</v>
-      </c>
-      <c r="G59" s="9">
-        <v>999</v>
-      </c>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9" t="str">
+      <c r="F59" s="13">
+        <v>1</v>
+      </c>
+      <c r="G59" s="13">
+        <v>999</v>
+      </c>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660005</v>
       </c>
     </row>
     <row r="60" ht="17.25" spans="2:9">
-      <c r="B60" s="10">
+      <c r="B60" s="14">
         <v>660006</v>
       </c>
-      <c r="C60" s="9" t="str">
+      <c r="C60" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660006</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60" s="9" t="s">
+      <c r="D60" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F60" s="9">
-        <v>1</v>
-      </c>
-      <c r="G60" s="9">
-        <v>999</v>
-      </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9" t="str">
+      <c r="F60" s="13">
+        <v>1</v>
+      </c>
+      <c r="G60" s="13">
+        <v>999</v>
+      </c>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660006</v>
       </c>
     </row>
     <row r="61" ht="17.25" spans="2:9">
-      <c r="B61" s="10">
+      <c r="B61" s="14">
         <v>660007</v>
       </c>
-      <c r="C61" s="9" t="str">
+      <c r="C61" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660007</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61" s="9" t="s">
+      <c r="D61" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F61" s="9">
-        <v>1</v>
-      </c>
-      <c r="G61" s="9">
-        <v>999</v>
-      </c>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9" t="str">
+      <c r="F61" s="13">
+        <v>1</v>
+      </c>
+      <c r="G61" s="13">
+        <v>999</v>
+      </c>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660007</v>
       </c>
     </row>
     <row r="62" ht="17.25" spans="2:9">
-      <c r="B62" s="10">
+      <c r="B62" s="14">
         <v>660008</v>
       </c>
-      <c r="C62" s="9" t="str">
+      <c r="C62" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660008</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62" s="9" t="s">
+      <c r="D62" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F62" s="9">
-        <v>1</v>
-      </c>
-      <c r="G62" s="9">
-        <v>999</v>
-      </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9" t="str">
+      <c r="F62" s="13">
+        <v>1</v>
+      </c>
+      <c r="G62" s="13">
+        <v>999</v>
+      </c>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660008</v>
       </c>
     </row>
     <row r="63" ht="17.25" spans="2:9">
-      <c r="B63" s="10">
+      <c r="B63" s="14">
         <v>660009</v>
       </c>
-      <c r="C63" s="9" t="str">
+      <c r="C63" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660009</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="9" t="s">
+      <c r="D63" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F63" s="9">
-        <v>1</v>
-      </c>
-      <c r="G63" s="9">
-        <v>999</v>
-      </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9" t="str">
+      <c r="F63" s="13">
+        <v>1</v>
+      </c>
+      <c r="G63" s="13">
+        <v>999</v>
+      </c>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660009</v>
       </c>
     </row>
     <row r="64" ht="17.25" spans="2:9">
-      <c r="B64" s="10">
+      <c r="B64" s="14">
         <v>660010</v>
       </c>
-      <c r="C64" s="9" t="str">
+      <c r="C64" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660010</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="9" t="s">
+      <c r="D64" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F64" s="9">
-        <v>1</v>
-      </c>
-      <c r="G64" s="9">
-        <v>999</v>
-      </c>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9" t="str">
+      <c r="F64" s="13">
+        <v>1</v>
+      </c>
+      <c r="G64" s="13">
+        <v>999</v>
+      </c>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660010</v>
       </c>
     </row>
     <row r="65" ht="16.5" spans="2:9">
-      <c r="B65" s="9">
+      <c r="B65" s="13">
         <v>670001</v>
       </c>
-      <c r="C65" s="9" t="str">
+      <c r="C65" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_670001</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65" s="9" t="s">
+      <c r="D65" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F65" s="9">
-        <v>1</v>
-      </c>
-      <c r="G65" s="9">
-        <v>999</v>
-      </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9" t="str">
+      <c r="F65" s="13">
+        <v>1</v>
+      </c>
+      <c r="G65" s="13">
+        <v>999</v>
+      </c>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_670001</v>
       </c>
     </row>
     <row r="66" ht="16.5" spans="2:9">
-      <c r="B66" s="9">
+      <c r="B66" s="13">
         <v>670002</v>
       </c>
-      <c r="C66" s="9" t="str">
+      <c r="C66" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_670002</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66" s="9" t="s">
+      <c r="D66" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F66" s="9">
-        <v>1</v>
-      </c>
-      <c r="G66" s="9">
-        <v>999</v>
-      </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9" t="str">
+      <c r="F66" s="13">
+        <v>1</v>
+      </c>
+      <c r="G66" s="13">
+        <v>999</v>
+      </c>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_670002</v>
       </c>
     </row>
     <row r="67" ht="16.5" spans="2:9">
-      <c r="B67" s="9">
+      <c r="B67" s="13">
         <v>670003</v>
       </c>
-      <c r="C67" s="9" t="str">
+      <c r="C67" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_670003</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E67" s="9" t="s">
+      <c r="D67" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F67" s="9">
-        <v>1</v>
-      </c>
-      <c r="G67" s="9">
-        <v>999</v>
-      </c>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9" t="str">
+      <c r="F67" s="13">
+        <v>1</v>
+      </c>
+      <c r="G67" s="13">
+        <v>999</v>
+      </c>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_670003</v>
       </c>
     </row>
     <row r="68" ht="16.5" spans="2:9">
-      <c r="B68" s="9">
+      <c r="B68" s="13">
         <v>670004</v>
       </c>
-      <c r="C68" s="9" t="str">
+      <c r="C68" s="13" t="str">
         <f t="shared" si="0"/>
         <v>itemname_670004</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E68" s="9" t="s">
+      <c r="D68" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F68" s="9">
-        <v>1</v>
-      </c>
-      <c r="G68" s="9">
-        <v>999</v>
-      </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9" t="str">
+      <c r="F68" s="13">
+        <v>1</v>
+      </c>
+      <c r="G68" s="13">
+        <v>999</v>
+      </c>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_670004</v>
       </c>
     </row>
     <row r="69" ht="16.5" spans="2:9">
-      <c r="B69" s="9">
+      <c r="B69" s="13">
         <v>670005</v>
       </c>
-      <c r="C69" s="9" t="str">
+      <c r="C69" s="13" t="str">
         <f t="shared" ref="C69:C74" si="2">_xlfn.CONCAT("itemname_",B69)</f>
         <v>itemname_670005</v>
       </c>
-      <c r="D69" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E69" s="9" t="s">
+      <c r="D69" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F69" s="9">
-        <v>1</v>
-      </c>
-      <c r="G69" s="9">
-        <v>999</v>
-      </c>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9" t="str">
+      <c r="F69" s="13">
+        <v>1</v>
+      </c>
+      <c r="G69" s="13">
+        <v>999</v>
+      </c>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13" t="str">
         <f t="shared" ref="I69:I74" si="3">_xlfn.CONCAT("itemicon_",B69)</f>
         <v>itemicon_670005</v>
       </c>
     </row>
     <row r="70" ht="16.5" spans="2:9">
-      <c r="B70" s="9">
+      <c r="B70" s="13">
         <v>670006</v>
       </c>
-      <c r="C70" s="9" t="str">
+      <c r="C70" s="13" t="str">
         <f t="shared" si="2"/>
         <v>itemname_670006</v>
       </c>
-      <c r="D70" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E70" s="9" t="s">
+      <c r="D70" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F70" s="9">
-        <v>1</v>
-      </c>
-      <c r="G70" s="9">
-        <v>999</v>
-      </c>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9" t="str">
+      <c r="F70" s="13">
+        <v>1</v>
+      </c>
+      <c r="G70" s="13">
+        <v>999</v>
+      </c>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670006</v>
       </c>
     </row>
     <row r="71" ht="16.5" spans="2:9">
-      <c r="B71" s="9">
+      <c r="B71" s="13">
         <v>670007</v>
       </c>
-      <c r="C71" s="9" t="str">
+      <c r="C71" s="13" t="str">
         <f t="shared" si="2"/>
         <v>itemname_670007</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E71" s="9" t="s">
+      <c r="D71" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F71" s="9">
-        <v>1</v>
-      </c>
-      <c r="G71" s="9">
-        <v>999</v>
-      </c>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9" t="str">
+      <c r="F71" s="13">
+        <v>1</v>
+      </c>
+      <c r="G71" s="13">
+        <v>999</v>
+      </c>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670007</v>
       </c>
     </row>
     <row r="72" ht="16.5" spans="2:9">
-      <c r="B72" s="9">
+      <c r="B72" s="13">
         <v>670008</v>
       </c>
-      <c r="C72" s="9" t="str">
+      <c r="C72" s="13" t="str">
         <f t="shared" si="2"/>
         <v>itemname_670008</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E72" s="9" t="s">
+      <c r="D72" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F72" s="9">
-        <v>1</v>
-      </c>
-      <c r="G72" s="9">
-        <v>999</v>
-      </c>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9" t="str">
+      <c r="F72" s="13">
+        <v>1</v>
+      </c>
+      <c r="G72" s="13">
+        <v>999</v>
+      </c>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670008</v>
       </c>
     </row>
     <row r="73" ht="16.5" spans="2:9">
-      <c r="B73" s="9">
+      <c r="B73" s="13">
         <v>670009</v>
       </c>
-      <c r="C73" s="9" t="str">
+      <c r="C73" s="13" t="str">
         <f t="shared" si="2"/>
         <v>itemname_670009</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E73" s="9" t="s">
+      <c r="D73" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F73" s="9">
-        <v>1</v>
-      </c>
-      <c r="G73" s="9">
-        <v>999</v>
-      </c>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9" t="str">
+      <c r="F73" s="13">
+        <v>1</v>
+      </c>
+      <c r="G73" s="13">
+        <v>999</v>
+      </c>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670009</v>
       </c>
     </row>
     <row r="74" ht="16.5" spans="2:9">
-      <c r="B74" s="9">
+      <c r="B74" s="13">
         <v>670010</v>
       </c>
-      <c r="C74" s="9" t="str">
+      <c r="C74" s="13" t="str">
         <f t="shared" si="2"/>
         <v>itemname_670010</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E74" s="9" t="s">
+      <c r="D74" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F74" s="9">
-        <v>1</v>
-      </c>
-      <c r="G74" s="9">
-        <v>999</v>
-      </c>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9" t="str">
+      <c r="F74" s="13">
+        <v>1</v>
+      </c>
+      <c r="G74" s="13">
+        <v>999</v>
+      </c>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670010</v>
       </c>
@@ -5333,19 +5346,398 @@
   <sheetPr/>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="16.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="11" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8" customFormat="1" spans="1:10">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" s="9" customFormat="1" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" s="10" customFormat="1" spans="1:10">
+      <c r="A3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" s="8" customFormat="1" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="11">
+        <v>920001</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11" t="str">
+        <f>_xlfn.CONCAT("itemicon_",B5)</f>
+        <v>itemicon_920001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="11">
+        <v>920002</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11" t="str">
+        <f t="shared" ref="I6:I14" si="0">_xlfn.CONCAT("itemicon_",B6)</f>
+        <v>itemicon_920002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="11">
+        <v>920003</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>itemicon_920003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="11">
+        <v>920004</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>itemicon_920004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="11">
+        <v>920005</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>itemicon_920005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="11">
+        <v>920006</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>itemicon_920006</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="11">
+        <v>920007</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>itemicon_920007</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="11">
+        <v>920008</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>itemicon_920008</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="11">
+        <v>920009</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>itemicon_920009</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="11">
+        <v>920010</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>itemicon_920010</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="16.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="4" customWidth="1"/>
     <col min="8" max="8" width="17.375" style="4" customWidth="1"/>
     <col min="9" max="9" width="17.75" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
@@ -5463,16 +5855,17 @@
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="4">
-        <v>920001</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>89</v>
+        <v>930001</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>_xlfn.CONCAT("itemname_",B5)</f>
+        <v>itemname_930001</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -5482,21 +5875,22 @@
       </c>
       <c r="I5" s="4" t="str">
         <f>_xlfn.CONCAT("itemicon_",B5)</f>
-        <v>itemicon_920001</v>
+        <v>itemicon_930001</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="4">
-        <v>920002</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>90</v>
+        <v>930002</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f t="shared" ref="C6:C14" si="0">_xlfn.CONCAT("itemname_",B6)</f>
+        <v>itemname_930002</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -5505,16 +5899,17 @@
         <v>1</v>
       </c>
       <c r="I6" s="4" t="str">
-        <f t="shared" ref="I6:I14" si="0">_xlfn.CONCAT("itemicon_",B6)</f>
-        <v>itemicon_920002</v>
+        <f t="shared" ref="I6:I14" si="1">_xlfn.CONCAT("itemicon_",B6)</f>
+        <v>itemicon_930002</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="4">
-        <v>920003</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>91</v>
+        <v>930003</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_930003</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>29</v>
@@ -5529,16 +5924,17 @@
         <v>1</v>
       </c>
       <c r="I7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>itemicon_920003</v>
+        <f t="shared" si="1"/>
+        <v>itemicon_930003</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4">
-        <v>920004</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>92</v>
+        <v>930004</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_930004</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>29</v>
@@ -5553,22 +5949,23 @@
         <v>1</v>
       </c>
       <c r="I8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>itemicon_920004</v>
+        <f t="shared" si="1"/>
+        <v>itemicon_930004</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="4">
-        <v>920005</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>93</v>
+        <v>930005</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_930005</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -5577,16 +5974,17 @@
         <v>1</v>
       </c>
       <c r="I9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>itemicon_920005</v>
+        <f t="shared" si="1"/>
+        <v>itemicon_930005</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="4">
-        <v>920006</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>94</v>
+        <v>930006</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_930006</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>29</v>
@@ -5601,16 +5999,17 @@
         <v>1</v>
       </c>
       <c r="I10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>itemicon_920006</v>
+        <f t="shared" si="1"/>
+        <v>itemicon_930006</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="4">
-        <v>920007</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>95</v>
+        <v>930007</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_930007</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>29</v>
@@ -5625,16 +6024,17 @@
         <v>1</v>
       </c>
       <c r="I11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>itemicon_920007</v>
+        <f t="shared" si="1"/>
+        <v>itemicon_930007</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="4">
-        <v>920008</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>96</v>
+        <v>930008</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_930008</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>29</v>
@@ -5649,16 +6049,17 @@
         <v>1</v>
       </c>
       <c r="I12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>itemicon_920008</v>
+        <f t="shared" si="1"/>
+        <v>itemicon_930008</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="4">
-        <v>920009</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>97</v>
+        <v>930009</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_930009</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>29</v>
@@ -5673,16 +6074,17 @@
         <v>1</v>
       </c>
       <c r="I13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>itemicon_920009</v>
+        <f t="shared" si="1"/>
+        <v>itemicon_930009</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="4">
-        <v>920010</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>98</v>
+        <v>930010</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_930010</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>29</v>
@@ -5697,8 +6099,8 @@
         <v>1</v>
       </c>
       <c r="I14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>itemicon_920010</v>
+        <f t="shared" si="1"/>
+        <v>itemicon_930010</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
+    <workbookView windowWidth="24645" windowHeight="10455" tabRatio="809" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="普通道具" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="86">
   <si>
     <t>##var</t>
   </si>
@@ -222,85 +222,46 @@
     <t>头</t>
   </si>
   <si>
-    <t>itemicon_60010</t>
-  </si>
-  <si>
     <t>项链</t>
   </si>
   <si>
-    <t>itemicon_60011</t>
-  </si>
-  <si>
     <t>肩膀</t>
   </si>
   <si>
-    <t>itemicon_60012</t>
-  </si>
-  <si>
     <t>胸</t>
   </si>
   <si>
-    <t>itemicon_60013</t>
-  </si>
-  <si>
     <t>腰带</t>
   </si>
   <si>
-    <t>itemicon_60014</t>
-  </si>
-  <si>
     <t>裤子</t>
   </si>
   <si>
-    <t>itemicon_60015</t>
-  </si>
-  <si>
     <t>鞋子</t>
   </si>
   <si>
-    <t>itemicon_60016</t>
-  </si>
-  <si>
     <t>戒指</t>
   </si>
   <si>
-    <t>itemicon_60017</t>
-  </si>
-  <si>
     <t>饰品</t>
   </si>
   <si>
-    <t>itemicon_60018</t>
-  </si>
-  <si>
-    <t>itemicon_60019</t>
-  </si>
-  <si>
-    <t>itemicon_60020</t>
-  </si>
-  <si>
-    <t>itemicon_60021</t>
-  </si>
-  <si>
-    <t>itemicon_60022</t>
-  </si>
-  <si>
-    <t>itemicon_60023</t>
-  </si>
-  <si>
-    <t>itemicon_60024</t>
+    <t>绿</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>紫</t>
+  </si>
+  <si>
+    <t>橙</t>
+  </si>
+  <si>
+    <t>红</t>
   </si>
   <si>
     <t>宝石</t>
-  </si>
-  <si>
-    <t>绿</t>
-  </si>
-  <si>
-    <t>蓝</t>
-  </si>
-  <si>
-    <t>紫</t>
   </si>
   <si>
     <t>itemname_920001</t>
@@ -965,7 +926,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,15 +941,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
@@ -1005,13 +957,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1340,1501 +1289,1501 @@
   <sheetPr/>
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
-    <col min="2" max="2" width="14.375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="29.25" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="22.875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="13" customWidth="1"/>
-    <col min="10" max="10" width="9" style="13"/>
-    <col min="11" max="16383" width="9" style="16"/>
-    <col min="16384" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="14.375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="29.25" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="10" customWidth="1"/>
+    <col min="10" max="10" width="9" style="10"/>
+    <col min="11" max="16383" width="9" style="13"/>
+    <col min="16384" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" s="9" customFormat="1" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" s="6" customFormat="1" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" s="10" customFormat="1" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:10">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" s="8" customFormat="1" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>60001</v>
       </c>
-      <c r="C5" s="13" t="str">
+      <c r="C5" s="10" t="str">
         <f>_xlfn.CONCAT("itemname_",B5)</f>
         <v>itemname_60001</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="13">
-        <v>1</v>
-      </c>
-      <c r="G5" s="13">
-        <v>999</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>999</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>60002</v>
       </c>
-      <c r="C6" s="13" t="str">
+      <c r="C6" s="10" t="str">
         <f t="shared" ref="C6:C14" si="0">_xlfn.CONCAT("itemname_",B6)</f>
         <v>itemname_60002</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
-        <v>999</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>999</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>60003</v>
       </c>
-      <c r="C7" s="13" t="str">
+      <c r="C7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60003</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13">
-        <v>999</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>999</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>60004</v>
       </c>
-      <c r="C8" s="13" t="str">
+      <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60004</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13">
-        <v>999</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>999</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>60005</v>
       </c>
-      <c r="C9" s="13" t="str">
+      <c r="C9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60005</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="13">
-        <v>999</v>
-      </c>
-      <c r="I9" s="13" t="s">
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>999</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>60006</v>
       </c>
-      <c r="C10" s="13" t="str">
+      <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60006</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="13">
-        <v>999</v>
-      </c>
-      <c r="I10" s="13" t="s">
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>999</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="13">
+      <c r="B11" s="10">
         <v>60007</v>
       </c>
-      <c r="C11" s="13" t="str">
+      <c r="C11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60007</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="13">
-        <v>1</v>
-      </c>
-      <c r="G11" s="13">
-        <v>999</v>
-      </c>
-      <c r="I11" s="13" t="s">
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>999</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>60008</v>
       </c>
-      <c r="C12" s="13" t="str">
+      <c r="C12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60008</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="13">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13">
-        <v>999</v>
-      </c>
-      <c r="I12" s="13" t="s">
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10">
+        <v>999</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>60009</v>
       </c>
-      <c r="C13" s="13" t="str">
+      <c r="C13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60009</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="13">
-        <v>999</v>
-      </c>
-      <c r="I13" s="13" t="s">
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>999</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="15">
+      <c r="B14" s="4">
         <v>710001</v>
       </c>
-      <c r="C14" s="13" t="str">
+      <c r="C14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_710001</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="13">
-        <v>1</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10">
         <v>9999</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="13" t="s">
+      <c r="H14" s="8"/>
+      <c r="I14" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="15">
+      <c r="B15" s="4">
         <v>710002</v>
       </c>
-      <c r="C15" s="13" t="str">
+      <c r="C15" s="10" t="str">
         <f t="shared" ref="C15:C33" si="1">_xlfn.CONCAT("itemname_",B15)</f>
         <v>itemname_710002</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="13">
-        <v>1</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
         <v>9999</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="13" t="s">
+      <c r="H15" s="8"/>
+      <c r="I15" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="15">
+      <c r="B16" s="4">
         <v>710003</v>
       </c>
-      <c r="C16" s="13" t="str">
+      <c r="C16" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710003</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="13">
-        <v>1</v>
-      </c>
-      <c r="G16" s="13">
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
         <v>9999</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="13" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="15">
+      <c r="B17" s="4">
         <v>710004</v>
       </c>
-      <c r="C17" s="13" t="str">
+      <c r="C17" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710004</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13">
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
         <v>9999</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="13" t="s">
+      <c r="H17" s="8"/>
+      <c r="I17" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="15">
+      <c r="B18" s="4">
         <v>710005</v>
       </c>
-      <c r="C18" s="13" t="str">
+      <c r="C18" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710005</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="13">
-        <v>1</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
         <v>9999</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="13" t="s">
+      <c r="H18" s="8"/>
+      <c r="I18" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="15">
+      <c r="B19" s="4">
         <v>710006</v>
       </c>
-      <c r="C19" s="13" t="str">
+      <c r="C19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710006</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="13">
-        <v>1</v>
-      </c>
-      <c r="G19" s="13">
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10">
         <v>9999</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="13" t="s">
+      <c r="H19" s="8"/>
+      <c r="I19" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="15">
+      <c r="B20" s="4">
         <v>710007</v>
       </c>
-      <c r="C20" s="13" t="str">
+      <c r="C20" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710007</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="13">
-        <v>1</v>
-      </c>
-      <c r="G20" s="13">
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10">
         <v>9999</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="13" t="s">
+      <c r="H20" s="8"/>
+      <c r="I20" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="15">
+      <c r="B21" s="4">
         <v>710008</v>
       </c>
-      <c r="C21" s="13" t="str">
+      <c r="C21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710008</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="13">
-        <v>1</v>
-      </c>
-      <c r="G21" s="13">
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10">
         <v>9999</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="13" t="s">
+      <c r="H21" s="8"/>
+      <c r="I21" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="15">
+      <c r="B22" s="4">
         <v>710009</v>
       </c>
-      <c r="C22" s="13" t="str">
+      <c r="C22" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710009</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="13">
-        <v>1</v>
-      </c>
-      <c r="G22" s="13">
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" s="10">
         <v>9999</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="13" t="s">
+      <c r="H22" s="8"/>
+      <c r="I22" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="15">
+      <c r="B23" s="4">
         <v>710010</v>
       </c>
-      <c r="C23" s="13" t="str">
+      <c r="C23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710010</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="13">
-        <v>1</v>
-      </c>
-      <c r="G23" s="13">
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10">
         <v>9999</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="13" t="s">
+      <c r="H23" s="8"/>
+      <c r="I23" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="15">
+      <c r="B24" s="4">
         <v>710011</v>
       </c>
-      <c r="C24" s="13" t="str">
+      <c r="C24" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710011</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="13">
-        <v>1</v>
-      </c>
-      <c r="G24" s="13">
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10">
         <v>9999</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="13" t="s">
+      <c r="H24" s="8"/>
+      <c r="I24" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="15">
+      <c r="B25" s="4">
         <v>710012</v>
       </c>
-      <c r="C25" s="13" t="str">
+      <c r="C25" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710012</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="13">
-        <v>1</v>
-      </c>
-      <c r="G25" s="13">
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
         <v>9999</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="13" t="s">
+      <c r="H25" s="8"/>
+      <c r="I25" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="15">
+      <c r="B26" s="4">
         <v>710013</v>
       </c>
-      <c r="C26" s="13" t="str">
+      <c r="C26" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710013</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="13">
-        <v>1</v>
-      </c>
-      <c r="G26" s="13">
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+      <c r="G26" s="10">
         <v>9999</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="13" t="s">
+      <c r="H26" s="8"/>
+      <c r="I26" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="15">
+      <c r="B27" s="4">
         <v>710014</v>
       </c>
-      <c r="C27" s="13" t="str">
+      <c r="C27" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710014</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="13">
-        <v>1</v>
-      </c>
-      <c r="G27" s="13">
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10">
         <v>9999</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="13" t="s">
+      <c r="H27" s="8"/>
+      <c r="I27" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="15">
+      <c r="B28" s="4">
         <v>710015</v>
       </c>
-      <c r="C28" s="13" t="str">
+      <c r="C28" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710015</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="13">
-        <v>1</v>
-      </c>
-      <c r="G28" s="13">
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10">
         <v>9999</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="13" t="s">
+      <c r="H28" s="8"/>
+      <c r="I28" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="15">
+      <c r="B29" s="4">
         <v>710016</v>
       </c>
-      <c r="C29" s="13" t="str">
+      <c r="C29" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710016</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="13">
-        <v>1</v>
-      </c>
-      <c r="G29" s="13">
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10">
         <v>9999</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="13" t="s">
+      <c r="H29" s="8"/>
+      <c r="I29" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="15">
+      <c r="B30" s="4">
         <v>710017</v>
       </c>
-      <c r="C30" s="13" t="str">
+      <c r="C30" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710017</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="13">
-        <v>1</v>
-      </c>
-      <c r="G30" s="13">
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10">
         <v>9999</v>
       </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="13" t="s">
+      <c r="H30" s="8"/>
+      <c r="I30" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="15">
+      <c r="B31" s="4">
         <v>710018</v>
       </c>
-      <c r="C31" s="13" t="str">
+      <c r="C31" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710018</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="13">
-        <v>1</v>
-      </c>
-      <c r="G31" s="13">
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+      <c r="G31" s="10">
         <v>9999</v>
       </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="13" t="s">
+      <c r="H31" s="8"/>
+      <c r="I31" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="15">
+      <c r="B32" s="4">
         <v>710019</v>
       </c>
-      <c r="C32" s="13" t="str">
+      <c r="C32" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710019</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="13">
-        <v>1</v>
-      </c>
-      <c r="G32" s="13">
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10">
         <v>9999</v>
       </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="13" t="s">
+      <c r="H32" s="8"/>
+      <c r="I32" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="15">
+      <c r="B33" s="4">
         <v>710020</v>
       </c>
-      <c r="C33" s="13" t="str">
+      <c r="C33" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710020</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="13">
-        <v>1</v>
-      </c>
-      <c r="G33" s="13">
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10">
         <v>9999</v>
       </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="13" t="s">
+      <c r="H33" s="8"/>
+      <c r="I33" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="15"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="15"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="15"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="15"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="15"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="15"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="15"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="15"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="15"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="15"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="15"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="15"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="15"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="15"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="15"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="15"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="15"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="15"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="15"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="15"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="15"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="15"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="15"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
     </row>
     <row r="57" spans="2:9">
-      <c r="B57" s="15"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
     </row>
     <row r="58" spans="2:9">
-      <c r="B58" s="15"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
     </row>
     <row r="59" spans="2:9">
-      <c r="B59" s="15"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="15"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
     </row>
     <row r="61" spans="2:9">
-      <c r="B61" s="15"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="15"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="15"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="15"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
     </row>
     <row r="65" spans="2:9">
-      <c r="B65" s="15"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
     </row>
     <row r="66" spans="2:9">
-      <c r="B66" s="15"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
     </row>
     <row r="67" spans="2:9">
-      <c r="B67" s="15"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
     </row>
     <row r="68" spans="2:9">
-      <c r="B68" s="15"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
     </row>
     <row r="69" spans="2:9">
-      <c r="B69" s="15"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
     </row>
     <row r="70" spans="2:9">
-      <c r="B70" s="15"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
     </row>
     <row r="71" spans="2:9">
-      <c r="B71" s="15"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
     </row>
     <row r="72" spans="2:9">
-      <c r="B72" s="15"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
     </row>
     <row r="73" spans="2:9">
-      <c r="B73" s="15"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="15"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
     </row>
     <row r="75" spans="2:9">
-      <c r="B75" s="15"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
     </row>
     <row r="76" spans="2:9">
-      <c r="B76" s="15"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
     </row>
     <row r="77" spans="2:9">
-      <c r="B77" s="15"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="15"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="15"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="15"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
     </row>
     <row r="81" spans="2:9">
-      <c r="B81" s="15"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
     </row>
     <row r="82" spans="2:9">
-      <c r="B82" s="15"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
     </row>
     <row r="83" spans="2:9">
-      <c r="B83" s="15"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="15"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
     </row>
     <row r="85" spans="2:9">
-      <c r="B85" s="15"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
     </row>
     <row r="86" spans="2:9">
-      <c r="B86" s="15"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
     </row>
     <row r="87" spans="2:9">
-      <c r="B87" s="15"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
     </row>
     <row r="88" spans="2:9">
-      <c r="B88" s="15"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
     </row>
     <row r="89" spans="2:9">
-      <c r="B89" s="15"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
     </row>
     <row r="90" spans="2:9">
-      <c r="B90" s="15"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
     </row>
     <row r="91" spans="2:9">
-      <c r="B91" s="15"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
     </row>
     <row r="92" spans="2:9">
-      <c r="B92" s="15"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
     </row>
     <row r="93" spans="2:9">
-      <c r="B93" s="15"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
     </row>
     <row r="94" spans="2:9">
-      <c r="B94" s="15"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
     </row>
     <row r="95" spans="2:9">
-      <c r="B95" s="15"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
     </row>
     <row r="96" spans="2:9">
-      <c r="B96" s="15"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
     </row>
     <row r="97" spans="2:9">
-      <c r="B97" s="15"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
     </row>
     <row r="98" spans="2:9">
-      <c r="B98" s="15"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2845,537 +2794,1394 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="17.375" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="7" style="12" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="17.375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" s="9" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" s="6" customFormat="1" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:10">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" s="8" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" ht="16.5" spans="2:9">
-      <c r="B5" s="13">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="10">
         <v>60010</v>
       </c>
-      <c r="C5" s="13" t="str">
+      <c r="C5" s="10" t="str">
         <f t="shared" ref="C5:C19" si="0">_xlfn.CONCAT("itemname_",B5)</f>
         <v>itemname_60010</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="13">
-        <v>1</v>
-      </c>
-      <c r="G5" s="13">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="10" t="str">
+        <f>_xlfn.CONCAT("itemicon_",B5)</f>
+        <v>itemicon_60010</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="10">
+        <v>60011</v>
+      </c>
+      <c r="C6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60011</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" ht="16.5" spans="2:9">
-      <c r="B6" s="13">
-        <v>60011</v>
-      </c>
-      <c r="C6" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>itemname_60011</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="I6" s="10" t="str">
+        <f t="shared" ref="I6:I25" si="1">_xlfn.CONCAT("itemicon_",B6)</f>
+        <v>itemicon_60011</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="10">
+        <v>60012</v>
+      </c>
+      <c r="C7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60012</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1</v>
-      </c>
-      <c r="H6" s="15" t="s">
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>itemicon_60012</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="10">
+        <v>60013</v>
+      </c>
+      <c r="C8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60013</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" ht="16.5" spans="2:9">
-      <c r="B7" s="13">
-        <v>60012</v>
-      </c>
-      <c r="C7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>itemname_60012</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="I8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>itemicon_60013</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="10">
+        <v>60014</v>
+      </c>
+      <c r="C9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60014</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>itemicon_60014</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="10">
+        <v>60015</v>
+      </c>
+      <c r="C10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60015</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" ht="16.5" spans="2:9">
-      <c r="B8" s="13">
-        <v>60013</v>
-      </c>
-      <c r="C8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>itemname_60013</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="I10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>itemicon_60015</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="10">
+        <v>60016</v>
+      </c>
+      <c r="C11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60016</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15" t="s">
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>itemicon_60016</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="10">
+        <v>60017</v>
+      </c>
+      <c r="C12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60017</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" ht="16.5" spans="2:9">
-      <c r="B9" s="13">
-        <v>60014</v>
-      </c>
-      <c r="C9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>itemname_60014</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="I12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>itemicon_60017</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="10">
+        <v>60018</v>
+      </c>
+      <c r="C13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60018</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="13">
-        <v>1</v>
-      </c>
-      <c r="H9" s="15" t="s">
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I13" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>itemicon_60018</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="10">
+        <v>60019</v>
+      </c>
+      <c r="C14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60019</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>itemicon_60019</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="10">
+        <v>60020</v>
+      </c>
+      <c r="C15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60020</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>itemicon_60020</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="10">
+        <v>60021</v>
+      </c>
+      <c r="C16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60021</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>itemicon_60021</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="10">
+        <v>60022</v>
+      </c>
+      <c r="C17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60022</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>itemicon_60022</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="10">
+        <v>60023</v>
+      </c>
+      <c r="C18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60023</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>itemicon_60023</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="10">
+        <v>60024</v>
+      </c>
+      <c r="C19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>itemname_60024</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>itemicon_60024</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="10">
+        <v>60025</v>
+      </c>
+      <c r="C20" s="10" t="str">
+        <f t="shared" ref="C20:C25" si="2">_xlfn.CONCAT("itemname_",B20)</f>
+        <v>itemname_60025</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" ht="16.5" spans="2:9">
-      <c r="B10" s="13">
-        <v>60015</v>
-      </c>
-      <c r="C10" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>itemname_60015</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>itemicon_60025</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="10">
+        <v>60026</v>
+      </c>
+      <c r="C21" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>itemname_60026</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="13">
-        <v>1</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="E21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>itemicon_60026</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="10">
+        <v>60027</v>
+      </c>
+      <c r="C22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>itemname_60027</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>itemicon_60027</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="10">
+        <v>60028</v>
+      </c>
+      <c r="C23" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>itemname_60028</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>itemicon_60028</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="10">
+        <v>60029</v>
+      </c>
+      <c r="C24" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>itemname_60029</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>itemicon_60029</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="10">
+        <v>60030</v>
+      </c>
+      <c r="C25" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>itemname_60030</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>itemicon_60030</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="10">
+        <v>60031</v>
+      </c>
+      <c r="C26" s="10" t="str">
+        <f>_xlfn.CONCAT("itemname_",B26)</f>
+        <v>itemname_60031</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="10" t="str">
+        <f>_xlfn.CONCAT("itemicon_",B26)</f>
+        <v>itemicon_60031</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="10">
+        <v>60032</v>
+      </c>
+      <c r="C27" s="10" t="str">
+        <f>_xlfn.CONCAT("itemname_",B27)</f>
+        <v>itemname_60032</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="10" t="str">
+        <f>_xlfn.CONCAT("itemicon_",B27)</f>
+        <v>itemicon_60032</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="10">
+        <v>60033</v>
+      </c>
+      <c r="C28" s="10" t="str">
+        <f>_xlfn.CONCAT("itemname_",B28)</f>
+        <v>itemname_60033</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="10" t="str">
+        <f>_xlfn.CONCAT("itemicon_",B28)</f>
+        <v>itemicon_60033</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="10">
+        <v>60034</v>
+      </c>
+      <c r="C29" s="10" t="str">
+        <f>_xlfn.CONCAT("itemname_",B29)</f>
+        <v>itemname_60034</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="10" t="str">
+        <f>_xlfn.CONCAT("itemicon_",B29)</f>
+        <v>itemicon_60034</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="10">
+        <v>60035</v>
+      </c>
+      <c r="C30" s="10" t="str">
+        <f>_xlfn.CONCAT("itemname_",B30)</f>
+        <v>itemname_60035</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="10" t="str">
+        <f>_xlfn.CONCAT("itemicon_",B30)</f>
+        <v>itemicon_60035</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="10">
+        <v>60036</v>
+      </c>
+      <c r="C31" s="10" t="str">
+        <f>_xlfn.CONCAT("itemname_",B31)</f>
+        <v>itemname_60036</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+      <c r="G31" s="10">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="10" t="str">
+        <f>_xlfn.CONCAT("itemicon_",B31)</f>
+        <v>itemicon_60036</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="10">
+        <v>60037</v>
+      </c>
+      <c r="C32" s="10" t="str">
+        <f t="shared" ref="C32:C37" si="3">_xlfn.CONCAT("itemname_",B32)</f>
+        <v>itemname_60037</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" ht="16.5" spans="2:9">
-      <c r="B11" s="13">
-        <v>60016</v>
-      </c>
-      <c r="C11" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>itemname_60016</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10">
+        <v>1</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="10" t="str">
+        <f t="shared" ref="I32:I37" si="4">_xlfn.CONCAT("itemicon_",B32)</f>
+        <v>itemicon_60037</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="10">
+        <v>60038</v>
+      </c>
+      <c r="C33" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_60038</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="13">
-        <v>1</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1</v>
-      </c>
-      <c r="H11" s="15" t="s">
+      <c r="E33" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10">
+        <v>1</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_60038</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="10">
+        <v>60039</v>
+      </c>
+      <c r="C34" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_60039</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_60039</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="10">
+        <v>60040</v>
+      </c>
+      <c r="C35" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_60040</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="10">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_60040</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="10">
+        <v>60041</v>
+      </c>
+      <c r="C36" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_60041</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_60041</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="10">
+        <v>60042</v>
+      </c>
+      <c r="C37" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>itemname_60042</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>itemicon_60042</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="10">
+        <v>60043</v>
+      </c>
+      <c r="C38" s="10" t="str">
+        <f t="shared" ref="C38:C49" si="5">_xlfn.CONCAT("itemname_",B38)</f>
+        <v>itemname_60043</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="10" t="str">
+        <f t="shared" ref="I38:I49" si="6">_xlfn.CONCAT("itemicon_",B38)</f>
+        <v>itemicon_60043</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="10">
+        <v>60044</v>
+      </c>
+      <c r="C39" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>itemname_60044</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="10">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10">
+        <v>1</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>itemicon_60044</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="10">
+        <v>60045</v>
+      </c>
+      <c r="C40" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>itemname_60045</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="10">
+        <v>1</v>
+      </c>
+      <c r="G40" s="10">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>itemicon_60045</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="10">
+        <v>60046</v>
+      </c>
+      <c r="C41" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>itemname_60046</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="10">
+        <v>1</v>
+      </c>
+      <c r="G41" s="10">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>itemicon_60046</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="10">
+        <v>60047</v>
+      </c>
+      <c r="C42" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>itemname_60047</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="10">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>itemicon_60047</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="10">
+        <v>60048</v>
+      </c>
+      <c r="C43" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>itemname_60048</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="10">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I43" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>itemicon_60048</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="10">
+        <v>60049</v>
+      </c>
+      <c r="C44" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>itemname_60049</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" ht="16.5" spans="2:9">
-      <c r="B12" s="13">
-        <v>60017</v>
-      </c>
-      <c r="C12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>itemname_60017</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="F44" s="10">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10">
+        <v>1</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>itemicon_60049</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="10">
+        <v>60050</v>
+      </c>
+      <c r="C45" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>itemname_60050</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="13">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13">
-        <v>1</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="2:9">
-      <c r="B13" s="13">
-        <v>60018</v>
-      </c>
-      <c r="C13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>itemname_60018</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="E45" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="10">
+        <v>1</v>
+      </c>
+      <c r="G45" s="10">
+        <v>1</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I45" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>itemicon_60050</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="10">
+        <v>60051</v>
+      </c>
+      <c r="C46" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>itemname_60051</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="2:9">
-      <c r="B14" s="13">
-        <v>60019</v>
-      </c>
-      <c r="C14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>itemname_60019</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="E46" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="10">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I46" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>itemicon_60051</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="10">
+        <v>60052</v>
+      </c>
+      <c r="C47" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>itemname_60052</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="13">
-        <v>1</v>
-      </c>
-      <c r="G14" s="13">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="2:9">
-      <c r="B15" s="13">
-        <v>60020</v>
-      </c>
-      <c r="C15" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>itemname_60020</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="E47" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="10">
+        <v>1</v>
+      </c>
+      <c r="G47" s="10">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I47" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>itemicon_60052</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="10">
+        <v>60053</v>
+      </c>
+      <c r="C48" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>itemname_60053</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="13">
-        <v>1</v>
-      </c>
-      <c r="G15" s="13">
-        <v>1</v>
-      </c>
-      <c r="H15" s="15" t="s">
+      <c r="E48" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="10">
+        <v>1</v>
+      </c>
+      <c r="G48" s="10">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="2:9">
-      <c r="B16" s="13">
-        <v>60021</v>
-      </c>
-      <c r="C16" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>itemname_60021</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="I48" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>itemicon_60053</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="10">
+        <v>60054</v>
+      </c>
+      <c r="C49" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>itemname_60054</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="13">
-        <v>1</v>
-      </c>
-      <c r="G16" s="13">
-        <v>1</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" spans="2:9">
-      <c r="B17" s="13">
-        <v>60022</v>
-      </c>
-      <c r="C17" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>itemname_60022</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13">
-        <v>1</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="2:9">
-      <c r="B18" s="13">
-        <v>60023</v>
-      </c>
-      <c r="C18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>itemname_60023</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="13">
-        <v>1</v>
-      </c>
-      <c r="G18" s="13">
-        <v>1</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="2:9">
-      <c r="B19" s="13">
-        <v>60024</v>
-      </c>
-      <c r="C19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>itemname_60024</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="13">
-        <v>1</v>
-      </c>
-      <c r="G19" s="13">
-        <v>1</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>84</v>
+      <c r="E49" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" s="10">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>itemicon_60054</v>
       </c>
     </row>
   </sheetData>
@@ -3405,1932 +4211,1932 @@
     <col min="9" max="9" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="5" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" s="9" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" s="6" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" s="7" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" s="8" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" ht="17.25" spans="2:9">
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>610001</v>
       </c>
-      <c r="C5" s="13" t="str">
+      <c r="C5" s="10" t="str">
         <f t="shared" ref="C5:C68" si="0">_xlfn.CONCAT("itemname_",B5)</f>
         <v>itemname_610001</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="13">
-        <v>1</v>
-      </c>
-      <c r="G5" s="13">
-        <v>999</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13" t="str">
+      <c r="D5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>999</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="str">
         <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("itemicon_",B5)</f>
         <v>itemicon_610001</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="2:9">
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>610002</v>
       </c>
-      <c r="C6" s="13" t="str">
+      <c r="C6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610002</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
-        <v>999</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13" t="str">
+      <c r="D6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>999</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610002</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="2:9">
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>610003</v>
       </c>
-      <c r="C7" s="13" t="str">
+      <c r="C7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610003</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13">
-        <v>999</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13" t="str">
+      <c r="D7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>999</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610003</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="2:9">
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>610004</v>
       </c>
-      <c r="C8" s="13" t="str">
+      <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610004</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13">
-        <v>999</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13" t="str">
+      <c r="D8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>999</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610004</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="2:9">
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>610005</v>
       </c>
-      <c r="C9" s="13" t="str">
+      <c r="C9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610005</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="13">
-        <v>999</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13" t="str">
+      <c r="D9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>999</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610005</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="2:9">
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>610006</v>
       </c>
-      <c r="C10" s="13" t="str">
+      <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610006</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="13">
-        <v>999</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13" t="str">
+      <c r="D10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>999</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610006</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="2:9">
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>610007</v>
       </c>
-      <c r="C11" s="13" t="str">
+      <c r="C11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610007</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="13">
-        <v>1</v>
-      </c>
-      <c r="G11" s="13">
-        <v>999</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13" t="str">
+      <c r="D11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>999</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610007</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="2:9">
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>610008</v>
       </c>
-      <c r="C12" s="13" t="str">
+      <c r="C12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610008</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="13">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13">
-        <v>999</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13" t="str">
+      <c r="D12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10">
+        <v>999</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610008</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="2:9">
-      <c r="B13" s="12">
+      <c r="B13" s="9">
         <v>610009</v>
       </c>
-      <c r="C13" s="13" t="str">
+      <c r="C13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610009</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="13">
-        <v>999</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13" t="str">
+      <c r="D13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>999</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610009</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="2:9">
-      <c r="B14" s="12">
+      <c r="B14" s="9">
         <v>610010</v>
       </c>
-      <c r="C14" s="13" t="str">
+      <c r="C14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610010</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="13">
-        <v>1</v>
-      </c>
-      <c r="G14" s="13">
-        <v>999</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13" t="str">
+      <c r="D14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10">
+        <v>999</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610010</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="2:9">
-      <c r="B15" s="12">
+      <c r="B15" s="9">
         <v>620001</v>
       </c>
-      <c r="C15" s="13" t="str">
+      <c r="C15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620001</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="13">
-        <v>1</v>
-      </c>
-      <c r="G15" s="13">
-        <v>999</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13" t="str">
+      <c r="D15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>999</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620001</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="2:9">
-      <c r="B16" s="12">
+      <c r="B16" s="9">
         <v>620002</v>
       </c>
-      <c r="C16" s="13" t="str">
+      <c r="C16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620002</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="13">
-        <v>1</v>
-      </c>
-      <c r="G16" s="13">
-        <v>999</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13" t="str">
+      <c r="D16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
+        <v>999</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620002</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="2:9">
-      <c r="B17" s="12">
+      <c r="B17" s="9">
         <v>620003</v>
       </c>
-      <c r="C17" s="13" t="str">
+      <c r="C17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620003</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13">
-        <v>999</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13" t="str">
+      <c r="D17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
+        <v>999</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620003</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="2:9">
-      <c r="B18" s="12">
+      <c r="B18" s="9">
         <v>620004</v>
       </c>
-      <c r="C18" s="13" t="str">
+      <c r="C18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620004</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="13">
-        <v>1</v>
-      </c>
-      <c r="G18" s="13">
-        <v>999</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13" t="str">
+      <c r="D18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
+        <v>999</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620004</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="2:9">
-      <c r="B19" s="12">
+      <c r="B19" s="9">
         <v>620005</v>
       </c>
-      <c r="C19" s="13" t="str">
+      <c r="C19" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620005</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="13">
-        <v>1</v>
-      </c>
-      <c r="G19" s="13">
-        <v>999</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13" t="str">
+      <c r="D19" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10">
+        <v>999</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620005</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="2:9">
-      <c r="B20" s="12">
+      <c r="B20" s="9">
         <v>620006</v>
       </c>
-      <c r="C20" s="13" t="str">
+      <c r="C20" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620006</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="13">
-        <v>1</v>
-      </c>
-      <c r="G20" s="13">
-        <v>999</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13" t="str">
+      <c r="D20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10">
+        <v>999</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620006</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="2:9">
-      <c r="B21" s="12">
+      <c r="B21" s="9">
         <v>620007</v>
       </c>
-      <c r="C21" s="13" t="str">
+      <c r="C21" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620007</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="13">
-        <v>1</v>
-      </c>
-      <c r="G21" s="13">
-        <v>999</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13" t="str">
+      <c r="D21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10">
+        <v>999</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620007</v>
       </c>
     </row>
     <row r="22" ht="17.25" spans="2:9">
-      <c r="B22" s="12">
+      <c r="B22" s="9">
         <v>620008</v>
       </c>
-      <c r="C22" s="13" t="str">
+      <c r="C22" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620008</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="13">
-        <v>1</v>
-      </c>
-      <c r="G22" s="13">
-        <v>999</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13" t="str">
+      <c r="D22" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" s="10">
+        <v>999</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620008</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="2:9">
-      <c r="B23" s="12">
+      <c r="B23" s="9">
         <v>620009</v>
       </c>
-      <c r="C23" s="13" t="str">
+      <c r="C23" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620009</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="13">
-        <v>1</v>
-      </c>
-      <c r="G23" s="13">
-        <v>999</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13" t="str">
+      <c r="D23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10">
+        <v>999</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620009</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="2:9">
-      <c r="B24" s="12">
+      <c r="B24" s="9">
         <v>620010</v>
       </c>
-      <c r="C24" s="13" t="str">
+      <c r="C24" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620010</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="13">
-        <v>1</v>
-      </c>
-      <c r="G24" s="13">
-        <v>999</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13" t="str">
+      <c r="D24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10">
+        <v>999</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620010</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="2:9">
-      <c r="B25" s="12">
+      <c r="B25" s="9">
         <v>630001</v>
       </c>
-      <c r="C25" s="13" t="str">
+      <c r="C25" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630001</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="13">
-        <v>1</v>
-      </c>
-      <c r="G25" s="13">
-        <v>999</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13" t="str">
+      <c r="D25" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <v>999</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630001</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="2:9">
-      <c r="B26" s="12">
+      <c r="B26" s="9">
         <v>630002</v>
       </c>
-      <c r="C26" s="13" t="str">
+      <c r="C26" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630002</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="13">
-        <v>1</v>
-      </c>
-      <c r="G26" s="13">
-        <v>999</v>
-      </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13" t="str">
+      <c r="D26" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+      <c r="G26" s="10">
+        <v>999</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630002</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="2:9">
-      <c r="B27" s="12">
+      <c r="B27" s="9">
         <v>630003</v>
       </c>
-      <c r="C27" s="13" t="str">
+      <c r="C27" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630003</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="13">
-        <v>1</v>
-      </c>
-      <c r="G27" s="13">
-        <v>999</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13" t="str">
+      <c r="D27" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10">
+        <v>999</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630003</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="2:9">
-      <c r="B28" s="12">
+      <c r="B28" s="9">
         <v>630004</v>
       </c>
-      <c r="C28" s="13" t="str">
+      <c r="C28" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630004</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="13">
-        <v>1</v>
-      </c>
-      <c r="G28" s="13">
-        <v>999</v>
-      </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13" t="str">
+      <c r="D28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10">
+        <v>999</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630004</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="2:9">
-      <c r="B29" s="12">
+      <c r="B29" s="9">
         <v>630005</v>
       </c>
-      <c r="C29" s="13" t="str">
+      <c r="C29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630005</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="13">
-        <v>1</v>
-      </c>
-      <c r="G29" s="13">
-        <v>999</v>
-      </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13" t="str">
+      <c r="D29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10">
+        <v>999</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630005</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="2:9">
-      <c r="B30" s="12">
+      <c r="B30" s="9">
         <v>630006</v>
       </c>
-      <c r="C30" s="13" t="str">
+      <c r="C30" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630006</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="13">
-        <v>1</v>
-      </c>
-      <c r="G30" s="13">
-        <v>999</v>
-      </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13" t="str">
+      <c r="D30" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10">
+        <v>999</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630006</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="2:9">
-      <c r="B31" s="12">
+      <c r="B31" s="9">
         <v>630007</v>
       </c>
-      <c r="C31" s="13" t="str">
+      <c r="C31" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630007</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="13">
-        <v>1</v>
-      </c>
-      <c r="G31" s="13">
-        <v>999</v>
-      </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13" t="str">
+      <c r="D31" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+      <c r="G31" s="10">
+        <v>999</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630007</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="2:9">
-      <c r="B32" s="12">
+      <c r="B32" s="9">
         <v>630008</v>
       </c>
-      <c r="C32" s="13" t="str">
+      <c r="C32" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630008</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" s="13">
-        <v>1</v>
-      </c>
-      <c r="G32" s="13">
-        <v>999</v>
-      </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13" t="str">
+      <c r="D32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10">
+        <v>999</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630008</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="2:9">
-      <c r="B33" s="12">
+      <c r="B33" s="9">
         <v>630009</v>
       </c>
-      <c r="C33" s="13" t="str">
+      <c r="C33" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630009</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" s="13">
-        <v>1</v>
-      </c>
-      <c r="G33" s="13">
-        <v>999</v>
-      </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13" t="str">
+      <c r="D33" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10">
+        <v>999</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630009</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="2:9">
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <v>630010</v>
       </c>
-      <c r="C34" s="13" t="str">
+      <c r="C34" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630010</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="13">
-        <v>1</v>
-      </c>
-      <c r="G34" s="13">
-        <v>999</v>
-      </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13" t="str">
+      <c r="D34" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10">
+        <v>999</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630010</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="2:9">
-      <c r="B35" s="14">
+      <c r="B35" s="11">
         <v>640001</v>
       </c>
-      <c r="C35" s="13" t="str">
+      <c r="C35" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640001</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="13">
-        <v>1</v>
-      </c>
-      <c r="G35" s="13">
-        <v>999</v>
-      </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13" t="str">
+      <c r="D35" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="10">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10">
+        <v>999</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640001</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="2:9">
-      <c r="B36" s="14">
+      <c r="B36" s="11">
         <v>640002</v>
       </c>
-      <c r="C36" s="13" t="str">
+      <c r="C36" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640002</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="13">
-        <v>1</v>
-      </c>
-      <c r="G36" s="13">
-        <v>999</v>
-      </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13" t="str">
+      <c r="D36" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10">
+        <v>999</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640002</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="2:9">
-      <c r="B37" s="14">
+      <c r="B37" s="11">
         <v>640003</v>
       </c>
-      <c r="C37" s="13" t="str">
+      <c r="C37" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640003</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="13">
-        <v>1</v>
-      </c>
-      <c r="G37" s="13">
-        <v>999</v>
-      </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13" t="str">
+      <c r="D37" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+      <c r="G37" s="10">
+        <v>999</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640003</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="2:9">
-      <c r="B38" s="14">
+      <c r="B38" s="11">
         <v>640004</v>
       </c>
-      <c r="C38" s="13" t="str">
+      <c r="C38" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640004</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="13">
-        <v>1</v>
-      </c>
-      <c r="G38" s="13">
-        <v>999</v>
-      </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13" t="str">
+      <c r="D38" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10">
+        <v>999</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640004</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="2:9">
-      <c r="B39" s="14">
+      <c r="B39" s="11">
         <v>640005</v>
       </c>
-      <c r="C39" s="13" t="str">
+      <c r="C39" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640005</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="13">
-        <v>1</v>
-      </c>
-      <c r="G39" s="13">
-        <v>999</v>
-      </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13" t="str">
+      <c r="D39" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="10">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10">
+        <v>999</v>
+      </c>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640005</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="2:9">
-      <c r="B40" s="14">
+      <c r="B40" s="11">
         <v>640006</v>
       </c>
-      <c r="C40" s="13" t="str">
+      <c r="C40" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640006</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="13">
-        <v>1</v>
-      </c>
-      <c r="G40" s="13">
-        <v>999</v>
-      </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13" t="str">
+      <c r="D40" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="10">
+        <v>1</v>
+      </c>
+      <c r="G40" s="10">
+        <v>999</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640006</v>
       </c>
     </row>
     <row r="41" ht="17.25" spans="2:9">
-      <c r="B41" s="14">
+      <c r="B41" s="11">
         <v>640007</v>
       </c>
-      <c r="C41" s="13" t="str">
+      <c r="C41" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640007</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" s="13">
-        <v>1</v>
-      </c>
-      <c r="G41" s="13">
-        <v>999</v>
-      </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13" t="str">
+      <c r="D41" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="10">
+        <v>1</v>
+      </c>
+      <c r="G41" s="10">
+        <v>999</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640007</v>
       </c>
     </row>
     <row r="42" ht="17.25" spans="2:9">
-      <c r="B42" s="14">
+      <c r="B42" s="11">
         <v>640008</v>
       </c>
-      <c r="C42" s="13" t="str">
+      <c r="C42" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640008</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="13">
-        <v>1</v>
-      </c>
-      <c r="G42" s="13">
-        <v>999</v>
-      </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13" t="str">
+      <c r="D42" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="10">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10">
+        <v>999</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640008</v>
       </c>
     </row>
     <row r="43" ht="17.25" spans="2:9">
-      <c r="B43" s="14">
+      <c r="B43" s="11">
         <v>640009</v>
       </c>
-      <c r="C43" s="13" t="str">
+      <c r="C43" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640009</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="13">
-        <v>1</v>
-      </c>
-      <c r="G43" s="13">
-        <v>999</v>
-      </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13" t="str">
+      <c r="D43" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="10">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10">
+        <v>999</v>
+      </c>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640009</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="2:9">
-      <c r="B44" s="14">
+      <c r="B44" s="11">
         <v>640010</v>
       </c>
-      <c r="C44" s="13" t="str">
+      <c r="C44" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640010</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" s="13">
-        <v>1</v>
-      </c>
-      <c r="G44" s="13">
-        <v>999</v>
-      </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13" t="str">
+      <c r="D44" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="10">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10">
+        <v>999</v>
+      </c>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640010</v>
       </c>
     </row>
     <row r="45" ht="17.25" spans="2:9">
-      <c r="B45" s="14">
+      <c r="B45" s="11">
         <v>650001</v>
       </c>
-      <c r="C45" s="13" t="str">
+      <c r="C45" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650001</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" s="13">
-        <v>1</v>
-      </c>
-      <c r="G45" s="13">
-        <v>999</v>
-      </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13" t="str">
+      <c r="D45" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="10">
+        <v>1</v>
+      </c>
+      <c r="G45" s="10">
+        <v>999</v>
+      </c>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650001</v>
       </c>
     </row>
     <row r="46" ht="17.25" spans="2:9">
-      <c r="B46" s="14">
+      <c r="B46" s="11">
         <v>650002</v>
       </c>
-      <c r="C46" s="13" t="str">
+      <c r="C46" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650002</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F46" s="13">
-        <v>1</v>
-      </c>
-      <c r="G46" s="13">
-        <v>999</v>
-      </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13" t="str">
+      <c r="D46" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" s="10">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10">
+        <v>999</v>
+      </c>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650002</v>
       </c>
     </row>
     <row r="47" ht="17.25" spans="2:9">
-      <c r="B47" s="14">
+      <c r="B47" s="11">
         <v>650003</v>
       </c>
-      <c r="C47" s="13" t="str">
+      <c r="C47" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650003</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F47" s="13">
-        <v>1</v>
-      </c>
-      <c r="G47" s="13">
-        <v>999</v>
-      </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13" t="str">
+      <c r="D47" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="10">
+        <v>1</v>
+      </c>
+      <c r="G47" s="10">
+        <v>999</v>
+      </c>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650003</v>
       </c>
     </row>
     <row r="48" ht="17.25" spans="2:9">
-      <c r="B48" s="14">
+      <c r="B48" s="11">
         <v>650004</v>
       </c>
-      <c r="C48" s="13" t="str">
+      <c r="C48" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650004</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F48" s="13">
-        <v>1</v>
-      </c>
-      <c r="G48" s="13">
-        <v>999</v>
-      </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13" t="str">
+      <c r="D48" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="10">
+        <v>1</v>
+      </c>
+      <c r="G48" s="10">
+        <v>999</v>
+      </c>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650004</v>
       </c>
     </row>
     <row r="49" ht="17.25" spans="2:9">
-      <c r="B49" s="14">
+      <c r="B49" s="11">
         <v>650005</v>
       </c>
-      <c r="C49" s="13" t="str">
+      <c r="C49" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650005</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F49" s="13">
-        <v>1</v>
-      </c>
-      <c r="G49" s="13">
-        <v>999</v>
-      </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13" t="str">
+      <c r="D49" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="10">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10">
+        <v>999</v>
+      </c>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650005</v>
       </c>
     </row>
     <row r="50" ht="17.25" spans="2:9">
-      <c r="B50" s="14">
+      <c r="B50" s="11">
         <v>650006</v>
       </c>
-      <c r="C50" s="13" t="str">
+      <c r="C50" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650006</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F50" s="13">
-        <v>1</v>
-      </c>
-      <c r="G50" s="13">
-        <v>999</v>
-      </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13" t="str">
+      <c r="D50" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="10">
+        <v>1</v>
+      </c>
+      <c r="G50" s="10">
+        <v>999</v>
+      </c>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650006</v>
       </c>
     </row>
     <row r="51" ht="17.25" spans="2:9">
-      <c r="B51" s="14">
+      <c r="B51" s="11">
         <v>650007</v>
       </c>
-      <c r="C51" s="13" t="str">
+      <c r="C51" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650007</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" s="13">
-        <v>1</v>
-      </c>
-      <c r="G51" s="13">
-        <v>999</v>
-      </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13" t="str">
+      <c r="D51" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="10">
+        <v>1</v>
+      </c>
+      <c r="G51" s="10">
+        <v>999</v>
+      </c>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650007</v>
       </c>
     </row>
     <row r="52" ht="17.25" spans="2:9">
-      <c r="B52" s="14">
+      <c r="B52" s="11">
         <v>650008</v>
       </c>
-      <c r="C52" s="13" t="str">
+      <c r="C52" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650008</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52" s="13">
-        <v>1</v>
-      </c>
-      <c r="G52" s="13">
-        <v>999</v>
-      </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13" t="str">
+      <c r="D52" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" s="10">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10">
+        <v>999</v>
+      </c>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650008</v>
       </c>
     </row>
     <row r="53" ht="17.25" spans="2:9">
-      <c r="B53" s="14">
+      <c r="B53" s="11">
         <v>650009</v>
       </c>
-      <c r="C53" s="13" t="str">
+      <c r="C53" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650009</v>
       </c>
-      <c r="D53" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F53" s="13">
-        <v>1</v>
-      </c>
-      <c r="G53" s="13">
-        <v>999</v>
-      </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13" t="str">
+      <c r="D53" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" s="10">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10">
+        <v>999</v>
+      </c>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650009</v>
       </c>
     </row>
     <row r="54" ht="17.25" spans="2:9">
-      <c r="B54" s="14">
+      <c r="B54" s="11">
         <v>650010</v>
       </c>
-      <c r="C54" s="13" t="str">
+      <c r="C54" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650010</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F54" s="13">
-        <v>1</v>
-      </c>
-      <c r="G54" s="13">
-        <v>999</v>
-      </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13" t="str">
+      <c r="D54" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="10">
+        <v>1</v>
+      </c>
+      <c r="G54" s="10">
+        <v>999</v>
+      </c>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650010</v>
       </c>
     </row>
     <row r="55" ht="17.25" spans="2:9">
-      <c r="B55" s="14">
+      <c r="B55" s="11">
         <v>660001</v>
       </c>
-      <c r="C55" s="13" t="str">
+      <c r="C55" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660001</v>
       </c>
-      <c r="D55" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F55" s="13">
-        <v>1</v>
-      </c>
-      <c r="G55" s="13">
-        <v>999</v>
-      </c>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13" t="str">
+      <c r="D55" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" s="10">
+        <v>1</v>
+      </c>
+      <c r="G55" s="10">
+        <v>999</v>
+      </c>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660001</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="2:9">
-      <c r="B56" s="14">
+      <c r="B56" s="11">
         <v>660002</v>
       </c>
-      <c r="C56" s="13" t="str">
+      <c r="C56" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660002</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F56" s="13">
-        <v>1</v>
-      </c>
-      <c r="G56" s="13">
-        <v>999</v>
-      </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13" t="str">
+      <c r="D56" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="10">
+        <v>1</v>
+      </c>
+      <c r="G56" s="10">
+        <v>999</v>
+      </c>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660002</v>
       </c>
     </row>
     <row r="57" ht="17.25" spans="2:9">
-      <c r="B57" s="14">
+      <c r="B57" s="11">
         <v>660003</v>
       </c>
-      <c r="C57" s="13" t="str">
+      <c r="C57" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660003</v>
       </c>
-      <c r="D57" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F57" s="13">
-        <v>1</v>
-      </c>
-      <c r="G57" s="13">
-        <v>999</v>
-      </c>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13" t="str">
+      <c r="D57" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="10">
+        <v>1</v>
+      </c>
+      <c r="G57" s="10">
+        <v>999</v>
+      </c>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660003</v>
       </c>
     </row>
     <row r="58" ht="17.25" spans="2:9">
-      <c r="B58" s="14">
+      <c r="B58" s="11">
         <v>660004</v>
       </c>
-      <c r="C58" s="13" t="str">
+      <c r="C58" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660004</v>
       </c>
-      <c r="D58" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F58" s="13">
-        <v>1</v>
-      </c>
-      <c r="G58" s="13">
-        <v>999</v>
-      </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13" t="str">
+      <c r="D58" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" s="10">
+        <v>1</v>
+      </c>
+      <c r="G58" s="10">
+        <v>999</v>
+      </c>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660004</v>
       </c>
     </row>
     <row r="59" ht="17.25" spans="2:9">
-      <c r="B59" s="14">
+      <c r="B59" s="11">
         <v>660005</v>
       </c>
-      <c r="C59" s="13" t="str">
+      <c r="C59" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660005</v>
       </c>
-      <c r="D59" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F59" s="13">
-        <v>1</v>
-      </c>
-      <c r="G59" s="13">
-        <v>999</v>
-      </c>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13" t="str">
+      <c r="D59" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" s="10">
+        <v>1</v>
+      </c>
+      <c r="G59" s="10">
+        <v>999</v>
+      </c>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660005</v>
       </c>
     </row>
     <row r="60" ht="17.25" spans="2:9">
-      <c r="B60" s="14">
+      <c r="B60" s="11">
         <v>660006</v>
       </c>
-      <c r="C60" s="13" t="str">
+      <c r="C60" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660006</v>
       </c>
-      <c r="D60" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F60" s="13">
-        <v>1</v>
-      </c>
-      <c r="G60" s="13">
-        <v>999</v>
-      </c>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13" t="str">
+      <c r="D60" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F60" s="10">
+        <v>1</v>
+      </c>
+      <c r="G60" s="10">
+        <v>999</v>
+      </c>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660006</v>
       </c>
     </row>
     <row r="61" ht="17.25" spans="2:9">
-      <c r="B61" s="14">
+      <c r="B61" s="11">
         <v>660007</v>
       </c>
-      <c r="C61" s="13" t="str">
+      <c r="C61" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660007</v>
       </c>
-      <c r="D61" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F61" s="13">
-        <v>1</v>
-      </c>
-      <c r="G61" s="13">
-        <v>999</v>
-      </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13" t="str">
+      <c r="D61" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="10">
+        <v>1</v>
+      </c>
+      <c r="G61" s="10">
+        <v>999</v>
+      </c>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660007</v>
       </c>
     </row>
     <row r="62" ht="17.25" spans="2:9">
-      <c r="B62" s="14">
+      <c r="B62" s="11">
         <v>660008</v>
       </c>
-      <c r="C62" s="13" t="str">
+      <c r="C62" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660008</v>
       </c>
-      <c r="D62" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F62" s="13">
-        <v>1</v>
-      </c>
-      <c r="G62" s="13">
-        <v>999</v>
-      </c>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13" t="str">
+      <c r="D62" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" s="10">
+        <v>1</v>
+      </c>
+      <c r="G62" s="10">
+        <v>999</v>
+      </c>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660008</v>
       </c>
     </row>
     <row r="63" ht="17.25" spans="2:9">
-      <c r="B63" s="14">
+      <c r="B63" s="11">
         <v>660009</v>
       </c>
-      <c r="C63" s="13" t="str">
+      <c r="C63" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660009</v>
       </c>
-      <c r="D63" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F63" s="13">
-        <v>1</v>
-      </c>
-      <c r="G63" s="13">
-        <v>999</v>
-      </c>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13" t="str">
+      <c r="D63" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="10">
+        <v>1</v>
+      </c>
+      <c r="G63" s="10">
+        <v>999</v>
+      </c>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660009</v>
       </c>
     </row>
     <row r="64" ht="17.25" spans="2:9">
-      <c r="B64" s="14">
+      <c r="B64" s="11">
         <v>660010</v>
       </c>
-      <c r="C64" s="13" t="str">
+      <c r="C64" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660010</v>
       </c>
-      <c r="D64" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F64" s="13">
-        <v>1</v>
-      </c>
-      <c r="G64" s="13">
-        <v>999</v>
-      </c>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13" t="str">
+      <c r="D64" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64" s="10">
+        <v>1</v>
+      </c>
+      <c r="G64" s="10">
+        <v>999</v>
+      </c>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660010</v>
       </c>
     </row>
     <row r="65" ht="16.5" spans="2:9">
-      <c r="B65" s="13">
+      <c r="B65" s="10">
         <v>670001</v>
       </c>
-      <c r="C65" s="13" t="str">
+      <c r="C65" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_670001</v>
       </c>
-      <c r="D65" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F65" s="13">
-        <v>1</v>
-      </c>
-      <c r="G65" s="13">
-        <v>999</v>
-      </c>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13" t="str">
+      <c r="D65" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="10">
+        <v>1</v>
+      </c>
+      <c r="G65" s="10">
+        <v>999</v>
+      </c>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_670001</v>
       </c>
     </row>
     <row r="66" ht="16.5" spans="2:9">
-      <c r="B66" s="13">
+      <c r="B66" s="10">
         <v>670002</v>
       </c>
-      <c r="C66" s="13" t="str">
+      <c r="C66" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_670002</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F66" s="13">
-        <v>1</v>
-      </c>
-      <c r="G66" s="13">
-        <v>999</v>
-      </c>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13" t="str">
+      <c r="D66" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F66" s="10">
+        <v>1</v>
+      </c>
+      <c r="G66" s="10">
+        <v>999</v>
+      </c>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_670002</v>
       </c>
     </row>
     <row r="67" ht="16.5" spans="2:9">
-      <c r="B67" s="13">
+      <c r="B67" s="10">
         <v>670003</v>
       </c>
-      <c r="C67" s="13" t="str">
+      <c r="C67" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_670003</v>
       </c>
-      <c r="D67" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F67" s="13">
-        <v>1</v>
-      </c>
-      <c r="G67" s="13">
-        <v>999</v>
-      </c>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13" t="str">
+      <c r="D67" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="10">
+        <v>1</v>
+      </c>
+      <c r="G67" s="10">
+        <v>999</v>
+      </c>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_670003</v>
       </c>
     </row>
     <row r="68" ht="16.5" spans="2:9">
-      <c r="B68" s="13">
+      <c r="B68" s="10">
         <v>670004</v>
       </c>
-      <c r="C68" s="13" t="str">
+      <c r="C68" s="10" t="str">
         <f t="shared" si="0"/>
         <v>itemname_670004</v>
       </c>
-      <c r="D68" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F68" s="13">
-        <v>1</v>
-      </c>
-      <c r="G68" s="13">
-        <v>999</v>
-      </c>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13" t="str">
+      <c r="D68" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" s="10">
+        <v>1</v>
+      </c>
+      <c r="G68" s="10">
+        <v>999</v>
+      </c>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_670004</v>
       </c>
     </row>
     <row r="69" ht="16.5" spans="2:9">
-      <c r="B69" s="13">
+      <c r="B69" s="10">
         <v>670005</v>
       </c>
-      <c r="C69" s="13" t="str">
+      <c r="C69" s="10" t="str">
         <f t="shared" ref="C69:C74" si="2">_xlfn.CONCAT("itemname_",B69)</f>
         <v>itemname_670005</v>
       </c>
-      <c r="D69" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F69" s="13">
-        <v>1</v>
-      </c>
-      <c r="G69" s="13">
-        <v>999</v>
-      </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13" t="str">
+      <c r="D69" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F69" s="10">
+        <v>1</v>
+      </c>
+      <c r="G69" s="10">
+        <v>999</v>
+      </c>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10" t="str">
         <f t="shared" ref="I69:I74" si="3">_xlfn.CONCAT("itemicon_",B69)</f>
         <v>itemicon_670005</v>
       </c>
     </row>
     <row r="70" ht="16.5" spans="2:9">
-      <c r="B70" s="13">
+      <c r="B70" s="10">
         <v>670006</v>
       </c>
-      <c r="C70" s="13" t="str">
+      <c r="C70" s="10" t="str">
         <f t="shared" si="2"/>
         <v>itemname_670006</v>
       </c>
-      <c r="D70" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F70" s="13">
-        <v>1</v>
-      </c>
-      <c r="G70" s="13">
-        <v>999</v>
-      </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13" t="str">
+      <c r="D70" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70" s="10">
+        <v>1</v>
+      </c>
+      <c r="G70" s="10">
+        <v>999</v>
+      </c>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670006</v>
       </c>
     </row>
     <row r="71" ht="16.5" spans="2:9">
-      <c r="B71" s="13">
+      <c r="B71" s="10">
         <v>670007</v>
       </c>
-      <c r="C71" s="13" t="str">
+      <c r="C71" s="10" t="str">
         <f t="shared" si="2"/>
         <v>itemname_670007</v>
       </c>
-      <c r="D71" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F71" s="13">
-        <v>1</v>
-      </c>
-      <c r="G71" s="13">
-        <v>999</v>
-      </c>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13" t="str">
+      <c r="D71" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F71" s="10">
+        <v>1</v>
+      </c>
+      <c r="G71" s="10">
+        <v>999</v>
+      </c>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670007</v>
       </c>
     </row>
     <row r="72" ht="16.5" spans="2:9">
-      <c r="B72" s="13">
+      <c r="B72" s="10">
         <v>670008</v>
       </c>
-      <c r="C72" s="13" t="str">
+      <c r="C72" s="10" t="str">
         <f t="shared" si="2"/>
         <v>itemname_670008</v>
       </c>
-      <c r="D72" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F72" s="13">
-        <v>1</v>
-      </c>
-      <c r="G72" s="13">
-        <v>999</v>
-      </c>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13" t="str">
+      <c r="D72" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F72" s="10">
+        <v>1</v>
+      </c>
+      <c r="G72" s="10">
+        <v>999</v>
+      </c>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670008</v>
       </c>
     </row>
     <row r="73" ht="16.5" spans="2:9">
-      <c r="B73" s="13">
+      <c r="B73" s="10">
         <v>670009</v>
       </c>
-      <c r="C73" s="13" t="str">
+      <c r="C73" s="10" t="str">
         <f t="shared" si="2"/>
         <v>itemname_670009</v>
       </c>
-      <c r="D73" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F73" s="13">
-        <v>1</v>
-      </c>
-      <c r="G73" s="13">
-        <v>999</v>
-      </c>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13" t="str">
+      <c r="D73" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F73" s="10">
+        <v>1</v>
+      </c>
+      <c r="G73" s="10">
+        <v>999</v>
+      </c>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670009</v>
       </c>
     </row>
     <row r="74" ht="16.5" spans="2:9">
-      <c r="B74" s="13">
+      <c r="B74" s="10">
         <v>670010</v>
       </c>
-      <c r="C74" s="13" t="str">
+      <c r="C74" s="10" t="str">
         <f t="shared" si="2"/>
         <v>itemname_670010</v>
       </c>
-      <c r="D74" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F74" s="13">
-        <v>1</v>
-      </c>
-      <c r="G74" s="13">
-        <v>999</v>
-      </c>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13" t="str">
+      <c r="D74" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F74" s="10">
+        <v>1</v>
+      </c>
+      <c r="G74" s="10">
+        <v>999</v>
+      </c>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670010</v>
       </c>
@@ -5352,364 +6158,364 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="16.25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="11" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="11" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="16.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" s="9" customFormat="1" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" s="6" customFormat="1" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" s="10" customFormat="1" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:10">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" s="8" customFormat="1" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>920001</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11">
-        <v>1</v>
-      </c>
-      <c r="I5" s="11" t="str">
+      <c r="E5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8" t="str">
         <f>_xlfn.CONCAT("itemicon_",B5)</f>
         <v>itemicon_920001</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>920002</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11" t="str">
+      <c r="E6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8" t="str">
         <f t="shared" ref="I6:I14" si="0">_xlfn.CONCAT("itemicon_",B6)</f>
         <v>itemicon_920002</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>920003</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11">
-        <v>1</v>
-      </c>
-      <c r="I7" s="11" t="str">
+      <c r="E7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920003</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>920004</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11" t="str">
+      <c r="E8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920004</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>920005</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="I9" s="11" t="str">
+      <c r="E9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920005</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>920006</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
-      <c r="I10" s="11" t="str">
+      <c r="E10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920006</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>920007</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11" t="str">
+      <c r="E11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920007</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>920008</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1</v>
-      </c>
-      <c r="I12" s="11" t="str">
+      <c r="E12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920008</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <v>920009</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="11">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1</v>
-      </c>
-      <c r="I13" s="11" t="str">
+      <c r="E13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920009</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>920010</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="11">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11">
-        <v>1</v>
-      </c>
-      <c r="I14" s="11" t="str">
+      <c r="E14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920010</v>
       </c>
@@ -5723,7 +6529,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
@@ -5743,115 +6549,106 @@
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:10">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:10">
-      <c r="A3" s="7" t="s">
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="4">
@@ -5915,7 +6712,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -5940,7 +6737,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -5965,7 +6762,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -5990,7 +6787,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -6015,7 +6812,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -6040,7 +6837,7 @@
         <v>29</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -6065,7 +6862,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -6090,7 +6887,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="10455" tabRatio="809" activeTab="1"/>
+    <workbookView windowWidth="25350" windowHeight="10455" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="普通道具" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -57,9 +57,6 @@
     <t>MaxCount</t>
   </si>
   <si>
-    <t>EquipmentType</t>
-  </si>
-  <si>
     <t>Icon</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>long</t>
   </si>
   <si>
-    <t>EquipmentType?</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>最大堆叠数</t>
   </si>
   <si>
-    <t>装备位置</t>
-  </si>
-  <si>
     <t>道具图标</t>
   </si>
   <si>
@@ -217,33 +208,6 @@
   </si>
   <si>
     <t>装备</t>
-  </si>
-  <si>
-    <t>头</t>
-  </si>
-  <si>
-    <t>项链</t>
-  </si>
-  <si>
-    <t>肩膀</t>
-  </si>
-  <si>
-    <t>胸</t>
-  </si>
-  <si>
-    <t>腰带</t>
-  </si>
-  <si>
-    <t>裤子</t>
-  </si>
-  <si>
-    <t>鞋子</t>
-  </si>
-  <si>
-    <t>戒指</t>
-  </si>
-  <si>
-    <t>饰品</t>
   </si>
   <si>
     <t>绿</t>
@@ -926,7 +890,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -956,9 +920,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
   </cellXfs>
@@ -1287,10 +1248,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1302,14 +1263,13 @@
     <col min="5" max="5" width="22.875" style="10" customWidth="1"/>
     <col min="6" max="6" width="16.875" style="10" customWidth="1"/>
     <col min="7" max="7" width="14.375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="10" customWidth="1"/>
-    <col min="10" max="10" width="9" style="10"/>
-    <col min="11" max="16383" width="9" style="13"/>
-    <col min="16384" max="16384" width="9" style="8"/>
+    <col min="8" max="8" width="18.5" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9" style="10"/>
+    <col min="10" max="16382" width="9" style="12"/>
+    <col min="16383" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:10">
+    <row r="1" s="5" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,92 +1294,82 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" s="6" customFormat="1" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" s="6" customFormat="1" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" s="5" customFormat="1" spans="1:10">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="10">
         <v>60001</v>
       </c>
@@ -1428,10 +1378,10 @@
         <v>itemname_60001</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F5" s="10">
         <v>1</v>
@@ -1439,11 +1389,11 @@
       <c r="G5" s="10">
         <v>999</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
+      <c r="H5" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="10">
         <v>60002</v>
       </c>
@@ -1452,22 +1402,22 @@
         <v>itemname_60002</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>999</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10">
-        <v>999</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="10">
         <v>60003</v>
       </c>
@@ -1476,22 +1426,22 @@
         <v>itemname_60003</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>999</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>999</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="10">
         <v>60004</v>
       </c>
@@ -1500,10 +1450,10 @@
         <v>itemname_60004</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
@@ -1511,11 +1461,11 @@
       <c r="G8" s="10">
         <v>999</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
+      <c r="H8" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="10">
         <v>60005</v>
       </c>
@@ -1524,10 +1474,10 @@
         <v>itemname_60005</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F9" s="10">
         <v>1</v>
@@ -1535,11 +1485,11 @@
       <c r="G9" s="10">
         <v>999</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
+      <c r="H9" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="10">
         <v>60006</v>
       </c>
@@ -1548,10 +1498,10 @@
         <v>itemname_60006</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F10" s="10">
         <v>1</v>
@@ -1559,11 +1509,11 @@
       <c r="G10" s="10">
         <v>999</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
+      <c r="H10" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="10">
         <v>60007</v>
       </c>
@@ -1572,10 +1522,10 @@
         <v>itemname_60007</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F11" s="10">
         <v>1</v>
@@ -1583,11 +1533,11 @@
       <c r="G11" s="10">
         <v>999</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
+      <c r="H11" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="10">
         <v>60008</v>
       </c>
@@ -1596,10 +1546,10 @@
         <v>itemname_60008</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F12" s="10">
         <v>1</v>
@@ -1607,11 +1557,11 @@
       <c r="G12" s="10">
         <v>999</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
+      <c r="H12" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="10">
         <v>60009</v>
       </c>
@@ -1620,10 +1570,10 @@
         <v>itemname_60009</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F13" s="10">
         <v>1</v>
@@ -1631,11 +1581,11 @@
       <c r="G13" s="10">
         <v>999</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
+      <c r="H13" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="4">
         <v>710001</v>
       </c>
@@ -1644,10 +1594,10 @@
         <v>itemname_710001</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F14" s="10">
         <v>1</v>
@@ -1655,12 +1605,11 @@
       <c r="G14" s="10">
         <v>9999</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="H14" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="4">
         <v>710002</v>
       </c>
@@ -1669,10 +1618,10 @@
         <v>itemname_710002</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
@@ -1680,12 +1629,11 @@
       <c r="G15" s="10">
         <v>9999</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
+      <c r="H15" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="4">
         <v>710003</v>
       </c>
@@ -1694,10 +1642,10 @@
         <v>itemname_710003</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F16" s="10">
         <v>1</v>
@@ -1705,12 +1653,11 @@
       <c r="G16" s="10">
         <v>9999</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
+      <c r="H16" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="4">
         <v>710004</v>
       </c>
@@ -1719,10 +1666,10 @@
         <v>itemname_710004</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F17" s="10">
         <v>1</v>
@@ -1730,12 +1677,11 @@
       <c r="G17" s="10">
         <v>9999</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="H17" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="4">
         <v>710005</v>
       </c>
@@ -1744,10 +1690,10 @@
         <v>itemname_710005</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F18" s="10">
         <v>1</v>
@@ -1755,12 +1701,11 @@
       <c r="G18" s="10">
         <v>9999</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
+      <c r="H18" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="4">
         <v>710006</v>
       </c>
@@ -1769,10 +1714,10 @@
         <v>itemname_710006</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F19" s="10">
         <v>1</v>
@@ -1780,12 +1725,11 @@
       <c r="G19" s="10">
         <v>9999</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
+      <c r="H19" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="4">
         <v>710007</v>
       </c>
@@ -1794,10 +1738,10 @@
         <v>itemname_710007</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F20" s="10">
         <v>1</v>
@@ -1805,12 +1749,11 @@
       <c r="G20" s="10">
         <v>9999</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
+      <c r="H20" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="4">
         <v>710008</v>
       </c>
@@ -1819,10 +1762,10 @@
         <v>itemname_710008</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F21" s="10">
         <v>1</v>
@@ -1830,12 +1773,11 @@
       <c r="G21" s="10">
         <v>9999</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
+      <c r="H21" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="4">
         <v>710009</v>
       </c>
@@ -1844,10 +1786,10 @@
         <v>itemname_710009</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F22" s="10">
         <v>1</v>
@@ -1855,12 +1797,11 @@
       <c r="G22" s="10">
         <v>9999</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
+      <c r="H22" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23" s="4">
         <v>710010</v>
       </c>
@@ -1869,10 +1810,10 @@
         <v>itemname_710010</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F23" s="10">
         <v>1</v>
@@ -1880,12 +1821,11 @@
       <c r="G23" s="10">
         <v>9999</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
+      <c r="H23" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24" s="4">
         <v>710011</v>
       </c>
@@ -1894,10 +1834,10 @@
         <v>itemname_710011</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F24" s="10">
         <v>1</v>
@@ -1905,12 +1845,11 @@
       <c r="G24" s="10">
         <v>9999</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
+      <c r="H24" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25" s="4">
         <v>710012</v>
       </c>
@@ -1919,10 +1858,10 @@
         <v>itemname_710012</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F25" s="10">
         <v>1</v>
@@ -1930,12 +1869,11 @@
       <c r="G25" s="10">
         <v>9999</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
+      <c r="H25" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26" s="4">
         <v>710013</v>
       </c>
@@ -1944,10 +1882,10 @@
         <v>itemname_710013</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F26" s="10">
         <v>1</v>
@@ -1955,12 +1893,11 @@
       <c r="G26" s="10">
         <v>9999</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
+      <c r="H26" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
       <c r="B27" s="4">
         <v>710014</v>
       </c>
@@ -1969,10 +1906,10 @@
         <v>itemname_710014</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F27" s="10">
         <v>1</v>
@@ -1980,12 +1917,11 @@
       <c r="G27" s="10">
         <v>9999</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
+      <c r="H27" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28" s="4">
         <v>710015</v>
       </c>
@@ -1994,10 +1930,10 @@
         <v>itemname_710015</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F28" s="10">
         <v>1</v>
@@ -2005,12 +1941,11 @@
       <c r="G28" s="10">
         <v>9999</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
+      <c r="H28" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29" s="4">
         <v>710016</v>
       </c>
@@ -2019,10 +1954,10 @@
         <v>itemname_710016</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F29" s="10">
         <v>1</v>
@@ -2030,12 +1965,11 @@
       <c r="G29" s="10">
         <v>9999</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
+      <c r="H29" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
       <c r="B30" s="4">
         <v>710017</v>
       </c>
@@ -2044,10 +1978,10 @@
         <v>itemname_710017</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F30" s="10">
         <v>1</v>
@@ -2055,12 +1989,11 @@
       <c r="G30" s="10">
         <v>9999</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
+      <c r="H30" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
       <c r="B31" s="4">
         <v>710018</v>
       </c>
@@ -2069,10 +2002,10 @@
         <v>itemname_710018</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F31" s="10">
         <v>1</v>
@@ -2080,12 +2013,11 @@
       <c r="G31" s="10">
         <v>9999</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
+      <c r="H31" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
       <c r="B32" s="4">
         <v>710019</v>
       </c>
@@ -2094,10 +2026,10 @@
         <v>itemname_710019</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F32" s="10">
         <v>1</v>
@@ -2105,12 +2037,11 @@
       <c r="G32" s="10">
         <v>9999</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
+      <c r="H32" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
       <c r="B33" s="4">
         <v>710020</v>
       </c>
@@ -2119,10 +2050,10 @@
         <v>itemname_710020</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F33" s="10">
         <v>1</v>
@@ -2130,12 +2061,11 @@
       <c r="G33" s="10">
         <v>9999</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+      <c r="H33" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34" s="4"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2143,9 +2073,8 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="2:9">
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35" s="4"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -2153,9 +2082,8 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" spans="2:9">
+    </row>
+    <row r="36" spans="2:8">
       <c r="B36" s="4"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -2163,9 +2091,8 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="2:9">
+    </row>
+    <row r="37" spans="2:8">
       <c r="B37" s="4"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -2173,9 +2100,8 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="2:9">
+    </row>
+    <row r="38" spans="2:8">
       <c r="B38" s="4"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2183,9 +2109,8 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="2:9">
+    </row>
+    <row r="39" spans="2:8">
       <c r="B39" s="4"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -2193,9 +2118,8 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-    </row>
-    <row r="40" spans="2:9">
+    </row>
+    <row r="40" spans="2:8">
       <c r="B40" s="4"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2203,9 +2127,8 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="2:9">
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41" s="4"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -2213,9 +2136,8 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-    </row>
-    <row r="42" spans="2:9">
+    </row>
+    <row r="42" spans="2:8">
       <c r="B42" s="4"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -2223,9 +2145,8 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="2:9">
+    </row>
+    <row r="43" spans="2:8">
       <c r="B43" s="4"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -2233,9 +2154,8 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-    </row>
-    <row r="44" spans="2:9">
+    </row>
+    <row r="44" spans="2:8">
       <c r="B44" s="4"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -2243,9 +2163,8 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-    </row>
-    <row r="45" spans="2:9">
+    </row>
+    <row r="45" spans="2:8">
       <c r="B45" s="4"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -2253,9 +2172,8 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="2:9">
+    </row>
+    <row r="46" spans="2:8">
       <c r="B46" s="4"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -2263,9 +2181,8 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-    </row>
-    <row r="47" spans="2:9">
+    </row>
+    <row r="47" spans="2:8">
       <c r="B47" s="4"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -2273,9 +2190,8 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="2:9">
+    </row>
+    <row r="48" spans="2:8">
       <c r="B48" s="4"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -2283,9 +2199,8 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-    </row>
-    <row r="49" spans="2:9">
+    </row>
+    <row r="49" spans="2:8">
       <c r="B49" s="4"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -2293,9 +2208,8 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="2:9">
+    </row>
+    <row r="50" spans="2:8">
       <c r="B50" s="4"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -2303,9 +2217,8 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-    </row>
-    <row r="51" spans="2:9">
+    </row>
+    <row r="51" spans="2:8">
       <c r="B51" s="4"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -2313,9 +2226,8 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-    </row>
-    <row r="52" spans="2:9">
+    </row>
+    <row r="52" spans="2:8">
       <c r="B52" s="4"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -2323,9 +2235,8 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-    </row>
-    <row r="53" spans="2:9">
+    </row>
+    <row r="53" spans="2:8">
       <c r="B53" s="4"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -2333,9 +2244,8 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-    </row>
-    <row r="54" spans="2:9">
+    </row>
+    <row r="54" spans="2:8">
       <c r="B54" s="4"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -2343,9 +2253,8 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="2:9">
+    </row>
+    <row r="55" spans="2:8">
       <c r="B55" s="4"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -2353,9 +2262,8 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="2:9">
+    </row>
+    <row r="56" spans="2:8">
       <c r="B56" s="4"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -2363,9 +2271,8 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-    </row>
-    <row r="57" spans="2:9">
+    </row>
+    <row r="57" spans="2:8">
       <c r="B57" s="4"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -2373,9 +2280,8 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-    </row>
-    <row r="58" spans="2:9">
+    </row>
+    <row r="58" spans="2:8">
       <c r="B58" s="4"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -2383,9 +2289,8 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-    </row>
-    <row r="59" spans="2:9">
+    </row>
+    <row r="59" spans="2:8">
       <c r="B59" s="4"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -2393,9 +2298,8 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-    </row>
-    <row r="60" spans="2:9">
+    </row>
+    <row r="60" spans="2:8">
       <c r="B60" s="4"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -2403,9 +2307,8 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-    </row>
-    <row r="61" spans="2:9">
+    </row>
+    <row r="61" spans="2:8">
       <c r="B61" s="4"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -2413,9 +2316,8 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-    </row>
-    <row r="62" spans="2:9">
+    </row>
+    <row r="62" spans="2:8">
       <c r="B62" s="4"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -2423,9 +2325,8 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-    </row>
-    <row r="63" spans="2:9">
+    </row>
+    <row r="63" spans="2:8">
       <c r="B63" s="4"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -2433,9 +2334,8 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-    </row>
-    <row r="64" spans="2:9">
+    </row>
+    <row r="64" spans="2:8">
       <c r="B64" s="4"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -2443,9 +2343,8 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-    </row>
-    <row r="65" spans="2:9">
+    </row>
+    <row r="65" spans="2:8">
       <c r="B65" s="4"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2453,9 +2352,8 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-    </row>
-    <row r="66" spans="2:9">
+    </row>
+    <row r="66" spans="2:8">
       <c r="B66" s="4"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -2463,9 +2361,8 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-    </row>
-    <row r="67" spans="2:9">
+    </row>
+    <row r="67" spans="2:8">
       <c r="B67" s="4"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -2473,9 +2370,8 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-    </row>
-    <row r="68" spans="2:9">
+    </row>
+    <row r="68" spans="2:8">
       <c r="B68" s="4"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -2483,9 +2379,8 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-    </row>
-    <row r="69" spans="2:9">
+    </row>
+    <row r="69" spans="2:8">
       <c r="B69" s="4"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -2493,9 +2388,8 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-    </row>
-    <row r="70" spans="2:9">
+    </row>
+    <row r="70" spans="2:8">
       <c r="B70" s="4"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -2503,9 +2397,8 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-    </row>
-    <row r="71" spans="2:9">
+    </row>
+    <row r="71" spans="2:8">
       <c r="B71" s="4"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -2513,9 +2406,8 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-    </row>
-    <row r="72" spans="2:9">
+    </row>
+    <row r="72" spans="2:8">
       <c r="B72" s="4"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -2523,9 +2415,8 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-    </row>
-    <row r="73" spans="2:9">
+    </row>
+    <row r="73" spans="2:8">
       <c r="B73" s="4"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -2533,9 +2424,8 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-    </row>
-    <row r="74" spans="2:9">
+    </row>
+    <row r="74" spans="2:8">
       <c r="B74" s="4"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -2543,9 +2433,8 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-    </row>
-    <row r="75" spans="2:9">
+    </row>
+    <row r="75" spans="2:8">
       <c r="B75" s="4"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -2553,9 +2442,8 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-    </row>
-    <row r="76" spans="2:9">
+    </row>
+    <row r="76" spans="2:8">
       <c r="B76" s="4"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -2563,9 +2451,8 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-    </row>
-    <row r="77" spans="2:9">
+    </row>
+    <row r="77" spans="2:8">
       <c r="B77" s="4"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -2573,9 +2460,8 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-    </row>
-    <row r="78" spans="2:9">
+    </row>
+    <row r="78" spans="2:8">
       <c r="B78" s="4"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -2583,9 +2469,8 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-    </row>
-    <row r="79" spans="2:9">
+    </row>
+    <row r="79" spans="2:8">
       <c r="B79" s="4"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -2593,9 +2478,8 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-    </row>
-    <row r="80" spans="2:9">
+    </row>
+    <row r="80" spans="2:8">
       <c r="B80" s="4"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -2603,9 +2487,8 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-    </row>
-    <row r="81" spans="2:9">
+    </row>
+    <row r="81" spans="2:8">
       <c r="B81" s="4"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -2613,9 +2496,8 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-    </row>
-    <row r="82" spans="2:9">
+    </row>
+    <row r="82" spans="2:8">
       <c r="B82" s="4"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -2623,9 +2505,8 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-    </row>
-    <row r="83" spans="2:9">
+    </row>
+    <row r="83" spans="2:8">
       <c r="B83" s="4"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -2633,9 +2514,8 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-    </row>
-    <row r="84" spans="2:9">
+    </row>
+    <row r="84" spans="2:8">
       <c r="B84" s="4"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -2643,9 +2523,8 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-    </row>
-    <row r="85" spans="2:9">
+    </row>
+    <row r="85" spans="2:8">
       <c r="B85" s="4"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -2653,9 +2532,8 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-    </row>
-    <row r="86" spans="2:9">
+    </row>
+    <row r="86" spans="2:8">
       <c r="B86" s="4"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -2663,9 +2541,8 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-    </row>
-    <row r="87" spans="2:9">
+    </row>
+    <row r="87" spans="2:8">
       <c r="B87" s="4"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -2673,9 +2550,8 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-    </row>
-    <row r="88" spans="2:9">
+    </row>
+    <row r="88" spans="2:8">
       <c r="B88" s="4"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -2683,9 +2559,8 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-    </row>
-    <row r="89" spans="2:9">
+    </row>
+    <row r="89" spans="2:8">
       <c r="B89" s="4"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -2693,9 +2568,8 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-    </row>
-    <row r="90" spans="2:9">
+    </row>
+    <row r="90" spans="2:8">
       <c r="B90" s="4"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -2703,9 +2577,8 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-    </row>
-    <row r="91" spans="2:9">
+    </row>
+    <row r="91" spans="2:8">
       <c r="B91" s="4"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -2713,9 +2586,8 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-    </row>
-    <row r="92" spans="2:9">
+    </row>
+    <row r="92" spans="2:8">
       <c r="B92" s="4"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -2723,9 +2595,8 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-    </row>
-    <row r="93" spans="2:9">
+    </row>
+    <row r="93" spans="2:8">
       <c r="B93" s="4"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -2733,9 +2604,8 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-    </row>
-    <row r="94" spans="2:9">
+    </row>
+    <row r="94" spans="2:8">
       <c r="B94" s="4"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -2743,9 +2613,8 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-    </row>
-    <row r="95" spans="2:9">
+    </row>
+    <row r="95" spans="2:8">
       <c r="B95" s="4"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -2753,9 +2622,8 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-    </row>
-    <row r="96" spans="2:9">
+    </row>
+    <row r="96" spans="2:8">
       <c r="B96" s="4"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -2763,9 +2631,8 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-    </row>
-    <row r="97" spans="2:9">
+    </row>
+    <row r="97" spans="2:8">
       <c r="B97" s="4"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -2773,9 +2640,8 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-    </row>
-    <row r="98" spans="2:9">
+    </row>
+    <row r="98" spans="2:8">
       <c r="B98" s="4"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -2783,7 +2649,6 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2794,27 +2659,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="7" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="22.875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="17.375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="7" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:10">
+    <row r="1" s="5" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2839,92 +2703,82 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" s="6" customFormat="1" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" s="6" customFormat="1" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" s="5" customFormat="1" spans="1:10">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="10">
         <v>60010</v>
       </c>
@@ -2933,10 +2787,10 @@
         <v>itemname_60010</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F5" s="10">
         <v>1</v>
@@ -2944,15 +2798,12 @@
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="10" t="str">
+      <c r="H5" s="10" t="str">
         <f>_xlfn.CONCAT("itemicon_",B5)</f>
         <v>itemicon_60010</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:8">
       <c r="B6" s="10">
         <v>60011</v>
       </c>
@@ -2961,10 +2812,10 @@
         <v>itemname_60011</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F6" s="10">
         <v>1</v>
@@ -2972,15 +2823,12 @@
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="10" t="str">
-        <f t="shared" ref="I6:I25" si="1">_xlfn.CONCAT("itemicon_",B6)</f>
+      <c r="H6" s="10" t="str">
+        <f t="shared" ref="H6:H31" si="1">_xlfn.CONCAT("itemicon_",B6)</f>
         <v>itemicon_60011</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:8">
       <c r="B7" s="10">
         <v>60012</v>
       </c>
@@ -2989,10 +2837,10 @@
         <v>itemname_60012</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F7" s="10">
         <v>1</v>
@@ -3000,15 +2848,12 @@
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="10" t="str">
+      <c r="H7" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60012</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:8">
       <c r="B8" s="10">
         <v>60013</v>
       </c>
@@ -3017,10 +2862,10 @@
         <v>itemname_60013</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
@@ -3028,15 +2873,12 @@
       <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="10" t="str">
+      <c r="H8" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60013</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:8">
       <c r="B9" s="10">
         <v>60014</v>
       </c>
@@ -3045,10 +2887,10 @@
         <v>itemname_60014</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F9" s="10">
         <v>1</v>
@@ -3056,15 +2898,12 @@
       <c r="G9" s="10">
         <v>1</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="10" t="str">
+      <c r="H9" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60014</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:8">
       <c r="B10" s="10">
         <v>60015</v>
       </c>
@@ -3073,10 +2912,10 @@
         <v>itemname_60015</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F10" s="10">
         <v>1</v>
@@ -3084,15 +2923,12 @@
       <c r="G10" s="10">
         <v>1</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="10" t="str">
+      <c r="H10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60015</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:8">
       <c r="B11" s="10">
         <v>60016</v>
       </c>
@@ -3101,10 +2937,10 @@
         <v>itemname_60016</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F11" s="10">
         <v>1</v>
@@ -3112,15 +2948,12 @@
       <c r="G11" s="10">
         <v>1</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="10" t="str">
+      <c r="H11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60016</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:8">
       <c r="B12" s="10">
         <v>60017</v>
       </c>
@@ -3129,10 +2962,10 @@
         <v>itemname_60017</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F12" s="10">
         <v>1</v>
@@ -3140,15 +2973,12 @@
       <c r="G12" s="10">
         <v>1</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="10" t="str">
+      <c r="H12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60017</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:8">
       <c r="B13" s="10">
         <v>60018</v>
       </c>
@@ -3157,10 +2987,10 @@
         <v>itemname_60018</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F13" s="10">
         <v>1</v>
@@ -3168,15 +2998,12 @@
       <c r="G13" s="10">
         <v>1</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="10" t="str">
+      <c r="H13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60018</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:8">
       <c r="B14" s="10">
         <v>60019</v>
       </c>
@@ -3185,10 +3012,10 @@
         <v>itemname_60019</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F14" s="10">
         <v>1</v>
@@ -3196,15 +3023,12 @@
       <c r="G14" s="10">
         <v>1</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="10" t="str">
+      <c r="H14" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60019</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:8">
       <c r="B15" s="10">
         <v>60020</v>
       </c>
@@ -3213,10 +3037,10 @@
         <v>itemname_60020</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
@@ -3224,15 +3048,12 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="10" t="str">
+      <c r="H15" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60020</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:8">
       <c r="B16" s="10">
         <v>60021</v>
       </c>
@@ -3241,10 +3062,10 @@
         <v>itemname_60021</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F16" s="10">
         <v>1</v>
@@ -3252,15 +3073,12 @@
       <c r="G16" s="10">
         <v>1</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="10" t="str">
+      <c r="H16" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60021</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:8">
       <c r="B17" s="10">
         <v>60022</v>
       </c>
@@ -3269,10 +3087,10 @@
         <v>itemname_60022</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F17" s="10">
         <v>1</v>
@@ -3280,15 +3098,12 @@
       <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="10" t="str">
+      <c r="H17" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60022</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:8">
       <c r="B18" s="10">
         <v>60023</v>
       </c>
@@ -3297,10 +3112,10 @@
         <v>itemname_60023</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F18" s="10">
         <v>1</v>
@@ -3308,15 +3123,12 @@
       <c r="G18" s="10">
         <v>1</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="10" t="str">
+      <c r="H18" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60023</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:8">
       <c r="B19" s="10">
         <v>60024</v>
       </c>
@@ -3325,10 +3137,10 @@
         <v>itemname_60024</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F19" s="10">
         <v>1</v>
@@ -3336,27 +3148,24 @@
       <c r="G19" s="10">
         <v>1</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="10" t="str">
+      <c r="H19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60024</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:8">
       <c r="B20" s="10">
         <v>60025</v>
       </c>
       <c r="C20" s="10" t="str">
-        <f t="shared" ref="C20:C25" si="2">_xlfn.CONCAT("itemname_",B20)</f>
+        <f t="shared" ref="C20:C31" si="2">_xlfn.CONCAT("itemname_",B20)</f>
         <v>itemname_60025</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F20" s="10">
         <v>1</v>
@@ -3364,15 +3173,12 @@
       <c r="G20" s="10">
         <v>1</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="10" t="str">
+      <c r="H20" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60025</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:8">
       <c r="B21" s="10">
         <v>60026</v>
       </c>
@@ -3381,10 +3187,10 @@
         <v>itemname_60026</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F21" s="10">
         <v>1</v>
@@ -3392,15 +3198,12 @@
       <c r="G21" s="10">
         <v>1</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="10" t="str">
+      <c r="H21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60026</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:8">
       <c r="B22" s="10">
         <v>60027</v>
       </c>
@@ -3409,10 +3212,10 @@
         <v>itemname_60027</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F22" s="10">
         <v>1</v>
@@ -3420,15 +3223,12 @@
       <c r="G22" s="10">
         <v>1</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I22" s="10" t="str">
+      <c r="H22" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60027</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:8">
       <c r="B23" s="10">
         <v>60028</v>
       </c>
@@ -3437,10 +3237,10 @@
         <v>itemname_60028</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F23" s="10">
         <v>1</v>
@@ -3448,15 +3248,12 @@
       <c r="G23" s="10">
         <v>1</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="10" t="str">
+      <c r="H23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60028</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:8">
       <c r="B24" s="10">
         <v>60029</v>
       </c>
@@ -3465,10 +3262,10 @@
         <v>itemname_60029</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F24" s="10">
         <v>1</v>
@@ -3476,15 +3273,12 @@
       <c r="G24" s="10">
         <v>1</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="10" t="str">
+      <c r="H24" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60029</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:8">
       <c r="B25" s="10">
         <v>60030</v>
       </c>
@@ -3493,10 +3287,10 @@
         <v>itemname_60030</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F25" s="10">
         <v>1</v>
@@ -3504,27 +3298,24 @@
       <c r="G25" s="10">
         <v>1</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="10" t="str">
+      <c r="H25" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60030</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:8">
       <c r="B26" s="10">
         <v>60031</v>
       </c>
       <c r="C26" s="10" t="str">
-        <f>_xlfn.CONCAT("itemname_",B26)</f>
+        <f t="shared" si="2"/>
         <v>itemname_60031</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F26" s="10">
         <v>1</v>
@@ -3532,27 +3323,24 @@
       <c r="G26" s="10">
         <v>1</v>
       </c>
-      <c r="H26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" s="10" t="str">
-        <f>_xlfn.CONCAT("itemicon_",B26)</f>
+      <c r="H26" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>itemicon_60031</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:8">
       <c r="B27" s="10">
         <v>60032</v>
       </c>
       <c r="C27" s="10" t="str">
-        <f>_xlfn.CONCAT("itemname_",B27)</f>
+        <f t="shared" si="2"/>
         <v>itemname_60032</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F27" s="10">
         <v>1</v>
@@ -3560,27 +3348,24 @@
       <c r="G27" s="10">
         <v>1</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="10" t="str">
-        <f>_xlfn.CONCAT("itemicon_",B27)</f>
+      <c r="H27" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>itemicon_60032</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:8">
       <c r="B28" s="10">
         <v>60033</v>
       </c>
       <c r="C28" s="10" t="str">
-        <f>_xlfn.CONCAT("itemname_",B28)</f>
+        <f t="shared" si="2"/>
         <v>itemname_60033</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F28" s="10">
         <v>1</v>
@@ -3588,27 +3373,24 @@
       <c r="G28" s="10">
         <v>1</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" s="10" t="str">
-        <f>_xlfn.CONCAT("itemicon_",B28)</f>
+      <c r="H28" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>itemicon_60033</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:8">
       <c r="B29" s="10">
         <v>60034</v>
       </c>
       <c r="C29" s="10" t="str">
-        <f>_xlfn.CONCAT("itemname_",B29)</f>
+        <f t="shared" si="2"/>
         <v>itemname_60034</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F29" s="10">
         <v>1</v>
@@ -3616,27 +3398,24 @@
       <c r="G29" s="10">
         <v>1</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="10" t="str">
-        <f>_xlfn.CONCAT("itemicon_",B29)</f>
+      <c r="H29" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>itemicon_60034</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:8">
       <c r="B30" s="10">
         <v>60035</v>
       </c>
       <c r="C30" s="10" t="str">
-        <f>_xlfn.CONCAT("itemname_",B30)</f>
+        <f t="shared" si="2"/>
         <v>itemname_60035</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F30" s="10">
         <v>1</v>
@@ -3644,27 +3423,24 @@
       <c r="G30" s="10">
         <v>1</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="10" t="str">
-        <f>_xlfn.CONCAT("itemicon_",B30)</f>
+      <c r="H30" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>itemicon_60035</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:8">
       <c r="B31" s="10">
         <v>60036</v>
       </c>
       <c r="C31" s="10" t="str">
-        <f>_xlfn.CONCAT("itemname_",B31)</f>
+        <f t="shared" si="2"/>
         <v>itemname_60036</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F31" s="10">
         <v>1</v>
@@ -3672,15 +3448,12 @@
       <c r="G31" s="10">
         <v>1</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I31" s="10" t="str">
-        <f>_xlfn.CONCAT("itemicon_",B31)</f>
+      <c r="H31" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>itemicon_60036</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:8">
       <c r="B32" s="10">
         <v>60037</v>
       </c>
@@ -3689,26 +3462,23 @@
         <v>itemname_60037</v>
       </c>
       <c r="D32" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="F32" s="10">
         <v>1</v>
       </c>
       <c r="G32" s="10">
         <v>1</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" s="10" t="str">
-        <f t="shared" ref="I32:I37" si="4">_xlfn.CONCAT("itemicon_",B32)</f>
+      <c r="H32" s="10" t="str">
+        <f t="shared" ref="H32:H37" si="4">_xlfn.CONCAT("itemicon_",B32)</f>
         <v>itemicon_60037</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:8">
       <c r="B33" s="10">
         <v>60038</v>
       </c>
@@ -3717,26 +3487,23 @@
         <v>itemname_60038</v>
       </c>
       <c r="D33" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="F33" s="10">
         <v>1</v>
       </c>
       <c r="G33" s="10">
         <v>1</v>
       </c>
-      <c r="H33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I33" s="10" t="str">
+      <c r="H33" s="10" t="str">
         <f t="shared" si="4"/>
         <v>itemicon_60038</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:8">
       <c r="B34" s="10">
         <v>60039</v>
       </c>
@@ -3745,26 +3512,23 @@
         <v>itemname_60039</v>
       </c>
       <c r="D34" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="F34" s="10">
         <v>1</v>
       </c>
       <c r="G34" s="10">
         <v>1</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I34" s="10" t="str">
+      <c r="H34" s="10" t="str">
         <f t="shared" si="4"/>
         <v>itemicon_60039</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:8">
       <c r="B35" s="10">
         <v>60040</v>
       </c>
@@ -3773,26 +3537,23 @@
         <v>itemname_60040</v>
       </c>
       <c r="D35" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="F35" s="10">
         <v>1</v>
       </c>
       <c r="G35" s="10">
         <v>1</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I35" s="10" t="str">
+      <c r="H35" s="10" t="str">
         <f t="shared" si="4"/>
         <v>itemicon_60040</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:8">
       <c r="B36" s="10">
         <v>60041</v>
       </c>
@@ -3801,26 +3562,23 @@
         <v>itemname_60041</v>
       </c>
       <c r="D36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="F36" s="10">
         <v>1</v>
       </c>
       <c r="G36" s="10">
         <v>1</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I36" s="10" t="str">
+      <c r="H36" s="10" t="str">
         <f t="shared" si="4"/>
         <v>itemicon_60041</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:8">
       <c r="B37" s="10">
         <v>60042</v>
       </c>
@@ -3829,26 +3587,23 @@
         <v>itemname_60042</v>
       </c>
       <c r="D37" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="F37" s="10">
         <v>1</v>
       </c>
       <c r="G37" s="10">
         <v>1</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I37" s="10" t="str">
+      <c r="H37" s="10" t="str">
         <f t="shared" si="4"/>
         <v>itemicon_60042</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:8">
       <c r="B38" s="10">
         <v>60043</v>
       </c>
@@ -3857,10 +3612,10 @@
         <v>itemname_60043</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>73</v>
+        <v>57</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="F38" s="10">
         <v>1</v>
@@ -3868,15 +3623,12 @@
       <c r="G38" s="10">
         <v>1</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I38" s="10" t="str">
-        <f t="shared" ref="I38:I49" si="6">_xlfn.CONCAT("itemicon_",B38)</f>
+      <c r="H38" s="10" t="str">
+        <f t="shared" ref="H38:H49" si="6">_xlfn.CONCAT("itemicon_",B38)</f>
         <v>itemicon_60043</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:8">
       <c r="B39" s="10">
         <v>60044</v>
       </c>
@@ -3885,10 +3637,10 @@
         <v>itemname_60044</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>73</v>
+        <v>57</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="F39" s="10">
         <v>1</v>
@@ -3896,15 +3648,12 @@
       <c r="G39" s="10">
         <v>1</v>
       </c>
-      <c r="H39" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I39" s="10" t="str">
+      <c r="H39" s="10" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60044</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:8">
       <c r="B40" s="10">
         <v>60045</v>
       </c>
@@ -3913,10 +3662,10 @@
         <v>itemname_60045</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>73</v>
+        <v>57</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="F40" s="10">
         <v>1</v>
@@ -3924,15 +3673,12 @@
       <c r="G40" s="10">
         <v>1</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I40" s="10" t="str">
+      <c r="H40" s="10" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60045</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:8">
       <c r="B41" s="10">
         <v>60046</v>
       </c>
@@ -3941,10 +3687,10 @@
         <v>itemname_60046</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>73</v>
+        <v>57</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="F41" s="10">
         <v>1</v>
@@ -3952,15 +3698,12 @@
       <c r="G41" s="10">
         <v>1</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I41" s="10" t="str">
+      <c r="H41" s="10" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60046</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:8">
       <c r="B42" s="10">
         <v>60047</v>
       </c>
@@ -3969,10 +3712,10 @@
         <v>itemname_60047</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>73</v>
+        <v>57</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="F42" s="10">
         <v>1</v>
@@ -3980,15 +3723,12 @@
       <c r="G42" s="10">
         <v>1</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I42" s="10" t="str">
+      <c r="H42" s="10" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60047</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:8">
       <c r="B43" s="10">
         <v>60048</v>
       </c>
@@ -3997,10 +3737,10 @@
         <v>itemname_60048</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>73</v>
+        <v>57</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="F43" s="10">
         <v>1</v>
@@ -4008,15 +3748,12 @@
       <c r="G43" s="10">
         <v>1</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I43" s="10" t="str">
+      <c r="H43" s="10" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60048</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:8">
       <c r="B44" s="10">
         <v>60049</v>
       </c>
@@ -4025,10 +3762,10 @@
         <v>itemname_60049</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="F44" s="10">
         <v>1</v>
@@ -4036,15 +3773,12 @@
       <c r="G44" s="10">
         <v>1</v>
       </c>
-      <c r="H44" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I44" s="10" t="str">
+      <c r="H44" s="10" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60049</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:8">
       <c r="B45" s="10">
         <v>60050</v>
       </c>
@@ -4053,10 +3787,10 @@
         <v>itemname_60050</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="F45" s="10">
         <v>1</v>
@@ -4064,15 +3798,12 @@
       <c r="G45" s="10">
         <v>1</v>
       </c>
-      <c r="H45" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I45" s="10" t="str">
+      <c r="H45" s="10" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60050</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:8">
       <c r="B46" s="10">
         <v>60051</v>
       </c>
@@ -4081,10 +3812,10 @@
         <v>itemname_60051</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="F46" s="10">
         <v>1</v>
@@ -4092,15 +3823,12 @@
       <c r="G46" s="10">
         <v>1</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I46" s="10" t="str">
+      <c r="H46" s="10" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60051</v>
       </c>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:8">
       <c r="B47" s="10">
         <v>60052</v>
       </c>
@@ -4109,10 +3837,10 @@
         <v>itemname_60052</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="F47" s="10">
         <v>1</v>
@@ -4120,15 +3848,12 @@
       <c r="G47" s="10">
         <v>1</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I47" s="10" t="str">
+      <c r="H47" s="10" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60052</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:8">
       <c r="B48" s="10">
         <v>60053</v>
       </c>
@@ -4137,10 +3862,10 @@
         <v>itemname_60053</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="F48" s="10">
         <v>1</v>
@@ -4148,15 +3873,12 @@
       <c r="G48" s="10">
         <v>1</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I48" s="10" t="str">
+      <c r="H48" s="10" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60053</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:8">
       <c r="B49" s="10">
         <v>60054</v>
       </c>
@@ -4165,10 +3887,10 @@
         <v>itemname_60054</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="F49" s="10">
         <v>1</v>
@@ -4176,10 +3898,7 @@
       <c r="G49" s="10">
         <v>1</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I49" s="10" t="str">
+      <c r="H49" s="10" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60054</v>
       </c>
@@ -4193,10 +3912,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4207,11 +3926,10 @@
     <col min="5" max="5" width="22.875" customWidth="1"/>
     <col min="6" max="6" width="17.125" customWidth="1"/>
     <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="17.375" customWidth="1"/>
-    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="1" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4236,92 +3954,82 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" s="6" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" s="6" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" s="7" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" s="7" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" s="5" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" ht="17.25" spans="2:9">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" ht="17.25" spans="2:8">
       <c r="B5" s="9">
         <v>610001</v>
       </c>
@@ -4330,10 +4038,10 @@
         <v>itemname_610001</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F5" s="10">
         <v>1</v>
@@ -4341,13 +4049,12 @@
       <c r="G5" s="10">
         <v>999</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="str">
-        <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("itemicon_",B5)</f>
+      <c r="H5" s="10" t="str">
+        <f t="shared" ref="H5:H68" si="1">_xlfn.CONCAT("itemicon_",B5)</f>
         <v>itemicon_610001</v>
       </c>
     </row>
-    <row r="6" ht="17.25" spans="2:9">
+    <row r="6" ht="17.25" spans="2:8">
       <c r="B6" s="9">
         <v>610002</v>
       </c>
@@ -4356,10 +4063,10 @@
         <v>itemname_610002</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F6" s="10">
         <v>1</v>
@@ -4367,13 +4074,12 @@
       <c r="G6" s="10">
         <v>999</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10" t="str">
+      <c r="H6" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610002</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="2:9">
+    <row r="7" ht="17.25" spans="2:8">
       <c r="B7" s="9">
         <v>610003</v>
       </c>
@@ -4382,10 +4088,10 @@
         <v>itemname_610003</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F7" s="10">
         <v>1</v>
@@ -4393,13 +4099,12 @@
       <c r="G7" s="10">
         <v>999</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="str">
+      <c r="H7" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610003</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="2:9">
+    <row r="8" ht="17.25" spans="2:8">
       <c r="B8" s="9">
         <v>610004</v>
       </c>
@@ -4408,10 +4113,10 @@
         <v>itemname_610004</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
@@ -4419,13 +4124,12 @@
       <c r="G8" s="10">
         <v>999</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10" t="str">
+      <c r="H8" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610004</v>
       </c>
     </row>
-    <row r="9" ht="17.25" spans="2:9">
+    <row r="9" ht="17.25" spans="2:8">
       <c r="B9" s="9">
         <v>610005</v>
       </c>
@@ -4434,10 +4138,10 @@
         <v>itemname_610005</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F9" s="10">
         <v>1</v>
@@ -4445,13 +4149,12 @@
       <c r="G9" s="10">
         <v>999</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10" t="str">
+      <c r="H9" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610005</v>
       </c>
     </row>
-    <row r="10" ht="17.25" spans="2:9">
+    <row r="10" ht="17.25" spans="2:8">
       <c r="B10" s="9">
         <v>610006</v>
       </c>
@@ -4460,10 +4163,10 @@
         <v>itemname_610006</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F10" s="10">
         <v>1</v>
@@ -4471,13 +4174,12 @@
       <c r="G10" s="10">
         <v>999</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10" t="str">
+      <c r="H10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610006</v>
       </c>
     </row>
-    <row r="11" ht="17.25" spans="2:9">
+    <row r="11" ht="17.25" spans="2:8">
       <c r="B11" s="9">
         <v>610007</v>
       </c>
@@ -4486,10 +4188,10 @@
         <v>itemname_610007</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F11" s="10">
         <v>1</v>
@@ -4497,13 +4199,12 @@
       <c r="G11" s="10">
         <v>999</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10" t="str">
+      <c r="H11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610007</v>
       </c>
     </row>
-    <row r="12" ht="17.25" spans="2:9">
+    <row r="12" ht="17.25" spans="2:8">
       <c r="B12" s="9">
         <v>610008</v>
       </c>
@@ -4512,10 +4213,10 @@
         <v>itemname_610008</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F12" s="10">
         <v>1</v>
@@ -4523,13 +4224,12 @@
       <c r="G12" s="10">
         <v>999</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10" t="str">
+      <c r="H12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610008</v>
       </c>
     </row>
-    <row r="13" ht="17.25" spans="2:9">
+    <row r="13" ht="17.25" spans="2:8">
       <c r="B13" s="9">
         <v>610009</v>
       </c>
@@ -4538,10 +4238,10 @@
         <v>itemname_610009</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F13" s="10">
         <v>1</v>
@@ -4549,13 +4249,12 @@
       <c r="G13" s="10">
         <v>999</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10" t="str">
+      <c r="H13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610009</v>
       </c>
     </row>
-    <row r="14" ht="17.25" spans="2:9">
+    <row r="14" ht="17.25" spans="2:8">
       <c r="B14" s="9">
         <v>610010</v>
       </c>
@@ -4564,10 +4263,10 @@
         <v>itemname_610010</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F14" s="10">
         <v>1</v>
@@ -4575,13 +4274,12 @@
       <c r="G14" s="10">
         <v>999</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10" t="str">
+      <c r="H14" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610010</v>
       </c>
     </row>
-    <row r="15" ht="17.25" spans="2:9">
+    <row r="15" ht="17.25" spans="2:8">
       <c r="B15" s="9">
         <v>620001</v>
       </c>
@@ -4590,10 +4288,10 @@
         <v>itemname_620001</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
@@ -4601,13 +4299,12 @@
       <c r="G15" s="10">
         <v>999</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10" t="str">
+      <c r="H15" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620001</v>
       </c>
     </row>
-    <row r="16" ht="17.25" spans="2:9">
+    <row r="16" ht="17.25" spans="2:8">
       <c r="B16" s="9">
         <v>620002</v>
       </c>
@@ -4616,10 +4313,10 @@
         <v>itemname_620002</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F16" s="10">
         <v>1</v>
@@ -4627,13 +4324,12 @@
       <c r="G16" s="10">
         <v>999</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10" t="str">
+      <c r="H16" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620002</v>
       </c>
     </row>
-    <row r="17" ht="17.25" spans="2:9">
+    <row r="17" ht="17.25" spans="2:8">
       <c r="B17" s="9">
         <v>620003</v>
       </c>
@@ -4642,10 +4338,10 @@
         <v>itemname_620003</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F17" s="10">
         <v>1</v>
@@ -4653,13 +4349,12 @@
       <c r="G17" s="10">
         <v>999</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10" t="str">
+      <c r="H17" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620003</v>
       </c>
     </row>
-    <row r="18" ht="17.25" spans="2:9">
+    <row r="18" ht="17.25" spans="2:8">
       <c r="B18" s="9">
         <v>620004</v>
       </c>
@@ -4668,10 +4363,10 @@
         <v>itemname_620004</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F18" s="10">
         <v>1</v>
@@ -4679,13 +4374,12 @@
       <c r="G18" s="10">
         <v>999</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10" t="str">
+      <c r="H18" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620004</v>
       </c>
     </row>
-    <row r="19" ht="17.25" spans="2:9">
+    <row r="19" ht="17.25" spans="2:8">
       <c r="B19" s="9">
         <v>620005</v>
       </c>
@@ -4694,10 +4388,10 @@
         <v>itemname_620005</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F19" s="10">
         <v>1</v>
@@ -4705,13 +4399,12 @@
       <c r="G19" s="10">
         <v>999</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10" t="str">
+      <c r="H19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620005</v>
       </c>
     </row>
-    <row r="20" ht="17.25" spans="2:9">
+    <row r="20" ht="17.25" spans="2:8">
       <c r="B20" s="9">
         <v>620006</v>
       </c>
@@ -4720,10 +4413,10 @@
         <v>itemname_620006</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F20" s="10">
         <v>1</v>
@@ -4731,13 +4424,12 @@
       <c r="G20" s="10">
         <v>999</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10" t="str">
+      <c r="H20" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620006</v>
       </c>
     </row>
-    <row r="21" ht="17.25" spans="2:9">
+    <row r="21" ht="17.25" spans="2:8">
       <c r="B21" s="9">
         <v>620007</v>
       </c>
@@ -4746,10 +4438,10 @@
         <v>itemname_620007</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F21" s="10">
         <v>1</v>
@@ -4757,13 +4449,12 @@
       <c r="G21" s="10">
         <v>999</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10" t="str">
+      <c r="H21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620007</v>
       </c>
     </row>
-    <row r="22" ht="17.25" spans="2:9">
+    <row r="22" ht="17.25" spans="2:8">
       <c r="B22" s="9">
         <v>620008</v>
       </c>
@@ -4772,10 +4463,10 @@
         <v>itemname_620008</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F22" s="10">
         <v>1</v>
@@ -4783,13 +4474,12 @@
       <c r="G22" s="10">
         <v>999</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10" t="str">
+      <c r="H22" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620008</v>
       </c>
     </row>
-    <row r="23" ht="17.25" spans="2:9">
+    <row r="23" ht="17.25" spans="2:8">
       <c r="B23" s="9">
         <v>620009</v>
       </c>
@@ -4798,10 +4488,10 @@
         <v>itemname_620009</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F23" s="10">
         <v>1</v>
@@ -4809,13 +4499,12 @@
       <c r="G23" s="10">
         <v>999</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10" t="str">
+      <c r="H23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620009</v>
       </c>
     </row>
-    <row r="24" ht="17.25" spans="2:9">
+    <row r="24" ht="17.25" spans="2:8">
       <c r="B24" s="9">
         <v>620010</v>
       </c>
@@ -4824,10 +4513,10 @@
         <v>itemname_620010</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F24" s="10">
         <v>1</v>
@@ -4835,13 +4524,12 @@
       <c r="G24" s="10">
         <v>999</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10" t="str">
+      <c r="H24" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620010</v>
       </c>
     </row>
-    <row r="25" ht="17.25" spans="2:9">
+    <row r="25" ht="17.25" spans="2:8">
       <c r="B25" s="9">
         <v>630001</v>
       </c>
@@ -4850,10 +4538,10 @@
         <v>itemname_630001</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F25" s="10">
         <v>1</v>
@@ -4861,13 +4549,12 @@
       <c r="G25" s="10">
         <v>999</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10" t="str">
+      <c r="H25" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630001</v>
       </c>
     </row>
-    <row r="26" ht="17.25" spans="2:9">
+    <row r="26" ht="17.25" spans="2:8">
       <c r="B26" s="9">
         <v>630002</v>
       </c>
@@ -4876,10 +4563,10 @@
         <v>itemname_630002</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F26" s="10">
         <v>1</v>
@@ -4887,13 +4574,12 @@
       <c r="G26" s="10">
         <v>999</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10" t="str">
+      <c r="H26" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630002</v>
       </c>
     </row>
-    <row r="27" ht="17.25" spans="2:9">
+    <row r="27" ht="17.25" spans="2:8">
       <c r="B27" s="9">
         <v>630003</v>
       </c>
@@ -4902,10 +4588,10 @@
         <v>itemname_630003</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F27" s="10">
         <v>1</v>
@@ -4913,13 +4599,12 @@
       <c r="G27" s="10">
         <v>999</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10" t="str">
+      <c r="H27" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630003</v>
       </c>
     </row>
-    <row r="28" ht="17.25" spans="2:9">
+    <row r="28" ht="17.25" spans="2:8">
       <c r="B28" s="9">
         <v>630004</v>
       </c>
@@ -4928,10 +4613,10 @@
         <v>itemname_630004</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F28" s="10">
         <v>1</v>
@@ -4939,13 +4624,12 @@
       <c r="G28" s="10">
         <v>999</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10" t="str">
+      <c r="H28" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630004</v>
       </c>
     </row>
-    <row r="29" ht="17.25" spans="2:9">
+    <row r="29" ht="17.25" spans="2:8">
       <c r="B29" s="9">
         <v>630005</v>
       </c>
@@ -4954,10 +4638,10 @@
         <v>itemname_630005</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F29" s="10">
         <v>1</v>
@@ -4965,13 +4649,12 @@
       <c r="G29" s="10">
         <v>999</v>
       </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10" t="str">
+      <c r="H29" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630005</v>
       </c>
     </row>
-    <row r="30" ht="17.25" spans="2:9">
+    <row r="30" ht="17.25" spans="2:8">
       <c r="B30" s="9">
         <v>630006</v>
       </c>
@@ -4980,10 +4663,10 @@
         <v>itemname_630006</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F30" s="10">
         <v>1</v>
@@ -4991,13 +4674,12 @@
       <c r="G30" s="10">
         <v>999</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10" t="str">
+      <c r="H30" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630006</v>
       </c>
     </row>
-    <row r="31" ht="17.25" spans="2:9">
+    <row r="31" ht="17.25" spans="2:8">
       <c r="B31" s="9">
         <v>630007</v>
       </c>
@@ -5006,10 +4688,10 @@
         <v>itemname_630007</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F31" s="10">
         <v>1</v>
@@ -5017,13 +4699,12 @@
       <c r="G31" s="10">
         <v>999</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10" t="str">
+      <c r="H31" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630007</v>
       </c>
     </row>
-    <row r="32" ht="17.25" spans="2:9">
+    <row r="32" ht="17.25" spans="2:8">
       <c r="B32" s="9">
         <v>630008</v>
       </c>
@@ -5032,10 +4713,10 @@
         <v>itemname_630008</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F32" s="10">
         <v>1</v>
@@ -5043,13 +4724,12 @@
       <c r="G32" s="10">
         <v>999</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10" t="str">
+      <c r="H32" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630008</v>
       </c>
     </row>
-    <row r="33" ht="17.25" spans="2:9">
+    <row r="33" ht="17.25" spans="2:8">
       <c r="B33" s="9">
         <v>630009</v>
       </c>
@@ -5058,10 +4738,10 @@
         <v>itemname_630009</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F33" s="10">
         <v>1</v>
@@ -5069,13 +4749,12 @@
       <c r="G33" s="10">
         <v>999</v>
       </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10" t="str">
+      <c r="H33" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630009</v>
       </c>
     </row>
-    <row r="34" ht="17.25" spans="2:9">
+    <row r="34" ht="17.25" spans="2:8">
       <c r="B34" s="9">
         <v>630010</v>
       </c>
@@ -5084,10 +4763,10 @@
         <v>itemname_630010</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F34" s="10">
         <v>1</v>
@@ -5095,13 +4774,12 @@
       <c r="G34" s="10">
         <v>999</v>
       </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10" t="str">
+      <c r="H34" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630010</v>
       </c>
     </row>
-    <row r="35" ht="17.25" spans="2:9">
+    <row r="35" ht="17.25" spans="2:8">
       <c r="B35" s="11">
         <v>640001</v>
       </c>
@@ -5110,10 +4788,10 @@
         <v>itemname_640001</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F35" s="10">
         <v>1</v>
@@ -5121,13 +4799,12 @@
       <c r="G35" s="10">
         <v>999</v>
       </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10" t="str">
+      <c r="H35" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640001</v>
       </c>
     </row>
-    <row r="36" ht="17.25" spans="2:9">
+    <row r="36" ht="17.25" spans="2:8">
       <c r="B36" s="11">
         <v>640002</v>
       </c>
@@ -5136,10 +4813,10 @@
         <v>itemname_640002</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F36" s="10">
         <v>1</v>
@@ -5147,13 +4824,12 @@
       <c r="G36" s="10">
         <v>999</v>
       </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10" t="str">
+      <c r="H36" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640002</v>
       </c>
     </row>
-    <row r="37" ht="17.25" spans="2:9">
+    <row r="37" ht="17.25" spans="2:8">
       <c r="B37" s="11">
         <v>640003</v>
       </c>
@@ -5162,10 +4838,10 @@
         <v>itemname_640003</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F37" s="10">
         <v>1</v>
@@ -5173,13 +4849,12 @@
       <c r="G37" s="10">
         <v>999</v>
       </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10" t="str">
+      <c r="H37" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640003</v>
       </c>
     </row>
-    <row r="38" ht="17.25" spans="2:9">
+    <row r="38" ht="17.25" spans="2:8">
       <c r="B38" s="11">
         <v>640004</v>
       </c>
@@ -5188,10 +4863,10 @@
         <v>itemname_640004</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F38" s="10">
         <v>1</v>
@@ -5199,13 +4874,12 @@
       <c r="G38" s="10">
         <v>999</v>
       </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10" t="str">
+      <c r="H38" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640004</v>
       </c>
     </row>
-    <row r="39" ht="17.25" spans="2:9">
+    <row r="39" ht="17.25" spans="2:8">
       <c r="B39" s="11">
         <v>640005</v>
       </c>
@@ -5214,10 +4888,10 @@
         <v>itemname_640005</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F39" s="10">
         <v>1</v>
@@ -5225,13 +4899,12 @@
       <c r="G39" s="10">
         <v>999</v>
       </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10" t="str">
+      <c r="H39" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640005</v>
       </c>
     </row>
-    <row r="40" ht="17.25" spans="2:9">
+    <row r="40" ht="17.25" spans="2:8">
       <c r="B40" s="11">
         <v>640006</v>
       </c>
@@ -5240,10 +4913,10 @@
         <v>itemname_640006</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F40" s="10">
         <v>1</v>
@@ -5251,13 +4924,12 @@
       <c r="G40" s="10">
         <v>999</v>
       </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10" t="str">
+      <c r="H40" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640006</v>
       </c>
     </row>
-    <row r="41" ht="17.25" spans="2:9">
+    <row r="41" ht="17.25" spans="2:8">
       <c r="B41" s="11">
         <v>640007</v>
       </c>
@@ -5266,10 +4938,10 @@
         <v>itemname_640007</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F41" s="10">
         <v>1</v>
@@ -5277,13 +4949,12 @@
       <c r="G41" s="10">
         <v>999</v>
       </c>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10" t="str">
+      <c r="H41" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640007</v>
       </c>
     </row>
-    <row r="42" ht="17.25" spans="2:9">
+    <row r="42" ht="17.25" spans="2:8">
       <c r="B42" s="11">
         <v>640008</v>
       </c>
@@ -5292,10 +4963,10 @@
         <v>itemname_640008</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F42" s="10">
         <v>1</v>
@@ -5303,13 +4974,12 @@
       <c r="G42" s="10">
         <v>999</v>
       </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10" t="str">
+      <c r="H42" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640008</v>
       </c>
     </row>
-    <row r="43" ht="17.25" spans="2:9">
+    <row r="43" ht="17.25" spans="2:8">
       <c r="B43" s="11">
         <v>640009</v>
       </c>
@@ -5318,10 +4988,10 @@
         <v>itemname_640009</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F43" s="10">
         <v>1</v>
@@ -5329,13 +4999,12 @@
       <c r="G43" s="10">
         <v>999</v>
       </c>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10" t="str">
+      <c r="H43" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640009</v>
       </c>
     </row>
-    <row r="44" ht="17.25" spans="2:9">
+    <row r="44" ht="17.25" spans="2:8">
       <c r="B44" s="11">
         <v>640010</v>
       </c>
@@ -5344,10 +5013,10 @@
         <v>itemname_640010</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F44" s="10">
         <v>1</v>
@@ -5355,13 +5024,12 @@
       <c r="G44" s="10">
         <v>999</v>
       </c>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10" t="str">
+      <c r="H44" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640010</v>
       </c>
     </row>
-    <row r="45" ht="17.25" spans="2:9">
+    <row r="45" ht="17.25" spans="2:8">
       <c r="B45" s="11">
         <v>650001</v>
       </c>
@@ -5370,10 +5038,10 @@
         <v>itemname_650001</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F45" s="10">
         <v>1</v>
@@ -5381,13 +5049,12 @@
       <c r="G45" s="10">
         <v>999</v>
       </c>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10" t="str">
+      <c r="H45" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650001</v>
       </c>
     </row>
-    <row r="46" ht="17.25" spans="2:9">
+    <row r="46" ht="17.25" spans="2:8">
       <c r="B46" s="11">
         <v>650002</v>
       </c>
@@ -5396,10 +5063,10 @@
         <v>itemname_650002</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F46" s="10">
         <v>1</v>
@@ -5407,13 +5074,12 @@
       <c r="G46" s="10">
         <v>999</v>
       </c>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10" t="str">
+      <c r="H46" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650002</v>
       </c>
     </row>
-    <row r="47" ht="17.25" spans="2:9">
+    <row r="47" ht="17.25" spans="2:8">
       <c r="B47" s="11">
         <v>650003</v>
       </c>
@@ -5422,10 +5088,10 @@
         <v>itemname_650003</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F47" s="10">
         <v>1</v>
@@ -5433,13 +5099,12 @@
       <c r="G47" s="10">
         <v>999</v>
       </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10" t="str">
+      <c r="H47" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650003</v>
       </c>
     </row>
-    <row r="48" ht="17.25" spans="2:9">
+    <row r="48" ht="17.25" spans="2:8">
       <c r="B48" s="11">
         <v>650004</v>
       </c>
@@ -5448,10 +5113,10 @@
         <v>itemname_650004</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F48" s="10">
         <v>1</v>
@@ -5459,13 +5124,12 @@
       <c r="G48" s="10">
         <v>999</v>
       </c>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10" t="str">
+      <c r="H48" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650004</v>
       </c>
     </row>
-    <row r="49" ht="17.25" spans="2:9">
+    <row r="49" ht="17.25" spans="2:8">
       <c r="B49" s="11">
         <v>650005</v>
       </c>
@@ -5474,10 +5138,10 @@
         <v>itemname_650005</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F49" s="10">
         <v>1</v>
@@ -5485,13 +5149,12 @@
       <c r="G49" s="10">
         <v>999</v>
       </c>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10" t="str">
+      <c r="H49" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650005</v>
       </c>
     </row>
-    <row r="50" ht="17.25" spans="2:9">
+    <row r="50" ht="17.25" spans="2:8">
       <c r="B50" s="11">
         <v>650006</v>
       </c>
@@ -5500,10 +5163,10 @@
         <v>itemname_650006</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F50" s="10">
         <v>1</v>
@@ -5511,13 +5174,12 @@
       <c r="G50" s="10">
         <v>999</v>
       </c>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10" t="str">
+      <c r="H50" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650006</v>
       </c>
     </row>
-    <row r="51" ht="17.25" spans="2:9">
+    <row r="51" ht="17.25" spans="2:8">
       <c r="B51" s="11">
         <v>650007</v>
       </c>
@@ -5526,10 +5188,10 @@
         <v>itemname_650007</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F51" s="10">
         <v>1</v>
@@ -5537,13 +5199,12 @@
       <c r="G51" s="10">
         <v>999</v>
       </c>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10" t="str">
+      <c r="H51" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650007</v>
       </c>
     </row>
-    <row r="52" ht="17.25" spans="2:9">
+    <row r="52" ht="17.25" spans="2:8">
       <c r="B52" s="11">
         <v>650008</v>
       </c>
@@ -5552,10 +5213,10 @@
         <v>itemname_650008</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F52" s="10">
         <v>1</v>
@@ -5563,13 +5224,12 @@
       <c r="G52" s="10">
         <v>999</v>
       </c>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10" t="str">
+      <c r="H52" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650008</v>
       </c>
     </row>
-    <row r="53" ht="17.25" spans="2:9">
+    <row r="53" ht="17.25" spans="2:8">
       <c r="B53" s="11">
         <v>650009</v>
       </c>
@@ -5578,10 +5238,10 @@
         <v>itemname_650009</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F53" s="10">
         <v>1</v>
@@ -5589,13 +5249,12 @@
       <c r="G53" s="10">
         <v>999</v>
       </c>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10" t="str">
+      <c r="H53" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650009</v>
       </c>
     </row>
-    <row r="54" ht="17.25" spans="2:9">
+    <row r="54" ht="17.25" spans="2:8">
       <c r="B54" s="11">
         <v>650010</v>
       </c>
@@ -5604,10 +5263,10 @@
         <v>itemname_650010</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F54" s="10">
         <v>1</v>
@@ -5615,13 +5274,12 @@
       <c r="G54" s="10">
         <v>999</v>
       </c>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10" t="str">
+      <c r="H54" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650010</v>
       </c>
     </row>
-    <row r="55" ht="17.25" spans="2:9">
+    <row r="55" ht="17.25" spans="2:8">
       <c r="B55" s="11">
         <v>660001</v>
       </c>
@@ -5630,10 +5288,10 @@
         <v>itemname_660001</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F55" s="10">
         <v>1</v>
@@ -5641,13 +5299,12 @@
       <c r="G55" s="10">
         <v>999</v>
       </c>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10" t="str">
+      <c r="H55" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660001</v>
       </c>
     </row>
-    <row r="56" ht="17.25" spans="2:9">
+    <row r="56" ht="17.25" spans="2:8">
       <c r="B56" s="11">
         <v>660002</v>
       </c>
@@ -5656,10 +5313,10 @@
         <v>itemname_660002</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F56" s="10">
         <v>1</v>
@@ -5667,13 +5324,12 @@
       <c r="G56" s="10">
         <v>999</v>
       </c>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10" t="str">
+      <c r="H56" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660002</v>
       </c>
     </row>
-    <row r="57" ht="17.25" spans="2:9">
+    <row r="57" ht="17.25" spans="2:8">
       <c r="B57" s="11">
         <v>660003</v>
       </c>
@@ -5682,10 +5338,10 @@
         <v>itemname_660003</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F57" s="10">
         <v>1</v>
@@ -5693,13 +5349,12 @@
       <c r="G57" s="10">
         <v>999</v>
       </c>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10" t="str">
+      <c r="H57" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660003</v>
       </c>
     </row>
-    <row r="58" ht="17.25" spans="2:9">
+    <row r="58" ht="17.25" spans="2:8">
       <c r="B58" s="11">
         <v>660004</v>
       </c>
@@ -5708,10 +5363,10 @@
         <v>itemname_660004</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F58" s="10">
         <v>1</v>
@@ -5719,13 +5374,12 @@
       <c r="G58" s="10">
         <v>999</v>
       </c>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10" t="str">
+      <c r="H58" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660004</v>
       </c>
     </row>
-    <row r="59" ht="17.25" spans="2:9">
+    <row r="59" ht="17.25" spans="2:8">
       <c r="B59" s="11">
         <v>660005</v>
       </c>
@@ -5734,10 +5388,10 @@
         <v>itemname_660005</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F59" s="10">
         <v>1</v>
@@ -5745,13 +5399,12 @@
       <c r="G59" s="10">
         <v>999</v>
       </c>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10" t="str">
+      <c r="H59" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660005</v>
       </c>
     </row>
-    <row r="60" ht="17.25" spans="2:9">
+    <row r="60" ht="17.25" spans="2:8">
       <c r="B60" s="11">
         <v>660006</v>
       </c>
@@ -5760,10 +5413,10 @@
         <v>itemname_660006</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F60" s="10">
         <v>1</v>
@@ -5771,13 +5424,12 @@
       <c r="G60" s="10">
         <v>999</v>
       </c>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10" t="str">
+      <c r="H60" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660006</v>
       </c>
     </row>
-    <row r="61" ht="17.25" spans="2:9">
+    <row r="61" ht="17.25" spans="2:8">
       <c r="B61" s="11">
         <v>660007</v>
       </c>
@@ -5786,10 +5438,10 @@
         <v>itemname_660007</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F61" s="10">
         <v>1</v>
@@ -5797,13 +5449,12 @@
       <c r="G61" s="10">
         <v>999</v>
       </c>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10" t="str">
+      <c r="H61" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660007</v>
       </c>
     </row>
-    <row r="62" ht="17.25" spans="2:9">
+    <row r="62" ht="17.25" spans="2:8">
       <c r="B62" s="11">
         <v>660008</v>
       </c>
@@ -5812,10 +5463,10 @@
         <v>itemname_660008</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F62" s="10">
         <v>1</v>
@@ -5823,13 +5474,12 @@
       <c r="G62" s="10">
         <v>999</v>
       </c>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10" t="str">
+      <c r="H62" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660008</v>
       </c>
     </row>
-    <row r="63" ht="17.25" spans="2:9">
+    <row r="63" ht="17.25" spans="2:8">
       <c r="B63" s="11">
         <v>660009</v>
       </c>
@@ -5838,10 +5488,10 @@
         <v>itemname_660009</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F63" s="10">
         <v>1</v>
@@ -5849,13 +5499,12 @@
       <c r="G63" s="10">
         <v>999</v>
       </c>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10" t="str">
+      <c r="H63" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660009</v>
       </c>
     </row>
-    <row r="64" ht="17.25" spans="2:9">
+    <row r="64" ht="17.25" spans="2:8">
       <c r="B64" s="11">
         <v>660010</v>
       </c>
@@ -5864,10 +5513,10 @@
         <v>itemname_660010</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F64" s="10">
         <v>1</v>
@@ -5875,13 +5524,12 @@
       <c r="G64" s="10">
         <v>999</v>
       </c>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10" t="str">
+      <c r="H64" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660010</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="2:9">
+    <row r="65" ht="16.5" spans="2:8">
       <c r="B65" s="10">
         <v>670001</v>
       </c>
@@ -5890,10 +5538,10 @@
         <v>itemname_670001</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F65" s="10">
         <v>1</v>
@@ -5901,13 +5549,12 @@
       <c r="G65" s="10">
         <v>999</v>
       </c>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10" t="str">
+      <c r="H65" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_670001</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="2:9">
+    <row r="66" ht="16.5" spans="2:8">
       <c r="B66" s="10">
         <v>670002</v>
       </c>
@@ -5916,10 +5563,10 @@
         <v>itemname_670002</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F66" s="10">
         <v>1</v>
@@ -5927,13 +5574,12 @@
       <c r="G66" s="10">
         <v>999</v>
       </c>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10" t="str">
+      <c r="H66" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_670002</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="2:9">
+    <row r="67" ht="16.5" spans="2:8">
       <c r="B67" s="10">
         <v>670003</v>
       </c>
@@ -5942,10 +5588,10 @@
         <v>itemname_670003</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F67" s="10">
         <v>1</v>
@@ -5953,13 +5599,12 @@
       <c r="G67" s="10">
         <v>999</v>
       </c>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10" t="str">
+      <c r="H67" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_670003</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="2:9">
+    <row r="68" ht="16.5" spans="2:8">
       <c r="B68" s="10">
         <v>670004</v>
       </c>
@@ -5968,10 +5613,10 @@
         <v>itemname_670004</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F68" s="10">
         <v>1</v>
@@ -5979,13 +5624,12 @@
       <c r="G68" s="10">
         <v>999</v>
       </c>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10" t="str">
+      <c r="H68" s="10" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_670004</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="2:9">
+    <row r="69" ht="16.5" spans="2:8">
       <c r="B69" s="10">
         <v>670005</v>
       </c>
@@ -5994,10 +5638,10 @@
         <v>itemname_670005</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F69" s="10">
         <v>1</v>
@@ -6005,13 +5649,12 @@
       <c r="G69" s="10">
         <v>999</v>
       </c>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10" t="str">
-        <f t="shared" ref="I69:I74" si="3">_xlfn.CONCAT("itemicon_",B69)</f>
+      <c r="H69" s="10" t="str">
+        <f t="shared" ref="H69:H74" si="3">_xlfn.CONCAT("itemicon_",B69)</f>
         <v>itemicon_670005</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="2:9">
+    <row r="70" ht="16.5" spans="2:8">
       <c r="B70" s="10">
         <v>670006</v>
       </c>
@@ -6020,10 +5663,10 @@
         <v>itemname_670006</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F70" s="10">
         <v>1</v>
@@ -6031,13 +5674,12 @@
       <c r="G70" s="10">
         <v>999</v>
       </c>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10" t="str">
+      <c r="H70" s="10" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670006</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="2:9">
+    <row r="71" ht="16.5" spans="2:8">
       <c r="B71" s="10">
         <v>670007</v>
       </c>
@@ -6046,10 +5688,10 @@
         <v>itemname_670007</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F71" s="10">
         <v>1</v>
@@ -6057,13 +5699,12 @@
       <c r="G71" s="10">
         <v>999</v>
       </c>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10" t="str">
+      <c r="H71" s="10" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670007</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="2:9">
+    <row r="72" ht="16.5" spans="2:8">
       <c r="B72" s="10">
         <v>670008</v>
       </c>
@@ -6072,10 +5713,10 @@
         <v>itemname_670008</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F72" s="10">
         <v>1</v>
@@ -6083,13 +5724,12 @@
       <c r="G72" s="10">
         <v>999</v>
       </c>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10" t="str">
+      <c r="H72" s="10" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670008</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="2:9">
+    <row r="73" ht="16.5" spans="2:8">
       <c r="B73" s="10">
         <v>670009</v>
       </c>
@@ -6098,10 +5738,10 @@
         <v>itemname_670009</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F73" s="10">
         <v>1</v>
@@ -6109,13 +5749,12 @@
       <c r="G73" s="10">
         <v>999</v>
       </c>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10" t="str">
+      <c r="H73" s="10" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670009</v>
       </c>
     </row>
-    <row r="74" ht="16.5" spans="2:9">
+    <row r="74" ht="16.5" spans="2:8">
       <c r="B74" s="10">
         <v>670010</v>
       </c>
@@ -6124,10 +5763,10 @@
         <v>itemname_670010</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F74" s="10">
         <v>1</v>
@@ -6135,8 +5774,7 @@
       <c r="G74" s="10">
         <v>999</v>
       </c>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10" t="str">
+      <c r="H74" s="10" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670010</v>
       </c>
@@ -6150,10 +5788,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6165,12 +5803,11 @@
     <col min="5" max="5" width="22.5" style="8" customWidth="1"/>
     <col min="6" max="6" width="17.125" style="8" customWidth="1"/>
     <col min="7" max="7" width="10.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="17.375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="8"/>
+    <col min="8" max="8" width="17.75" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:10">
+    <row r="1" s="5" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6195,103 +5832,93 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" s="6" customFormat="1" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" s="6" customFormat="1" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" s="5" customFormat="1" spans="1:10">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="8">
         <v>920001</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F5" s="8">
         <v>1</v>
@@ -6299,23 +5926,23 @@
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="I5" s="8" t="str">
+      <c r="H5" s="8" t="str">
         <f>_xlfn.CONCAT("itemicon_",B5)</f>
         <v>itemicon_920001</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:8">
       <c r="B6" s="8">
         <v>920002</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F6" s="8">
         <v>1</v>
@@ -6323,23 +5950,23 @@
       <c r="G6" s="8">
         <v>1</v>
       </c>
-      <c r="I6" s="8" t="str">
-        <f t="shared" ref="I6:I14" si="0">_xlfn.CONCAT("itemicon_",B6)</f>
+      <c r="H6" s="8" t="str">
+        <f t="shared" ref="H6:H14" si="0">_xlfn.CONCAT("itemicon_",B6)</f>
         <v>itemicon_920002</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:8">
       <c r="B7" s="8">
         <v>920003</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
@@ -6347,23 +5974,23 @@
       <c r="G7" s="8">
         <v>1</v>
       </c>
-      <c r="I7" s="8" t="str">
+      <c r="H7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920003</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:8">
       <c r="B8" s="8">
         <v>920004</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
@@ -6371,23 +5998,23 @@
       <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="I8" s="8" t="str">
+      <c r="H8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920004</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:8">
       <c r="B9" s="8">
         <v>920005</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
@@ -6395,23 +6022,23 @@
       <c r="G9" s="8">
         <v>1</v>
       </c>
-      <c r="I9" s="8" t="str">
+      <c r="H9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920005</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:8">
       <c r="B10" s="8">
         <v>920006</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F10" s="8">
         <v>1</v>
@@ -6419,23 +6046,23 @@
       <c r="G10" s="8">
         <v>1</v>
       </c>
-      <c r="I10" s="8" t="str">
+      <c r="H10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920006</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:8">
       <c r="B11" s="8">
         <v>920007</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F11" s="8">
         <v>1</v>
@@ -6443,23 +6070,23 @@
       <c r="G11" s="8">
         <v>1</v>
       </c>
-      <c r="I11" s="8" t="str">
+      <c r="H11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920007</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:8">
       <c r="B12" s="8">
         <v>920008</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F12" s="8">
         <v>1</v>
@@ -6467,23 +6094,23 @@
       <c r="G12" s="8">
         <v>1</v>
       </c>
-      <c r="I12" s="8" t="str">
+      <c r="H12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920008</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:8">
       <c r="B13" s="8">
         <v>920009</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F13" s="8">
         <v>1</v>
@@ -6491,23 +6118,23 @@
       <c r="G13" s="8">
         <v>1</v>
       </c>
-      <c r="I13" s="8" t="str">
+      <c r="H13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920009</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:8">
       <c r="B14" s="8">
         <v>920010</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
@@ -6515,7 +6142,7 @@
       <c r="G14" s="8">
         <v>1</v>
       </c>
-      <c r="I14" s="8" t="str">
+      <c r="H14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920010</v>
       </c>
@@ -6529,13 +6156,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="16.5" style="4" customWidth="1"/>
@@ -6544,12 +6171,11 @@
     <col min="5" max="5" width="12.625" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.375" style="4" customWidth="1"/>
     <col min="7" max="7" width="16.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="4"/>
+    <col min="8" max="8" width="17.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6574,83 +6200,74 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="4">
         <v>930001</v>
       </c>
@@ -6659,10 +6276,10 @@
         <v>itemname_930001</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -6670,12 +6287,12 @@
       <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="4" t="str">
+      <c r="H5" s="4" t="str">
         <f>_xlfn.CONCAT("itemicon_",B5)</f>
         <v>itemicon_930001</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:8">
       <c r="B6" s="4">
         <v>930002</v>
       </c>
@@ -6684,10 +6301,10 @@
         <v>itemname_930002</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -6695,12 +6312,12 @@
       <c r="G6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="4" t="str">
-        <f t="shared" ref="I6:I14" si="1">_xlfn.CONCAT("itemicon_",B6)</f>
+      <c r="H6" s="4" t="str">
+        <f t="shared" ref="H6:H14" si="1">_xlfn.CONCAT("itemicon_",B6)</f>
         <v>itemicon_930002</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:8">
       <c r="B7" s="4">
         <v>930003</v>
       </c>
@@ -6709,10 +6326,10 @@
         <v>itemname_930003</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -6720,12 +6337,12 @@
       <c r="G7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="4" t="str">
+      <c r="H7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_930003</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:8">
       <c r="B8" s="4">
         <v>930004</v>
       </c>
@@ -6734,10 +6351,10 @@
         <v>itemname_930004</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -6745,12 +6362,12 @@
       <c r="G8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="4" t="str">
+      <c r="H8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_930004</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:8">
       <c r="B9" s="4">
         <v>930005</v>
       </c>
@@ -6759,10 +6376,10 @@
         <v>itemname_930005</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -6770,12 +6387,12 @@
       <c r="G9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="4" t="str">
+      <c r="H9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_930005</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:8">
       <c r="B10" s="4">
         <v>930006</v>
       </c>
@@ -6784,10 +6401,10 @@
         <v>itemname_930006</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -6795,12 +6412,12 @@
       <c r="G10" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="4" t="str">
+      <c r="H10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_930006</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:8">
       <c r="B11" s="4">
         <v>930007</v>
       </c>
@@ -6809,10 +6426,10 @@
         <v>itemname_930007</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -6820,12 +6437,12 @@
       <c r="G11" s="4">
         <v>1</v>
       </c>
-      <c r="I11" s="4" t="str">
+      <c r="H11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_930007</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:8">
       <c r="B12" s="4">
         <v>930008</v>
       </c>
@@ -6834,10 +6451,10 @@
         <v>itemname_930008</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -6845,12 +6462,12 @@
       <c r="G12" s="4">
         <v>1</v>
       </c>
-      <c r="I12" s="4" t="str">
+      <c r="H12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_930008</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:8">
       <c r="B13" s="4">
         <v>930009</v>
       </c>
@@ -6859,10 +6476,10 @@
         <v>itemname_930009</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -6870,12 +6487,12 @@
       <c r="G13" s="4">
         <v>1</v>
       </c>
-      <c r="I13" s="4" t="str">
+      <c r="H13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_930009</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:8">
       <c r="B14" s="4">
         <v>930010</v>
       </c>
@@ -6884,10 +6501,10 @@
         <v>itemname_930010</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -6895,7 +6512,7 @@
       <c r="G14" s="4">
         <v>1</v>
       </c>
-      <c r="I14" s="4" t="str">
+      <c r="H14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_930010</v>
       </c>

--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="809" activeTab="5"/>
+    <workbookView windowWidth="26310" windowHeight="11655" tabRatio="809" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="普通道具" sheetId="6" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="货币道具720001" sheetId="11" r:id="rId6"/>
     <sheet name="接取任务道具730001" sheetId="12" r:id="rId7"/>
     <sheet name="增益道具740001" sheetId="13" r:id="rId8"/>
+    <sheet name="英雄升级突破道具810001" sheetId="14" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">普通道具!$A$1:$G$98</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -899,21 +900,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -933,12 +922,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1283,1397 +1272,1397 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="14.375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="29.25" style="16" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="22.875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="16" customWidth="1"/>
-    <col min="9" max="9" width="9" style="16"/>
-    <col min="10" max="16382" width="9" style="18"/>
-    <col min="16383" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="14.375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="29.25" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="12" customWidth="1"/>
+    <col min="9" max="9" width="9" style="12"/>
+    <col min="10" max="16382" width="9" style="14"/>
+    <col min="16383" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" s="12" customFormat="1" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" s="9" customFormat="1" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" s="13" customFormat="1" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" s="10" customFormat="1" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" s="11" customFormat="1" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" s="8" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <v>60001</v>
       </c>
-      <c r="C5" s="16" t="str">
+      <c r="C5" s="12" t="str">
         <f>_xlfn.CONCAT("itemname_",B5)</f>
         <v>itemname_60001</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="16">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16">
-        <v>999</v>
-      </c>
-      <c r="H5" s="16" t="s">
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <v>999</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <v>60002</v>
       </c>
-      <c r="C6" s="16" t="str">
+      <c r="C6" s="12" t="str">
         <f t="shared" ref="C6:C14" si="0">_xlfn.CONCAT("itemname_",B6)</f>
         <v>itemname_60002</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="16">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16">
-        <v>999</v>
-      </c>
-      <c r="H6" s="16" t="s">
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>999</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <v>60003</v>
       </c>
-      <c r="C7" s="16" t="str">
+      <c r="C7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60003</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="16">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16">
-        <v>999</v>
-      </c>
-      <c r="H7" s="16" t="s">
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>999</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <v>60004</v>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60004</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="16">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16">
-        <v>999</v>
-      </c>
-      <c r="H8" s="16" t="s">
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
+        <v>999</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <v>60005</v>
       </c>
-      <c r="C9" s="16" t="str">
+      <c r="C9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60005</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16">
-        <v>999</v>
-      </c>
-      <c r="H9" s="16" t="s">
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>999</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <v>60006</v>
       </c>
-      <c r="C10" s="16" t="str">
+      <c r="C10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60006</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16">
-        <v>999</v>
-      </c>
-      <c r="H10" s="16" t="s">
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12">
+        <v>999</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <v>60007</v>
       </c>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60007</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="16">
-        <v>1</v>
-      </c>
-      <c r="G11" s="16">
-        <v>999</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
+        <v>999</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <v>60008</v>
       </c>
-      <c r="C12" s="16" t="str">
+      <c r="C12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60008</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16">
-        <v>999</v>
-      </c>
-      <c r="H12" s="16" t="s">
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12">
+        <v>999</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <v>60009</v>
       </c>
-      <c r="C13" s="16" t="str">
+      <c r="C13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60009</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16">
-        <v>999</v>
-      </c>
-      <c r="H13" s="16" t="s">
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>999</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="10">
+      <c r="B14" s="6">
         <v>710001</v>
       </c>
-      <c r="C14" s="16" t="str">
+      <c r="C14" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_710001</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16">
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12">
         <v>9999</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="10">
+      <c r="B15" s="6">
         <v>710002</v>
       </c>
-      <c r="C15" s="16" t="str">
+      <c r="C15" s="12" t="str">
         <f t="shared" ref="C15:C33" si="1">_xlfn.CONCAT("itemname_",B15)</f>
         <v>itemname_710002</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="16">
-        <v>1</v>
-      </c>
-      <c r="G15" s="16">
+      <c r="F15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12">
         <v>9999</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="10">
+      <c r="B16" s="6">
         <v>710003</v>
       </c>
-      <c r="C16" s="16" t="str">
+      <c r="C16" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710003</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="16">
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
         <v>9999</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="10">
+      <c r="B17" s="6">
         <v>710004</v>
       </c>
-      <c r="C17" s="16" t="str">
+      <c r="C17" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710004</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="16">
-        <v>1</v>
-      </c>
-      <c r="G17" s="16">
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12">
         <v>9999</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="10">
+      <c r="B18" s="6">
         <v>710005</v>
       </c>
-      <c r="C18" s="16" t="str">
+      <c r="C18" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710005</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="16">
-        <v>1</v>
-      </c>
-      <c r="G18" s="16">
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12">
         <v>9999</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="10">
+      <c r="B19" s="6">
         <v>710006</v>
       </c>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710006</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="16">
-        <v>1</v>
-      </c>
-      <c r="G19" s="16">
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12">
         <v>9999</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="10">
+      <c r="B20" s="6">
         <v>710007</v>
       </c>
-      <c r="C20" s="16" t="str">
+      <c r="C20" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710007</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="16">
-        <v>1</v>
-      </c>
-      <c r="G20" s="16">
+      <c r="F20" s="12">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12">
         <v>9999</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="10">
+      <c r="B21" s="6">
         <v>710008</v>
       </c>
-      <c r="C21" s="16" t="str">
+      <c r="C21" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710008</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="16">
-        <v>1</v>
-      </c>
-      <c r="G21" s="16">
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12">
         <v>9999</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="10">
+      <c r="B22" s="6">
         <v>710009</v>
       </c>
-      <c r="C22" s="16" t="str">
+      <c r="C22" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710009</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="16">
-        <v>1</v>
-      </c>
-      <c r="G22" s="16">
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12">
         <v>9999</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="10">
+      <c r="B23" s="6">
         <v>710010</v>
       </c>
-      <c r="C23" s="16" t="str">
+      <c r="C23" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710010</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="16">
-        <v>1</v>
-      </c>
-      <c r="G23" s="16">
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12">
         <v>9999</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="10">
+      <c r="B24" s="6">
         <v>710011</v>
       </c>
-      <c r="C24" s="16" t="str">
+      <c r="C24" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710011</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="16">
-        <v>1</v>
-      </c>
-      <c r="G24" s="16">
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12">
         <v>9999</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="10">
+      <c r="B25" s="6">
         <v>710012</v>
       </c>
-      <c r="C25" s="16" t="str">
+      <c r="C25" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710012</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="16">
-        <v>1</v>
-      </c>
-      <c r="G25" s="16">
+      <c r="F25" s="12">
+        <v>1</v>
+      </c>
+      <c r="G25" s="12">
         <v>9999</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="10">
+      <c r="B26" s="6">
         <v>710013</v>
       </c>
-      <c r="C26" s="16" t="str">
+      <c r="C26" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710013</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="16">
-        <v>1</v>
-      </c>
-      <c r="G26" s="16">
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+      <c r="G26" s="12">
         <v>9999</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="10">
+      <c r="B27" s="6">
         <v>710014</v>
       </c>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710014</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="16">
-        <v>1</v>
-      </c>
-      <c r="G27" s="16">
+      <c r="F27" s="12">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12">
         <v>9999</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="10">
+      <c r="B28" s="6">
         <v>710015</v>
       </c>
-      <c r="C28" s="16" t="str">
+      <c r="C28" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710015</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="16">
-        <v>1</v>
-      </c>
-      <c r="G28" s="16">
+      <c r="F28" s="12">
+        <v>1</v>
+      </c>
+      <c r="G28" s="12">
         <v>9999</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="10">
+      <c r="B29" s="6">
         <v>710016</v>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710016</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="16">
-        <v>1</v>
-      </c>
-      <c r="G29" s="16">
+      <c r="F29" s="12">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12">
         <v>9999</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="10">
+      <c r="B30" s="6">
         <v>710017</v>
       </c>
-      <c r="C30" s="16" t="str">
+      <c r="C30" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710017</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="16">
-        <v>1</v>
-      </c>
-      <c r="G30" s="16">
+      <c r="F30" s="12">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12">
         <v>9999</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="10">
+      <c r="B31" s="6">
         <v>710018</v>
       </c>
-      <c r="C31" s="16" t="str">
+      <c r="C31" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710018</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="16">
-        <v>1</v>
-      </c>
-      <c r="G31" s="16">
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12">
         <v>9999</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="10">
+      <c r="B32" s="6">
         <v>710019</v>
       </c>
-      <c r="C32" s="16" t="str">
+      <c r="C32" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710019</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="16">
-        <v>1</v>
-      </c>
-      <c r="G32" s="16">
+      <c r="F32" s="12">
+        <v>1</v>
+      </c>
+      <c r="G32" s="12">
         <v>9999</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="10">
+      <c r="B33" s="6">
         <v>710020</v>
       </c>
-      <c r="C33" s="16" t="str">
+      <c r="C33" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemname_710020</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="16">
-        <v>1</v>
-      </c>
-      <c r="G33" s="16">
+      <c r="F33" s="12">
+        <v>1</v>
+      </c>
+      <c r="G33" s="12">
         <v>9999</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="10"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="10"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="10"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="10"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="10"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="10"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="10"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="10"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="10"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="10"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="10"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="10"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="10"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="10"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="10"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="10"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="10"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="10"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="10"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="10"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="10"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="10"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="10"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="10"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="10"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="10"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="10"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="10"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="10"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="10"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="10"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="10"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="10"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="10"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="10"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="10"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="10"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="10"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="10"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="10"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="10"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="10"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="10"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="10"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="10"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="10"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="10"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="10"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="10"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="10"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
     </row>
     <row r="84" spans="2:8">
-      <c r="B84" s="10"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="10"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="10"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="10"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="10"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
     </row>
     <row r="89" spans="2:8">
-      <c r="B89" s="10"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
     </row>
     <row r="90" spans="2:8">
-      <c r="B90" s="10"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
     </row>
     <row r="91" spans="2:8">
-      <c r="B91" s="10"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
     </row>
     <row r="92" spans="2:8">
-      <c r="B92" s="10"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
     </row>
     <row r="93" spans="2:8">
-      <c r="B93" s="10"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
     </row>
     <row r="94" spans="2:8">
-      <c r="B94" s="10"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
     </row>
     <row r="95" spans="2:8">
-      <c r="B95" s="10"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
     </row>
     <row r="96" spans="2:8">
-      <c r="B96" s="10"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
     </row>
     <row r="97" spans="2:8">
-      <c r="B97" s="10"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
     </row>
     <row r="98" spans="2:8">
-      <c r="B98" s="10"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2692,1236 +2681,1236 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="2" width="7" style="14" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="22.875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="7" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" s="12" customFormat="1" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" s="9" customFormat="1" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" s="13" customFormat="1" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" s="10" customFormat="1" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" s="11" customFormat="1" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" s="8" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <v>60010</v>
       </c>
-      <c r="C5" s="16" t="str">
+      <c r="C5" s="12" t="str">
         <f t="shared" ref="C5:C19" si="0">_xlfn.CONCAT("itemname_",B5)</f>
         <v>itemname_60010</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="16">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16">
-        <v>1</v>
-      </c>
-      <c r="H5" s="16" t="str">
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12" t="str">
         <f>_xlfn.CONCAT("itemicon_",B5)</f>
         <v>itemicon_60010</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <v>60011</v>
       </c>
-      <c r="C6" s="16" t="str">
+      <c r="C6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60011</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="16">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16" t="str">
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12" t="str">
         <f t="shared" ref="H6:H31" si="1">_xlfn.CONCAT("itemicon_",B6)</f>
         <v>itemicon_60011</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <v>60012</v>
       </c>
-      <c r="C7" s="16" t="str">
+      <c r="C7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60012</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="16">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16">
-        <v>1</v>
-      </c>
-      <c r="H7" s="16" t="str">
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60012</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <v>60013</v>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60013</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="16">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16">
-        <v>1</v>
-      </c>
-      <c r="H8" s="16" t="str">
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60013</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <v>60014</v>
       </c>
-      <c r="C9" s="16" t="str">
+      <c r="C9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60014</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16">
-        <v>1</v>
-      </c>
-      <c r="H9" s="16" t="str">
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60014</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <v>60015</v>
       </c>
-      <c r="C10" s="16" t="str">
+      <c r="C10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60015</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16">
-        <v>1</v>
-      </c>
-      <c r="H10" s="16" t="str">
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60015</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <v>60016</v>
       </c>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60016</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="16">
-        <v>1</v>
-      </c>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-      <c r="H11" s="16" t="str">
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60016</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <v>60017</v>
       </c>
-      <c r="C12" s="16" t="str">
+      <c r="C12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60017</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16">
-        <v>1</v>
-      </c>
-      <c r="H12" s="16" t="str">
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60017</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <v>60018</v>
       </c>
-      <c r="C13" s="16" t="str">
+      <c r="C13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60018</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16">
-        <v>1</v>
-      </c>
-      <c r="H13" s="16" t="str">
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60018</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="16">
+      <c r="B14" s="12">
         <v>60019</v>
       </c>
-      <c r="C14" s="16" t="str">
+      <c r="C14" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60019</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16">
-        <v>1</v>
-      </c>
-      <c r="H14" s="16" t="str">
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60019</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="16">
+      <c r="B15" s="12">
         <v>60020</v>
       </c>
-      <c r="C15" s="16" t="str">
+      <c r="C15" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60020</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="16">
-        <v>1</v>
-      </c>
-      <c r="G15" s="16">
-        <v>1</v>
-      </c>
-      <c r="H15" s="16" t="str">
+      <c r="F15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60020</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="16">
+      <c r="B16" s="12">
         <v>60021</v>
       </c>
-      <c r="C16" s="16" t="str">
+      <c r="C16" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60021</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="16" t="str">
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60021</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="16">
+      <c r="B17" s="12">
         <v>60022</v>
       </c>
-      <c r="C17" s="16" t="str">
+      <c r="C17" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60022</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="16">
-        <v>1</v>
-      </c>
-      <c r="G17" s="16">
-        <v>1</v>
-      </c>
-      <c r="H17" s="16" t="str">
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1</v>
+      </c>
+      <c r="H17" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60022</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="16">
+      <c r="B18" s="12">
         <v>60023</v>
       </c>
-      <c r="C18" s="16" t="str">
+      <c r="C18" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60023</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="16">
-        <v>1</v>
-      </c>
-      <c r="G18" s="16">
-        <v>1</v>
-      </c>
-      <c r="H18" s="16" t="str">
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60023</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="16">
+      <c r="B19" s="12">
         <v>60024</v>
       </c>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_60024</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="16">
-        <v>1</v>
-      </c>
-      <c r="G19" s="16">
-        <v>1</v>
-      </c>
-      <c r="H19" s="16" t="str">
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
+      <c r="H19" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60024</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="16">
+      <c r="B20" s="12">
         <v>60025</v>
       </c>
-      <c r="C20" s="16" t="str">
+      <c r="C20" s="12" t="str">
         <f t="shared" ref="C20:C31" si="2">_xlfn.CONCAT("itemname_",B20)</f>
         <v>itemname_60025</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="16">
-        <v>1</v>
-      </c>
-      <c r="G20" s="16">
-        <v>1</v>
-      </c>
-      <c r="H20" s="16" t="str">
+      <c r="F20" s="12">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60025</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="16">
+      <c r="B21" s="12">
         <v>60026</v>
       </c>
-      <c r="C21" s="16" t="str">
+      <c r="C21" s="12" t="str">
         <f t="shared" si="2"/>
         <v>itemname_60026</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="16">
-        <v>1</v>
-      </c>
-      <c r="G21" s="16">
-        <v>1</v>
-      </c>
-      <c r="H21" s="16" t="str">
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60026</v>
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="16">
+      <c r="B22" s="12">
         <v>60027</v>
       </c>
-      <c r="C22" s="16" t="str">
+      <c r="C22" s="12" t="str">
         <f t="shared" si="2"/>
         <v>itemname_60027</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="16">
-        <v>1</v>
-      </c>
-      <c r="G22" s="16">
-        <v>1</v>
-      </c>
-      <c r="H22" s="16" t="str">
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60027</v>
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="16">
+      <c r="B23" s="12">
         <v>60028</v>
       </c>
-      <c r="C23" s="16" t="str">
+      <c r="C23" s="12" t="str">
         <f t="shared" si="2"/>
         <v>itemname_60028</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="16">
-        <v>1</v>
-      </c>
-      <c r="G23" s="16">
-        <v>1</v>
-      </c>
-      <c r="H23" s="16" t="str">
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1</v>
+      </c>
+      <c r="H23" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60028</v>
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="16">
+      <c r="B24" s="12">
         <v>60029</v>
       </c>
-      <c r="C24" s="16" t="str">
+      <c r="C24" s="12" t="str">
         <f t="shared" si="2"/>
         <v>itemname_60029</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="16">
-        <v>1</v>
-      </c>
-      <c r="G24" s="16">
-        <v>1</v>
-      </c>
-      <c r="H24" s="16" t="str">
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60029</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="16">
+      <c r="B25" s="12">
         <v>60030</v>
       </c>
-      <c r="C25" s="16" t="str">
+      <c r="C25" s="12" t="str">
         <f t="shared" si="2"/>
         <v>itemname_60030</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="16">
-        <v>1</v>
-      </c>
-      <c r="G25" s="16">
-        <v>1</v>
-      </c>
-      <c r="H25" s="16" t="str">
+      <c r="F25" s="12">
+        <v>1</v>
+      </c>
+      <c r="G25" s="12">
+        <v>1</v>
+      </c>
+      <c r="H25" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60030</v>
       </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="16">
+      <c r="B26" s="12">
         <v>60031</v>
       </c>
-      <c r="C26" s="16" t="str">
+      <c r="C26" s="12" t="str">
         <f t="shared" si="2"/>
         <v>itemname_60031</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="16">
-        <v>1</v>
-      </c>
-      <c r="G26" s="16">
-        <v>1</v>
-      </c>
-      <c r="H26" s="16" t="str">
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+      <c r="G26" s="12">
+        <v>1</v>
+      </c>
+      <c r="H26" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60031</v>
       </c>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="16">
+      <c r="B27" s="12">
         <v>60032</v>
       </c>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="12" t="str">
         <f t="shared" si="2"/>
         <v>itemname_60032</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="16">
-        <v>1</v>
-      </c>
-      <c r="G27" s="16">
-        <v>1</v>
-      </c>
-      <c r="H27" s="16" t="str">
+      <c r="F27" s="12">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60032</v>
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="16">
+      <c r="B28" s="12">
         <v>60033</v>
       </c>
-      <c r="C28" s="16" t="str">
+      <c r="C28" s="12" t="str">
         <f t="shared" si="2"/>
         <v>itemname_60033</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="16">
-        <v>1</v>
-      </c>
-      <c r="G28" s="16">
-        <v>1</v>
-      </c>
-      <c r="H28" s="16" t="str">
+      <c r="F28" s="12">
+        <v>1</v>
+      </c>
+      <c r="G28" s="12">
+        <v>1</v>
+      </c>
+      <c r="H28" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60033</v>
       </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="16">
+      <c r="B29" s="12">
         <v>60034</v>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="12" t="str">
         <f t="shared" si="2"/>
         <v>itemname_60034</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="16">
-        <v>1</v>
-      </c>
-      <c r="G29" s="16">
-        <v>1</v>
-      </c>
-      <c r="H29" s="16" t="str">
+      <c r="F29" s="12">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12">
+        <v>1</v>
+      </c>
+      <c r="H29" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60034</v>
       </c>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="16">
+      <c r="B30" s="12">
         <v>60035</v>
       </c>
-      <c r="C30" s="16" t="str">
+      <c r="C30" s="12" t="str">
         <f t="shared" si="2"/>
         <v>itemname_60035</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="16">
-        <v>1</v>
-      </c>
-      <c r="G30" s="16">
-        <v>1</v>
-      </c>
-      <c r="H30" s="16" t="str">
+      <c r="F30" s="12">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12">
+        <v>1</v>
+      </c>
+      <c r="H30" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60035</v>
       </c>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="16">
+      <c r="B31" s="12">
         <v>60036</v>
       </c>
-      <c r="C31" s="16" t="str">
+      <c r="C31" s="12" t="str">
         <f t="shared" si="2"/>
         <v>itemname_60036</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="16">
-        <v>1</v>
-      </c>
-      <c r="G31" s="16">
-        <v>1</v>
-      </c>
-      <c r="H31" s="16" t="str">
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12">
+        <v>1</v>
+      </c>
+      <c r="H31" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_60036</v>
       </c>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="16">
+      <c r="B32" s="12">
         <v>60037</v>
       </c>
-      <c r="C32" s="16" t="str">
+      <c r="C32" s="12" t="str">
         <f t="shared" ref="C32:C37" si="3">_xlfn.CONCAT("itemname_",B32)</f>
         <v>itemname_60037</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="16">
-        <v>1</v>
-      </c>
-      <c r="G32" s="16">
-        <v>1</v>
-      </c>
-      <c r="H32" s="16" t="str">
+      <c r="F32" s="12">
+        <v>1</v>
+      </c>
+      <c r="G32" s="12">
+        <v>1</v>
+      </c>
+      <c r="H32" s="12" t="str">
         <f t="shared" ref="H32:H37" si="4">_xlfn.CONCAT("itemicon_",B32)</f>
         <v>itemicon_60037</v>
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="16">
+      <c r="B33" s="12">
         <v>60038</v>
       </c>
-      <c r="C33" s="16" t="str">
+      <c r="C33" s="12" t="str">
         <f t="shared" si="3"/>
         <v>itemname_60038</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="16">
-        <v>1</v>
-      </c>
-      <c r="G33" s="16">
-        <v>1</v>
-      </c>
-      <c r="H33" s="16" t="str">
+      <c r="F33" s="12">
+        <v>1</v>
+      </c>
+      <c r="G33" s="12">
+        <v>1</v>
+      </c>
+      <c r="H33" s="12" t="str">
         <f t="shared" si="4"/>
         <v>itemicon_60038</v>
       </c>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="16">
+      <c r="B34" s="12">
         <v>60039</v>
       </c>
-      <c r="C34" s="16" t="str">
+      <c r="C34" s="12" t="str">
         <f t="shared" si="3"/>
         <v>itemname_60039</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="16">
-        <v>1</v>
-      </c>
-      <c r="G34" s="16">
-        <v>1</v>
-      </c>
-      <c r="H34" s="16" t="str">
+      <c r="F34" s="12">
+        <v>1</v>
+      </c>
+      <c r="G34" s="12">
+        <v>1</v>
+      </c>
+      <c r="H34" s="12" t="str">
         <f t="shared" si="4"/>
         <v>itemicon_60039</v>
       </c>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="16">
+      <c r="B35" s="12">
         <v>60040</v>
       </c>
-      <c r="C35" s="16" t="str">
+      <c r="C35" s="12" t="str">
         <f t="shared" si="3"/>
         <v>itemname_60040</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="16">
-        <v>1</v>
-      </c>
-      <c r="G35" s="16">
-        <v>1</v>
-      </c>
-      <c r="H35" s="16" t="str">
+      <c r="F35" s="12">
+        <v>1</v>
+      </c>
+      <c r="G35" s="12">
+        <v>1</v>
+      </c>
+      <c r="H35" s="12" t="str">
         <f t="shared" si="4"/>
         <v>itemicon_60040</v>
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="16">
+      <c r="B36" s="12">
         <v>60041</v>
       </c>
-      <c r="C36" s="16" t="str">
+      <c r="C36" s="12" t="str">
         <f t="shared" si="3"/>
         <v>itemname_60041</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="16">
-        <v>1</v>
-      </c>
-      <c r="G36" s="16">
-        <v>1</v>
-      </c>
-      <c r="H36" s="16" t="str">
+      <c r="F36" s="12">
+        <v>1</v>
+      </c>
+      <c r="G36" s="12">
+        <v>1</v>
+      </c>
+      <c r="H36" s="12" t="str">
         <f t="shared" si="4"/>
         <v>itemicon_60041</v>
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="16">
+      <c r="B37" s="12">
         <v>60042</v>
       </c>
-      <c r="C37" s="16" t="str">
+      <c r="C37" s="12" t="str">
         <f t="shared" si="3"/>
         <v>itemname_60042</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F37" s="16">
-        <v>1</v>
-      </c>
-      <c r="G37" s="16">
-        <v>1</v>
-      </c>
-      <c r="H37" s="16" t="str">
+      <c r="F37" s="12">
+        <v>1</v>
+      </c>
+      <c r="G37" s="12">
+        <v>1</v>
+      </c>
+      <c r="H37" s="12" t="str">
         <f t="shared" si="4"/>
         <v>itemicon_60042</v>
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="16">
+      <c r="B38" s="12">
         <v>60043</v>
       </c>
-      <c r="C38" s="16" t="str">
+      <c r="C38" s="12" t="str">
         <f t="shared" ref="C38:C49" si="5">_xlfn.CONCAT("itemname_",B38)</f>
         <v>itemname_60043</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="16">
-        <v>1</v>
-      </c>
-      <c r="G38" s="16">
-        <v>1</v>
-      </c>
-      <c r="H38" s="16" t="str">
+      <c r="F38" s="12">
+        <v>1</v>
+      </c>
+      <c r="G38" s="12">
+        <v>1</v>
+      </c>
+      <c r="H38" s="12" t="str">
         <f t="shared" ref="H38:H49" si="6">_xlfn.CONCAT("itemicon_",B38)</f>
         <v>itemicon_60043</v>
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="16">
+      <c r="B39" s="12">
         <v>60044</v>
       </c>
-      <c r="C39" s="16" t="str">
+      <c r="C39" s="12" t="str">
         <f t="shared" si="5"/>
         <v>itemname_60044</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="16">
-        <v>1</v>
-      </c>
-      <c r="G39" s="16">
-        <v>1</v>
-      </c>
-      <c r="H39" s="16" t="str">
+      <c r="F39" s="12">
+        <v>1</v>
+      </c>
+      <c r="G39" s="12">
+        <v>1</v>
+      </c>
+      <c r="H39" s="12" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60044</v>
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="16">
+      <c r="B40" s="12">
         <v>60045</v>
       </c>
-      <c r="C40" s="16" t="str">
+      <c r="C40" s="12" t="str">
         <f t="shared" si="5"/>
         <v>itemname_60045</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="16">
-        <v>1</v>
-      </c>
-      <c r="G40" s="16">
-        <v>1</v>
-      </c>
-      <c r="H40" s="16" t="str">
+      <c r="F40" s="12">
+        <v>1</v>
+      </c>
+      <c r="G40" s="12">
+        <v>1</v>
+      </c>
+      <c r="H40" s="12" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60045</v>
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="16">
+      <c r="B41" s="12">
         <v>60046</v>
       </c>
-      <c r="C41" s="16" t="str">
+      <c r="C41" s="12" t="str">
         <f t="shared" si="5"/>
         <v>itemname_60046</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="16">
-        <v>1</v>
-      </c>
-      <c r="G41" s="16">
-        <v>1</v>
-      </c>
-      <c r="H41" s="16" t="str">
+      <c r="F41" s="12">
+        <v>1</v>
+      </c>
+      <c r="G41" s="12">
+        <v>1</v>
+      </c>
+      <c r="H41" s="12" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60046</v>
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="16">
+      <c r="B42" s="12">
         <v>60047</v>
       </c>
-      <c r="C42" s="16" t="str">
+      <c r="C42" s="12" t="str">
         <f t="shared" si="5"/>
         <v>itemname_60047</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="16">
-        <v>1</v>
-      </c>
-      <c r="G42" s="16">
-        <v>1</v>
-      </c>
-      <c r="H42" s="16" t="str">
+      <c r="F42" s="12">
+        <v>1</v>
+      </c>
+      <c r="G42" s="12">
+        <v>1</v>
+      </c>
+      <c r="H42" s="12" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60047</v>
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="16">
+      <c r="B43" s="12">
         <v>60048</v>
       </c>
-      <c r="C43" s="16" t="str">
+      <c r="C43" s="12" t="str">
         <f t="shared" si="5"/>
         <v>itemname_60048</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="16">
-        <v>1</v>
-      </c>
-      <c r="G43" s="16">
-        <v>1</v>
-      </c>
-      <c r="H43" s="16" t="str">
+      <c r="F43" s="12">
+        <v>1</v>
+      </c>
+      <c r="G43" s="12">
+        <v>1</v>
+      </c>
+      <c r="H43" s="12" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60048</v>
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="16">
+      <c r="B44" s="12">
         <v>60049</v>
       </c>
-      <c r="C44" s="16" t="str">
+      <c r="C44" s="12" t="str">
         <f t="shared" si="5"/>
         <v>itemname_60049</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F44" s="16">
-        <v>1</v>
-      </c>
-      <c r="G44" s="16">
-        <v>1</v>
-      </c>
-      <c r="H44" s="16" t="str">
+      <c r="F44" s="12">
+        <v>1</v>
+      </c>
+      <c r="G44" s="12">
+        <v>1</v>
+      </c>
+      <c r="H44" s="12" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60049</v>
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="16">
+      <c r="B45" s="12">
         <v>60050</v>
       </c>
-      <c r="C45" s="16" t="str">
+      <c r="C45" s="12" t="str">
         <f t="shared" si="5"/>
         <v>itemname_60050</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F45" s="16">
-        <v>1</v>
-      </c>
-      <c r="G45" s="16">
-        <v>1</v>
-      </c>
-      <c r="H45" s="16" t="str">
+      <c r="F45" s="12">
+        <v>1</v>
+      </c>
+      <c r="G45" s="12">
+        <v>1</v>
+      </c>
+      <c r="H45" s="12" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60050</v>
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="16">
+      <c r="B46" s="12">
         <v>60051</v>
       </c>
-      <c r="C46" s="16" t="str">
+      <c r="C46" s="12" t="str">
         <f t="shared" si="5"/>
         <v>itemname_60051</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="16">
-        <v>1</v>
-      </c>
-      <c r="G46" s="16">
-        <v>1</v>
-      </c>
-      <c r="H46" s="16" t="str">
+      <c r="F46" s="12">
+        <v>1</v>
+      </c>
+      <c r="G46" s="12">
+        <v>1</v>
+      </c>
+      <c r="H46" s="12" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60051</v>
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="16">
+      <c r="B47" s="12">
         <v>60052</v>
       </c>
-      <c r="C47" s="16" t="str">
+      <c r="C47" s="12" t="str">
         <f t="shared" si="5"/>
         <v>itemname_60052</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F47" s="16">
-        <v>1</v>
-      </c>
-      <c r="G47" s="16">
-        <v>1</v>
-      </c>
-      <c r="H47" s="16" t="str">
+      <c r="F47" s="12">
+        <v>1</v>
+      </c>
+      <c r="G47" s="12">
+        <v>1</v>
+      </c>
+      <c r="H47" s="12" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60052</v>
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="16">
+      <c r="B48" s="12">
         <v>60053</v>
       </c>
-      <c r="C48" s="16" t="str">
+      <c r="C48" s="12" t="str">
         <f t="shared" si="5"/>
         <v>itemname_60053</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F48" s="16">
-        <v>1</v>
-      </c>
-      <c r="G48" s="16">
-        <v>1</v>
-      </c>
-      <c r="H48" s="16" t="str">
+      <c r="F48" s="12">
+        <v>1</v>
+      </c>
+      <c r="G48" s="12">
+        <v>1</v>
+      </c>
+      <c r="H48" s="12" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60053</v>
       </c>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="16">
+      <c r="B49" s="12">
         <v>60054</v>
       </c>
-      <c r="C49" s="16" t="str">
+      <c r="C49" s="12" t="str">
         <f t="shared" si="5"/>
         <v>itemname_60054</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="16">
-        <v>1</v>
-      </c>
-      <c r="G49" s="16">
-        <v>1</v>
-      </c>
-      <c r="H49" s="16" t="str">
+      <c r="F49" s="12">
+        <v>1</v>
+      </c>
+      <c r="G49" s="12">
+        <v>1</v>
+      </c>
+      <c r="H49" s="12" t="str">
         <f t="shared" si="6"/>
         <v>itemicon_60054</v>
       </c>
@@ -3952,1850 +3941,1850 @@
     <col min="8" max="8" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="8" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" s="12" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" s="9" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" s="13" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" s="11" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" s="8" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" ht="17.25" spans="2:8">
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <v>610001</v>
       </c>
-      <c r="C5" s="16" t="str">
+      <c r="C5" s="12" t="str">
         <f t="shared" ref="C5:C68" si="0">_xlfn.CONCAT("itemname_",B5)</f>
         <v>itemname_610001</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="16">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16">
-        <v>999</v>
-      </c>
-      <c r="H5" s="16" t="str">
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <v>999</v>
+      </c>
+      <c r="H5" s="12" t="str">
         <f t="shared" ref="H5:H68" si="1">_xlfn.CONCAT("itemicon_",B5)</f>
         <v>itemicon_610001</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="2:8">
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <v>610002</v>
       </c>
-      <c r="C6" s="16" t="str">
+      <c r="C6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610002</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="16">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16">
-        <v>999</v>
-      </c>
-      <c r="H6" s="16" t="str">
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>999</v>
+      </c>
+      <c r="H6" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610002</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="2:8">
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <v>610003</v>
       </c>
-      <c r="C7" s="16" t="str">
+      <c r="C7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610003</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="16">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16">
-        <v>999</v>
-      </c>
-      <c r="H7" s="16" t="str">
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>999</v>
+      </c>
+      <c r="H7" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610003</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="2:8">
-      <c r="B8" s="15">
+      <c r="B8" s="11">
         <v>610004</v>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610004</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="16">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16">
-        <v>999</v>
-      </c>
-      <c r="H8" s="16" t="str">
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
+        <v>999</v>
+      </c>
+      <c r="H8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610004</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="2:8">
-      <c r="B9" s="15">
+      <c r="B9" s="11">
         <v>610005</v>
       </c>
-      <c r="C9" s="16" t="str">
+      <c r="C9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610005</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16">
-        <v>999</v>
-      </c>
-      <c r="H9" s="16" t="str">
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>999</v>
+      </c>
+      <c r="H9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610005</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="2:8">
-      <c r="B10" s="15">
+      <c r="B10" s="11">
         <v>610006</v>
       </c>
-      <c r="C10" s="16" t="str">
+      <c r="C10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610006</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16">
-        <v>999</v>
-      </c>
-      <c r="H10" s="16" t="str">
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12">
+        <v>999</v>
+      </c>
+      <c r="H10" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610006</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="2:8">
-      <c r="B11" s="15">
+      <c r="B11" s="11">
         <v>610007</v>
       </c>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610007</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="16">
-        <v>1</v>
-      </c>
-      <c r="G11" s="16">
-        <v>999</v>
-      </c>
-      <c r="H11" s="16" t="str">
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
+        <v>999</v>
+      </c>
+      <c r="H11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610007</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="2:8">
-      <c r="B12" s="15">
+      <c r="B12" s="11">
         <v>610008</v>
       </c>
-      <c r="C12" s="16" t="str">
+      <c r="C12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610008</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16">
-        <v>999</v>
-      </c>
-      <c r="H12" s="16" t="str">
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12">
+        <v>999</v>
+      </c>
+      <c r="H12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610008</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="2:8">
-      <c r="B13" s="15">
+      <c r="B13" s="11">
         <v>610009</v>
       </c>
-      <c r="C13" s="16" t="str">
+      <c r="C13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610009</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16">
-        <v>999</v>
-      </c>
-      <c r="H13" s="16" t="str">
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>999</v>
+      </c>
+      <c r="H13" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610009</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="2:8">
-      <c r="B14" s="15">
+      <c r="B14" s="11">
         <v>610010</v>
       </c>
-      <c r="C14" s="16" t="str">
+      <c r="C14" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_610010</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16">
-        <v>999</v>
-      </c>
-      <c r="H14" s="16" t="str">
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12">
+        <v>999</v>
+      </c>
+      <c r="H14" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_610010</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="2:8">
-      <c r="B15" s="15">
+      <c r="B15" s="11">
         <v>620001</v>
       </c>
-      <c r="C15" s="16" t="str">
+      <c r="C15" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620001</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="16">
-        <v>1</v>
-      </c>
-      <c r="G15" s="16">
-        <v>999</v>
-      </c>
-      <c r="H15" s="16" t="str">
+      <c r="F15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12">
+        <v>999</v>
+      </c>
+      <c r="H15" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620001</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="2:8">
-      <c r="B16" s="15">
+      <c r="B16" s="11">
         <v>620002</v>
       </c>
-      <c r="C16" s="16" t="str">
+      <c r="C16" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620002</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="16">
-        <v>999</v>
-      </c>
-      <c r="H16" s="16" t="str">
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
+        <v>999</v>
+      </c>
+      <c r="H16" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620002</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="2:8">
-      <c r="B17" s="15">
+      <c r="B17" s="11">
         <v>620003</v>
       </c>
-      <c r="C17" s="16" t="str">
+      <c r="C17" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620003</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="16">
-        <v>1</v>
-      </c>
-      <c r="G17" s="16">
-        <v>999</v>
-      </c>
-      <c r="H17" s="16" t="str">
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12">
+        <v>999</v>
+      </c>
+      <c r="H17" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620003</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="2:8">
-      <c r="B18" s="15">
+      <c r="B18" s="11">
         <v>620004</v>
       </c>
-      <c r="C18" s="16" t="str">
+      <c r="C18" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620004</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="16">
-        <v>1</v>
-      </c>
-      <c r="G18" s="16">
-        <v>999</v>
-      </c>
-      <c r="H18" s="16" t="str">
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12">
+        <v>999</v>
+      </c>
+      <c r="H18" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620004</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="2:8">
-      <c r="B19" s="15">
+      <c r="B19" s="11">
         <v>620005</v>
       </c>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620005</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="16">
-        <v>1</v>
-      </c>
-      <c r="G19" s="16">
-        <v>999</v>
-      </c>
-      <c r="H19" s="16" t="str">
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12">
+        <v>999</v>
+      </c>
+      <c r="H19" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620005</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="2:8">
-      <c r="B20" s="15">
+      <c r="B20" s="11">
         <v>620006</v>
       </c>
-      <c r="C20" s="16" t="str">
+      <c r="C20" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620006</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="16">
-        <v>1</v>
-      </c>
-      <c r="G20" s="16">
-        <v>999</v>
-      </c>
-      <c r="H20" s="16" t="str">
+      <c r="F20" s="12">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12">
+        <v>999</v>
+      </c>
+      <c r="H20" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620006</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="2:8">
-      <c r="B21" s="15">
+      <c r="B21" s="11">
         <v>620007</v>
       </c>
-      <c r="C21" s="16" t="str">
+      <c r="C21" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620007</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="16">
-        <v>1</v>
-      </c>
-      <c r="G21" s="16">
-        <v>999</v>
-      </c>
-      <c r="H21" s="16" t="str">
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12">
+        <v>999</v>
+      </c>
+      <c r="H21" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620007</v>
       </c>
     </row>
     <row r="22" ht="17.25" spans="2:8">
-      <c r="B22" s="15">
+      <c r="B22" s="11">
         <v>620008</v>
       </c>
-      <c r="C22" s="16" t="str">
+      <c r="C22" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620008</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="16">
-        <v>1</v>
-      </c>
-      <c r="G22" s="16">
-        <v>999</v>
-      </c>
-      <c r="H22" s="16" t="str">
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12">
+        <v>999</v>
+      </c>
+      <c r="H22" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620008</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="2:8">
-      <c r="B23" s="15">
+      <c r="B23" s="11">
         <v>620009</v>
       </c>
-      <c r="C23" s="16" t="str">
+      <c r="C23" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620009</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="16">
-        <v>1</v>
-      </c>
-      <c r="G23" s="16">
-        <v>999</v>
-      </c>
-      <c r="H23" s="16" t="str">
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12">
+        <v>999</v>
+      </c>
+      <c r="H23" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620009</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="2:8">
-      <c r="B24" s="15">
+      <c r="B24" s="11">
         <v>620010</v>
       </c>
-      <c r="C24" s="16" t="str">
+      <c r="C24" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_620010</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="16">
-        <v>1</v>
-      </c>
-      <c r="G24" s="16">
-        <v>999</v>
-      </c>
-      <c r="H24" s="16" t="str">
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12">
+        <v>999</v>
+      </c>
+      <c r="H24" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_620010</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="2:8">
-      <c r="B25" s="15">
+      <c r="B25" s="11">
         <v>630001</v>
       </c>
-      <c r="C25" s="16" t="str">
+      <c r="C25" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630001</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="16">
-        <v>1</v>
-      </c>
-      <c r="G25" s="16">
-        <v>999</v>
-      </c>
-      <c r="H25" s="16" t="str">
+      <c r="F25" s="12">
+        <v>1</v>
+      </c>
+      <c r="G25" s="12">
+        <v>999</v>
+      </c>
+      <c r="H25" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630001</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="2:8">
-      <c r="B26" s="15">
+      <c r="B26" s="11">
         <v>630002</v>
       </c>
-      <c r="C26" s="16" t="str">
+      <c r="C26" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630002</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="16">
-        <v>1</v>
-      </c>
-      <c r="G26" s="16">
-        <v>999</v>
-      </c>
-      <c r="H26" s="16" t="str">
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+      <c r="G26" s="12">
+        <v>999</v>
+      </c>
+      <c r="H26" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630002</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="2:8">
-      <c r="B27" s="15">
+      <c r="B27" s="11">
         <v>630003</v>
       </c>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630003</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="16">
-        <v>1</v>
-      </c>
-      <c r="G27" s="16">
-        <v>999</v>
-      </c>
-      <c r="H27" s="16" t="str">
+      <c r="F27" s="12">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12">
+        <v>999</v>
+      </c>
+      <c r="H27" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630003</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="2:8">
-      <c r="B28" s="15">
+      <c r="B28" s="11">
         <v>630004</v>
       </c>
-      <c r="C28" s="16" t="str">
+      <c r="C28" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630004</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="16">
-        <v>1</v>
-      </c>
-      <c r="G28" s="16">
-        <v>999</v>
-      </c>
-      <c r="H28" s="16" t="str">
+      <c r="F28" s="12">
+        <v>1</v>
+      </c>
+      <c r="G28" s="12">
+        <v>999</v>
+      </c>
+      <c r="H28" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630004</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="2:8">
-      <c r="B29" s="15">
+      <c r="B29" s="11">
         <v>630005</v>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630005</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="16">
-        <v>1</v>
-      </c>
-      <c r="G29" s="16">
-        <v>999</v>
-      </c>
-      <c r="H29" s="16" t="str">
+      <c r="F29" s="12">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12">
+        <v>999</v>
+      </c>
+      <c r="H29" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630005</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="2:8">
-      <c r="B30" s="15">
+      <c r="B30" s="11">
         <v>630006</v>
       </c>
-      <c r="C30" s="16" t="str">
+      <c r="C30" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630006</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="16">
-        <v>1</v>
-      </c>
-      <c r="G30" s="16">
-        <v>999</v>
-      </c>
-      <c r="H30" s="16" t="str">
+      <c r="F30" s="12">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12">
+        <v>999</v>
+      </c>
+      <c r="H30" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630006</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="2:8">
-      <c r="B31" s="15">
+      <c r="B31" s="11">
         <v>630007</v>
       </c>
-      <c r="C31" s="16" t="str">
+      <c r="C31" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630007</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="16">
-        <v>1</v>
-      </c>
-      <c r="G31" s="16">
-        <v>999</v>
-      </c>
-      <c r="H31" s="16" t="str">
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12">
+        <v>999</v>
+      </c>
+      <c r="H31" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630007</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="2:8">
-      <c r="B32" s="15">
+      <c r="B32" s="11">
         <v>630008</v>
       </c>
-      <c r="C32" s="16" t="str">
+      <c r="C32" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630008</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="16">
-        <v>1</v>
-      </c>
-      <c r="G32" s="16">
-        <v>999</v>
-      </c>
-      <c r="H32" s="16" t="str">
+      <c r="F32" s="12">
+        <v>1</v>
+      </c>
+      <c r="G32" s="12">
+        <v>999</v>
+      </c>
+      <c r="H32" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630008</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="2:8">
-      <c r="B33" s="15">
+      <c r="B33" s="11">
         <v>630009</v>
       </c>
-      <c r="C33" s="16" t="str">
+      <c r="C33" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630009</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="16">
-        <v>1</v>
-      </c>
-      <c r="G33" s="16">
-        <v>999</v>
-      </c>
-      <c r="H33" s="16" t="str">
+      <c r="F33" s="12">
+        <v>1</v>
+      </c>
+      <c r="G33" s="12">
+        <v>999</v>
+      </c>
+      <c r="H33" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630009</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="2:8">
-      <c r="B34" s="15">
+      <c r="B34" s="11">
         <v>630010</v>
       </c>
-      <c r="C34" s="16" t="str">
+      <c r="C34" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_630010</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="16">
-        <v>1</v>
-      </c>
-      <c r="G34" s="16">
-        <v>999</v>
-      </c>
-      <c r="H34" s="16" t="str">
+      <c r="F34" s="12">
+        <v>1</v>
+      </c>
+      <c r="G34" s="12">
+        <v>999</v>
+      </c>
+      <c r="H34" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_630010</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="2:8">
-      <c r="B35" s="17">
+      <c r="B35" s="13">
         <v>640001</v>
       </c>
-      <c r="C35" s="16" t="str">
+      <c r="C35" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640001</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="16">
-        <v>1</v>
-      </c>
-      <c r="G35" s="16">
-        <v>999</v>
-      </c>
-      <c r="H35" s="16" t="str">
+      <c r="F35" s="12">
+        <v>1</v>
+      </c>
+      <c r="G35" s="12">
+        <v>999</v>
+      </c>
+      <c r="H35" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640001</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="2:8">
-      <c r="B36" s="17">
+      <c r="B36" s="13">
         <v>640002</v>
       </c>
-      <c r="C36" s="16" t="str">
+      <c r="C36" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640002</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="16">
-        <v>1</v>
-      </c>
-      <c r="G36" s="16">
-        <v>999</v>
-      </c>
-      <c r="H36" s="16" t="str">
+      <c r="F36" s="12">
+        <v>1</v>
+      </c>
+      <c r="G36" s="12">
+        <v>999</v>
+      </c>
+      <c r="H36" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640002</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="2:8">
-      <c r="B37" s="17">
+      <c r="B37" s="13">
         <v>640003</v>
       </c>
-      <c r="C37" s="16" t="str">
+      <c r="C37" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640003</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="16">
-        <v>1</v>
-      </c>
-      <c r="G37" s="16">
-        <v>999</v>
-      </c>
-      <c r="H37" s="16" t="str">
+      <c r="F37" s="12">
+        <v>1</v>
+      </c>
+      <c r="G37" s="12">
+        <v>999</v>
+      </c>
+      <c r="H37" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640003</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="2:8">
-      <c r="B38" s="17">
+      <c r="B38" s="13">
         <v>640004</v>
       </c>
-      <c r="C38" s="16" t="str">
+      <c r="C38" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640004</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="16">
-        <v>1</v>
-      </c>
-      <c r="G38" s="16">
-        <v>999</v>
-      </c>
-      <c r="H38" s="16" t="str">
+      <c r="F38" s="12">
+        <v>1</v>
+      </c>
+      <c r="G38" s="12">
+        <v>999</v>
+      </c>
+      <c r="H38" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640004</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="2:8">
-      <c r="B39" s="17">
+      <c r="B39" s="13">
         <v>640005</v>
       </c>
-      <c r="C39" s="16" t="str">
+      <c r="C39" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640005</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="16">
-        <v>1</v>
-      </c>
-      <c r="G39" s="16">
-        <v>999</v>
-      </c>
-      <c r="H39" s="16" t="str">
+      <c r="F39" s="12">
+        <v>1</v>
+      </c>
+      <c r="G39" s="12">
+        <v>999</v>
+      </c>
+      <c r="H39" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640005</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="2:8">
-      <c r="B40" s="17">
+      <c r="B40" s="13">
         <v>640006</v>
       </c>
-      <c r="C40" s="16" t="str">
+      <c r="C40" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640006</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="16">
-        <v>1</v>
-      </c>
-      <c r="G40" s="16">
-        <v>999</v>
-      </c>
-      <c r="H40" s="16" t="str">
+      <c r="F40" s="12">
+        <v>1</v>
+      </c>
+      <c r="G40" s="12">
+        <v>999</v>
+      </c>
+      <c r="H40" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640006</v>
       </c>
     </row>
     <row r="41" ht="17.25" spans="2:8">
-      <c r="B41" s="17">
+      <c r="B41" s="13">
         <v>640007</v>
       </c>
-      <c r="C41" s="16" t="str">
+      <c r="C41" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640007</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="16">
-        <v>1</v>
-      </c>
-      <c r="G41" s="16">
-        <v>999</v>
-      </c>
-      <c r="H41" s="16" t="str">
+      <c r="F41" s="12">
+        <v>1</v>
+      </c>
+      <c r="G41" s="12">
+        <v>999</v>
+      </c>
+      <c r="H41" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640007</v>
       </c>
     </row>
     <row r="42" ht="17.25" spans="2:8">
-      <c r="B42" s="17">
+      <c r="B42" s="13">
         <v>640008</v>
       </c>
-      <c r="C42" s="16" t="str">
+      <c r="C42" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640008</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F42" s="16">
-        <v>1</v>
-      </c>
-      <c r="G42" s="16">
-        <v>999</v>
-      </c>
-      <c r="H42" s="16" t="str">
+      <c r="F42" s="12">
+        <v>1</v>
+      </c>
+      <c r="G42" s="12">
+        <v>999</v>
+      </c>
+      <c r="H42" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640008</v>
       </c>
     </row>
     <row r="43" ht="17.25" spans="2:8">
-      <c r="B43" s="17">
+      <c r="B43" s="13">
         <v>640009</v>
       </c>
-      <c r="C43" s="16" t="str">
+      <c r="C43" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640009</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="16">
-        <v>1</v>
-      </c>
-      <c r="G43" s="16">
-        <v>999</v>
-      </c>
-      <c r="H43" s="16" t="str">
+      <c r="F43" s="12">
+        <v>1</v>
+      </c>
+      <c r="G43" s="12">
+        <v>999</v>
+      </c>
+      <c r="H43" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640009</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="2:8">
-      <c r="B44" s="17">
+      <c r="B44" s="13">
         <v>640010</v>
       </c>
-      <c r="C44" s="16" t="str">
+      <c r="C44" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_640010</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="16">
-        <v>1</v>
-      </c>
-      <c r="G44" s="16">
-        <v>999</v>
-      </c>
-      <c r="H44" s="16" t="str">
+      <c r="F44" s="12">
+        <v>1</v>
+      </c>
+      <c r="G44" s="12">
+        <v>999</v>
+      </c>
+      <c r="H44" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_640010</v>
       </c>
     </row>
     <row r="45" ht="17.25" spans="2:8">
-      <c r="B45" s="17">
+      <c r="B45" s="13">
         <v>650001</v>
       </c>
-      <c r="C45" s="16" t="str">
+      <c r="C45" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650001</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="16">
-        <v>1</v>
-      </c>
-      <c r="G45" s="16">
-        <v>999</v>
-      </c>
-      <c r="H45" s="16" t="str">
+      <c r="F45" s="12">
+        <v>1</v>
+      </c>
+      <c r="G45" s="12">
+        <v>999</v>
+      </c>
+      <c r="H45" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650001</v>
       </c>
     </row>
     <row r="46" ht="17.25" spans="2:8">
-      <c r="B46" s="17">
+      <c r="B46" s="13">
         <v>650002</v>
       </c>
-      <c r="C46" s="16" t="str">
+      <c r="C46" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650002</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="16">
-        <v>1</v>
-      </c>
-      <c r="G46" s="16">
-        <v>999</v>
-      </c>
-      <c r="H46" s="16" t="str">
+      <c r="F46" s="12">
+        <v>1</v>
+      </c>
+      <c r="G46" s="12">
+        <v>999</v>
+      </c>
+      <c r="H46" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650002</v>
       </c>
     </row>
     <row r="47" ht="17.25" spans="2:8">
-      <c r="B47" s="17">
+      <c r="B47" s="13">
         <v>650003</v>
       </c>
-      <c r="C47" s="16" t="str">
+      <c r="C47" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650003</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F47" s="16">
-        <v>1</v>
-      </c>
-      <c r="G47" s="16">
-        <v>999</v>
-      </c>
-      <c r="H47" s="16" t="str">
+      <c r="F47" s="12">
+        <v>1</v>
+      </c>
+      <c r="G47" s="12">
+        <v>999</v>
+      </c>
+      <c r="H47" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650003</v>
       </c>
     </row>
     <row r="48" ht="17.25" spans="2:8">
-      <c r="B48" s="17">
+      <c r="B48" s="13">
         <v>650004</v>
       </c>
-      <c r="C48" s="16" t="str">
+      <c r="C48" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650004</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F48" s="16">
-        <v>1</v>
-      </c>
-      <c r="G48" s="16">
-        <v>999</v>
-      </c>
-      <c r="H48" s="16" t="str">
+      <c r="F48" s="12">
+        <v>1</v>
+      </c>
+      <c r="G48" s="12">
+        <v>999</v>
+      </c>
+      <c r="H48" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650004</v>
       </c>
     </row>
     <row r="49" ht="17.25" spans="2:8">
-      <c r="B49" s="17">
+      <c r="B49" s="13">
         <v>650005</v>
       </c>
-      <c r="C49" s="16" t="str">
+      <c r="C49" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650005</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="16">
-        <v>1</v>
-      </c>
-      <c r="G49" s="16">
-        <v>999</v>
-      </c>
-      <c r="H49" s="16" t="str">
+      <c r="F49" s="12">
+        <v>1</v>
+      </c>
+      <c r="G49" s="12">
+        <v>999</v>
+      </c>
+      <c r="H49" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650005</v>
       </c>
     </row>
     <row r="50" ht="17.25" spans="2:8">
-      <c r="B50" s="17">
+      <c r="B50" s="13">
         <v>650006</v>
       </c>
-      <c r="C50" s="16" t="str">
+      <c r="C50" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650006</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F50" s="16">
-        <v>1</v>
-      </c>
-      <c r="G50" s="16">
-        <v>999</v>
-      </c>
-      <c r="H50" s="16" t="str">
+      <c r="F50" s="12">
+        <v>1</v>
+      </c>
+      <c r="G50" s="12">
+        <v>999</v>
+      </c>
+      <c r="H50" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650006</v>
       </c>
     </row>
     <row r="51" ht="17.25" spans="2:8">
-      <c r="B51" s="17">
+      <c r="B51" s="13">
         <v>650007</v>
       </c>
-      <c r="C51" s="16" t="str">
+      <c r="C51" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650007</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="16">
-        <v>1</v>
-      </c>
-      <c r="G51" s="16">
-        <v>999</v>
-      </c>
-      <c r="H51" s="16" t="str">
+      <c r="F51" s="12">
+        <v>1</v>
+      </c>
+      <c r="G51" s="12">
+        <v>999</v>
+      </c>
+      <c r="H51" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650007</v>
       </c>
     </row>
     <row r="52" ht="17.25" spans="2:8">
-      <c r="B52" s="17">
+      <c r="B52" s="13">
         <v>650008</v>
       </c>
-      <c r="C52" s="16" t="str">
+      <c r="C52" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650008</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F52" s="16">
-        <v>1</v>
-      </c>
-      <c r="G52" s="16">
-        <v>999</v>
-      </c>
-      <c r="H52" s="16" t="str">
+      <c r="F52" s="12">
+        <v>1</v>
+      </c>
+      <c r="G52" s="12">
+        <v>999</v>
+      </c>
+      <c r="H52" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650008</v>
       </c>
     </row>
     <row r="53" ht="17.25" spans="2:8">
-      <c r="B53" s="17">
+      <c r="B53" s="13">
         <v>650009</v>
       </c>
-      <c r="C53" s="16" t="str">
+      <c r="C53" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650009</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F53" s="16">
-        <v>1</v>
-      </c>
-      <c r="G53" s="16">
-        <v>999</v>
-      </c>
-      <c r="H53" s="16" t="str">
+      <c r="F53" s="12">
+        <v>1</v>
+      </c>
+      <c r="G53" s="12">
+        <v>999</v>
+      </c>
+      <c r="H53" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650009</v>
       </c>
     </row>
     <row r="54" ht="17.25" spans="2:8">
-      <c r="B54" s="17">
+      <c r="B54" s="13">
         <v>650010</v>
       </c>
-      <c r="C54" s="16" t="str">
+      <c r="C54" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_650010</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F54" s="16">
-        <v>1</v>
-      </c>
-      <c r="G54" s="16">
-        <v>999</v>
-      </c>
-      <c r="H54" s="16" t="str">
+      <c r="F54" s="12">
+        <v>1</v>
+      </c>
+      <c r="G54" s="12">
+        <v>999</v>
+      </c>
+      <c r="H54" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_650010</v>
       </c>
     </row>
     <row r="55" ht="17.25" spans="2:8">
-      <c r="B55" s="17">
+      <c r="B55" s="13">
         <v>660001</v>
       </c>
-      <c r="C55" s="16" t="str">
+      <c r="C55" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660001</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F55" s="16">
-        <v>1</v>
-      </c>
-      <c r="G55" s="16">
-        <v>999</v>
-      </c>
-      <c r="H55" s="16" t="str">
+      <c r="F55" s="12">
+        <v>1</v>
+      </c>
+      <c r="G55" s="12">
+        <v>999</v>
+      </c>
+      <c r="H55" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660001</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="2:8">
-      <c r="B56" s="17">
+      <c r="B56" s="13">
         <v>660002</v>
       </c>
-      <c r="C56" s="16" t="str">
+      <c r="C56" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660002</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F56" s="16">
-        <v>1</v>
-      </c>
-      <c r="G56" s="16">
-        <v>999</v>
-      </c>
-      <c r="H56" s="16" t="str">
+      <c r="F56" s="12">
+        <v>1</v>
+      </c>
+      <c r="G56" s="12">
+        <v>999</v>
+      </c>
+      <c r="H56" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660002</v>
       </c>
     </row>
     <row r="57" ht="17.25" spans="2:8">
-      <c r="B57" s="17">
+      <c r="B57" s="13">
         <v>660003</v>
       </c>
-      <c r="C57" s="16" t="str">
+      <c r="C57" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660003</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F57" s="16">
-        <v>1</v>
-      </c>
-      <c r="G57" s="16">
-        <v>999</v>
-      </c>
-      <c r="H57" s="16" t="str">
+      <c r="F57" s="12">
+        <v>1</v>
+      </c>
+      <c r="G57" s="12">
+        <v>999</v>
+      </c>
+      <c r="H57" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660003</v>
       </c>
     </row>
     <row r="58" ht="17.25" spans="2:8">
-      <c r="B58" s="17">
+      <c r="B58" s="13">
         <v>660004</v>
       </c>
-      <c r="C58" s="16" t="str">
+      <c r="C58" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660004</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F58" s="16">
-        <v>1</v>
-      </c>
-      <c r="G58" s="16">
-        <v>999</v>
-      </c>
-      <c r="H58" s="16" t="str">
+      <c r="F58" s="12">
+        <v>1</v>
+      </c>
+      <c r="G58" s="12">
+        <v>999</v>
+      </c>
+      <c r="H58" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660004</v>
       </c>
     </row>
     <row r="59" ht="17.25" spans="2:8">
-      <c r="B59" s="17">
+      <c r="B59" s="13">
         <v>660005</v>
       </c>
-      <c r="C59" s="16" t="str">
+      <c r="C59" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660005</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F59" s="16">
-        <v>1</v>
-      </c>
-      <c r="G59" s="16">
-        <v>999</v>
-      </c>
-      <c r="H59" s="16" t="str">
+      <c r="F59" s="12">
+        <v>1</v>
+      </c>
+      <c r="G59" s="12">
+        <v>999</v>
+      </c>
+      <c r="H59" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660005</v>
       </c>
     </row>
     <row r="60" ht="17.25" spans="2:8">
-      <c r="B60" s="17">
+      <c r="B60" s="13">
         <v>660006</v>
       </c>
-      <c r="C60" s="16" t="str">
+      <c r="C60" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660006</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F60" s="16">
-        <v>1</v>
-      </c>
-      <c r="G60" s="16">
-        <v>999</v>
-      </c>
-      <c r="H60" s="16" t="str">
+      <c r="F60" s="12">
+        <v>1</v>
+      </c>
+      <c r="G60" s="12">
+        <v>999</v>
+      </c>
+      <c r="H60" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660006</v>
       </c>
     </row>
     <row r="61" ht="17.25" spans="2:8">
-      <c r="B61" s="17">
+      <c r="B61" s="13">
         <v>660007</v>
       </c>
-      <c r="C61" s="16" t="str">
+      <c r="C61" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660007</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F61" s="16">
-        <v>1</v>
-      </c>
-      <c r="G61" s="16">
-        <v>999</v>
-      </c>
-      <c r="H61" s="16" t="str">
+      <c r="F61" s="12">
+        <v>1</v>
+      </c>
+      <c r="G61" s="12">
+        <v>999</v>
+      </c>
+      <c r="H61" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660007</v>
       </c>
     </row>
     <row r="62" ht="17.25" spans="2:8">
-      <c r="B62" s="17">
+      <c r="B62" s="13">
         <v>660008</v>
       </c>
-      <c r="C62" s="16" t="str">
+      <c r="C62" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660008</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F62" s="16">
-        <v>1</v>
-      </c>
-      <c r="G62" s="16">
-        <v>999</v>
-      </c>
-      <c r="H62" s="16" t="str">
+      <c r="F62" s="12">
+        <v>1</v>
+      </c>
+      <c r="G62" s="12">
+        <v>999</v>
+      </c>
+      <c r="H62" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660008</v>
       </c>
     </row>
     <row r="63" ht="17.25" spans="2:8">
-      <c r="B63" s="17">
+      <c r="B63" s="13">
         <v>660009</v>
       </c>
-      <c r="C63" s="16" t="str">
+      <c r="C63" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660009</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F63" s="16">
-        <v>1</v>
-      </c>
-      <c r="G63" s="16">
-        <v>999</v>
-      </c>
-      <c r="H63" s="16" t="str">
+      <c r="F63" s="12">
+        <v>1</v>
+      </c>
+      <c r="G63" s="12">
+        <v>999</v>
+      </c>
+      <c r="H63" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660009</v>
       </c>
     </row>
     <row r="64" ht="17.25" spans="2:8">
-      <c r="B64" s="17">
+      <c r="B64" s="13">
         <v>660010</v>
       </c>
-      <c r="C64" s="16" t="str">
+      <c r="C64" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_660010</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="16">
-        <v>1</v>
-      </c>
-      <c r="G64" s="16">
-        <v>999</v>
-      </c>
-      <c r="H64" s="16" t="str">
+      <c r="F64" s="12">
+        <v>1</v>
+      </c>
+      <c r="G64" s="12">
+        <v>999</v>
+      </c>
+      <c r="H64" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_660010</v>
       </c>
     </row>
     <row r="65" ht="16.5" spans="2:8">
-      <c r="B65" s="16">
+      <c r="B65" s="12">
         <v>670001</v>
       </c>
-      <c r="C65" s="16" t="str">
+      <c r="C65" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_670001</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F65" s="16">
-        <v>1</v>
-      </c>
-      <c r="G65" s="16">
-        <v>999</v>
-      </c>
-      <c r="H65" s="16" t="str">
+      <c r="F65" s="12">
+        <v>1</v>
+      </c>
+      <c r="G65" s="12">
+        <v>999</v>
+      </c>
+      <c r="H65" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_670001</v>
       </c>
     </row>
     <row r="66" ht="16.5" spans="2:8">
-      <c r="B66" s="16">
+      <c r="B66" s="12">
         <v>670002</v>
       </c>
-      <c r="C66" s="16" t="str">
+      <c r="C66" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_670002</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F66" s="16">
-        <v>1</v>
-      </c>
-      <c r="G66" s="16">
-        <v>999</v>
-      </c>
-      <c r="H66" s="16" t="str">
+      <c r="F66" s="12">
+        <v>1</v>
+      </c>
+      <c r="G66" s="12">
+        <v>999</v>
+      </c>
+      <c r="H66" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_670002</v>
       </c>
     </row>
     <row r="67" ht="16.5" spans="2:8">
-      <c r="B67" s="16">
+      <c r="B67" s="12">
         <v>670003</v>
       </c>
-      <c r="C67" s="16" t="str">
+      <c r="C67" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_670003</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F67" s="16">
-        <v>1</v>
-      </c>
-      <c r="G67" s="16">
-        <v>999</v>
-      </c>
-      <c r="H67" s="16" t="str">
+      <c r="F67" s="12">
+        <v>1</v>
+      </c>
+      <c r="G67" s="12">
+        <v>999</v>
+      </c>
+      <c r="H67" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_670003</v>
       </c>
     </row>
     <row r="68" ht="16.5" spans="2:8">
-      <c r="B68" s="16">
+      <c r="B68" s="12">
         <v>670004</v>
       </c>
-      <c r="C68" s="16" t="str">
+      <c r="C68" s="12" t="str">
         <f t="shared" si="0"/>
         <v>itemname_670004</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F68" s="16">
-        <v>1</v>
-      </c>
-      <c r="G68" s="16">
-        <v>999</v>
-      </c>
-      <c r="H68" s="16" t="str">
+      <c r="F68" s="12">
+        <v>1</v>
+      </c>
+      <c r="G68" s="12">
+        <v>999</v>
+      </c>
+      <c r="H68" s="12" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_670004</v>
       </c>
     </row>
     <row r="69" ht="16.5" spans="2:8">
-      <c r="B69" s="16">
+      <c r="B69" s="12">
         <v>670005</v>
       </c>
-      <c r="C69" s="16" t="str">
+      <c r="C69" s="12" t="str">
         <f t="shared" ref="C69:C74" si="2">_xlfn.CONCAT("itemname_",B69)</f>
         <v>itemname_670005</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F69" s="16">
-        <v>1</v>
-      </c>
-      <c r="G69" s="16">
-        <v>999</v>
-      </c>
-      <c r="H69" s="16" t="str">
+      <c r="F69" s="12">
+        <v>1</v>
+      </c>
+      <c r="G69" s="12">
+        <v>999</v>
+      </c>
+      <c r="H69" s="12" t="str">
         <f t="shared" ref="H69:H74" si="3">_xlfn.CONCAT("itemicon_",B69)</f>
         <v>itemicon_670005</v>
       </c>
     </row>
     <row r="70" ht="16.5" spans="2:8">
-      <c r="B70" s="16">
+      <c r="B70" s="12">
         <v>670006</v>
       </c>
-      <c r="C70" s="16" t="str">
+      <c r="C70" s="12" t="str">
         <f t="shared" si="2"/>
         <v>itemname_670006</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F70" s="16">
-        <v>1</v>
-      </c>
-      <c r="G70" s="16">
-        <v>999</v>
-      </c>
-      <c r="H70" s="16" t="str">
+      <c r="F70" s="12">
+        <v>1</v>
+      </c>
+      <c r="G70" s="12">
+        <v>999</v>
+      </c>
+      <c r="H70" s="12" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670006</v>
       </c>
     </row>
     <row r="71" ht="16.5" spans="2:8">
-      <c r="B71" s="16">
+      <c r="B71" s="12">
         <v>670007</v>
       </c>
-      <c r="C71" s="16" t="str">
+      <c r="C71" s="12" t="str">
         <f t="shared" si="2"/>
         <v>itemname_670007</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F71" s="16">
-        <v>1</v>
-      </c>
-      <c r="G71" s="16">
-        <v>999</v>
-      </c>
-      <c r="H71" s="16" t="str">
+      <c r="F71" s="12">
+        <v>1</v>
+      </c>
+      <c r="G71" s="12">
+        <v>999</v>
+      </c>
+      <c r="H71" s="12" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670007</v>
       </c>
     </row>
     <row r="72" ht="16.5" spans="2:8">
-      <c r="B72" s="16">
+      <c r="B72" s="12">
         <v>670008</v>
       </c>
-      <c r="C72" s="16" t="str">
+      <c r="C72" s="12" t="str">
         <f t="shared" si="2"/>
         <v>itemname_670008</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F72" s="16">
-        <v>1</v>
-      </c>
-      <c r="G72" s="16">
-        <v>999</v>
-      </c>
-      <c r="H72" s="16" t="str">
+      <c r="F72" s="12">
+        <v>1</v>
+      </c>
+      <c r="G72" s="12">
+        <v>999</v>
+      </c>
+      <c r="H72" s="12" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670008</v>
       </c>
     </row>
     <row r="73" ht="16.5" spans="2:8">
-      <c r="B73" s="16">
+      <c r="B73" s="12">
         <v>670009</v>
       </c>
-      <c r="C73" s="16" t="str">
+      <c r="C73" s="12" t="str">
         <f t="shared" si="2"/>
         <v>itemname_670009</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F73" s="16">
-        <v>1</v>
-      </c>
-      <c r="G73" s="16">
-        <v>999</v>
-      </c>
-      <c r="H73" s="16" t="str">
+      <c r="F73" s="12">
+        <v>1</v>
+      </c>
+      <c r="G73" s="12">
+        <v>999</v>
+      </c>
+      <c r="H73" s="12" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670009</v>
       </c>
     </row>
     <row r="74" ht="16.5" spans="2:8">
-      <c r="B74" s="16">
+      <c r="B74" s="12">
         <v>670010</v>
       </c>
-      <c r="C74" s="16" t="str">
+      <c r="C74" s="12" t="str">
         <f t="shared" si="2"/>
         <v>itemname_670010</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F74" s="16">
-        <v>1</v>
-      </c>
-      <c r="G74" s="16">
-        <v>999</v>
-      </c>
-      <c r="H74" s="16" t="str">
+      <c r="F74" s="12">
+        <v>1</v>
+      </c>
+      <c r="G74" s="12">
+        <v>999</v>
+      </c>
+      <c r="H74" s="12" t="str">
         <f t="shared" si="3"/>
         <v>itemicon_670010</v>
       </c>
@@ -5817,351 +5806,351 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="2" width="16.25" style="14" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="14" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="14" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="14" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="16.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" s="12" customFormat="1" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" s="9" customFormat="1" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" s="13" customFormat="1" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" s="10" customFormat="1" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" s="11" customFormat="1" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" s="8" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="14">
+      <c r="B5" s="7">
         <v>920001</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="14">
-        <v>1</v>
-      </c>
-      <c r="G5" s="14">
-        <v>1</v>
-      </c>
-      <c r="H5" s="14" t="str">
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="str">
         <f>_xlfn.CONCAT("itemicon_",B5)</f>
         <v>itemicon_920001</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="14">
+      <c r="B6" s="7">
         <v>920002</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="14">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1</v>
-      </c>
-      <c r="H6" s="14" t="str">
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="str">
         <f t="shared" ref="H6:H14" si="0">_xlfn.CONCAT("itemicon_",B6)</f>
         <v>itemicon_920002</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="14">
+      <c r="B7" s="7">
         <v>920003</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="14">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14">
-        <v>1</v>
-      </c>
-      <c r="H7" s="14" t="str">
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920003</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="14">
+      <c r="B8" s="7">
         <v>920004</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="14">
-        <v>1</v>
-      </c>
-      <c r="G8" s="14">
-        <v>1</v>
-      </c>
-      <c r="H8" s="14" t="str">
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920004</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="14">
+      <c r="B9" s="7">
         <v>920005</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="14">
-        <v>1</v>
-      </c>
-      <c r="G9" s="14">
-        <v>1</v>
-      </c>
-      <c r="H9" s="14" t="str">
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920005</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="14">
+      <c r="B10" s="7">
         <v>920006</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="14">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14">
-        <v>1</v>
-      </c>
-      <c r="H10" s="14" t="str">
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920006</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="14">
+      <c r="B11" s="7">
         <v>920007</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="14">
-        <v>1</v>
-      </c>
-      <c r="G11" s="14">
-        <v>1</v>
-      </c>
-      <c r="H11" s="14" t="str">
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920007</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="14">
+      <c r="B12" s="7">
         <v>920008</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="14">
-        <v>1</v>
-      </c>
-      <c r="G12" s="14">
-        <v>1</v>
-      </c>
-      <c r="H12" s="14" t="str">
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920008</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="14">
+      <c r="B13" s="7">
         <v>920009</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="14">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14">
-        <v>1</v>
-      </c>
-      <c r="H13" s="14" t="str">
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920009</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="14">
+      <c r="B14" s="7">
         <v>920010</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="14" t="str">
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>itemicon_920010</v>
       </c>
@@ -6183,352 +6172,352 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="16.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="10" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="10" customWidth="1"/>
-    <col min="5" max="5" width="28" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="10" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="16.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="28" style="6" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="6" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:8">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:8">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" spans="1:8">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="10">
+      <c r="B5" s="6">
         <v>930001</v>
       </c>
-      <c r="C5" s="10" t="str">
+      <c r="C5" s="6" t="str">
         <f>_xlfn.CONCAT("itemname_",B5)</f>
         <v>itemname_930001</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="10" t="str">
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="str">
         <f>_xlfn.CONCAT("itemicon_",B5)</f>
         <v>itemicon_930001</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>930002</v>
       </c>
-      <c r="C6" s="10" t="str">
+      <c r="C6" s="6" t="str">
         <f t="shared" ref="C6:C14" si="0">_xlfn.CONCAT("itemname_",B6)</f>
         <v>itemname_930002</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10" t="str">
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="str">
         <f t="shared" ref="H6:H14" si="1">_xlfn.CONCAT("itemicon_",B6)</f>
         <v>itemicon_930002</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="10">
+      <c r="B7" s="6">
         <v>930003</v>
       </c>
-      <c r="C7" s="10" t="str">
+      <c r="C7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>itemname_930003</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10" t="str">
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_930003</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="10">
+      <c r="B8" s="6">
         <v>930004</v>
       </c>
-      <c r="C8" s="10" t="str">
+      <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>itemname_930004</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10" t="str">
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_930004</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="10">
+      <c r="B9" s="6">
         <v>930005</v>
       </c>
-      <c r="C9" s="10" t="str">
+      <c r="C9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>itemname_930005</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10" t="str">
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_930005</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="10">
+      <c r="B10" s="6">
         <v>930006</v>
       </c>
-      <c r="C10" s="10" t="str">
+      <c r="C10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>itemname_930006</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10" t="str">
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_930006</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="10">
+      <c r="B11" s="6">
         <v>930007</v>
       </c>
-      <c r="C11" s="10" t="str">
+      <c r="C11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>itemname_930007</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10" t="str">
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_930007</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="10">
+      <c r="B12" s="6">
         <v>930008</v>
       </c>
-      <c r="C12" s="10" t="str">
+      <c r="C12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>itemname_930008</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10" t="str">
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_930008</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="10">
+      <c r="B13" s="6">
         <v>930009</v>
       </c>
-      <c r="C13" s="10" t="str">
+      <c r="C13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>itemname_930009</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="H13" s="10" t="str">
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_930009</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="10">
+      <c r="B14" s="6">
         <v>930010</v>
       </c>
-      <c r="C14" s="10" t="str">
+      <c r="C14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>itemname_930010</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="10" t="str">
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="str">
         <f t="shared" si="1"/>
         <v>itemicon_930010</v>
       </c>
@@ -6542,252 +6531,248 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="11.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.875" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:9">
-      <c r="A3" s="7" t="s">
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>720001</v>
       </c>
-      <c r="C5" s="4" t="str">
+      <c r="C5" s="6" t="str">
         <f>_xlfn.CONCAT("itemname_",B5)</f>
         <v>itemname_720001</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>999</v>
-      </c>
-      <c r="H5" s="4" t="str">
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>999</v>
+      </c>
+      <c r="H5" s="6" t="str">
         <f>_xlfn.CONCAT("itemicon_",B5)</f>
         <v>itemicon_720001</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>720002</v>
       </c>
-      <c r="C6" s="4" t="str">
+      <c r="C6" s="6" t="str">
         <f>_xlfn.CONCAT("itemname_",B6)</f>
         <v>itemname_720002</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>999</v>
-      </c>
-      <c r="H6" s="4" t="str">
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>999</v>
+      </c>
+      <c r="H6" s="6" t="str">
         <f>_xlfn.CONCAT("itemicon_",B6)</f>
         <v>itemicon_720002</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>720003</v>
       </c>
-      <c r="C7" s="4" t="str">
+      <c r="C7" s="6" t="str">
         <f>_xlfn.CONCAT("itemname_",B7)</f>
         <v>itemname_720003</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>999</v>
-      </c>
-      <c r="H7" s="4" t="str">
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>999</v>
+      </c>
+      <c r="H7" s="6" t="str">
         <f>_xlfn.CONCAT("itemicon_",B7)</f>
         <v>itemicon_720003</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>720004</v>
       </c>
-      <c r="C8" s="4" t="str">
+      <c r="C8" s="6" t="str">
         <f>_xlfn.CONCAT("itemname_",B8)</f>
         <v>itemname_720004</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>999</v>
-      </c>
-      <c r="H8" s="4" t="str">
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>999</v>
+      </c>
+      <c r="H8" s="6" t="str">
         <f>_xlfn.CONCAT("itemicon_",B8)</f>
         <v>itemicon_720004</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>720005</v>
       </c>
-      <c r="C9" s="4" t="str">
+      <c r="C9" s="6" t="str">
         <f>_xlfn.CONCAT("itemname_",B9)</f>
         <v>itemname_720005</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>999</v>
-      </c>
-      <c r="H9" s="4" t="str">
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>999</v>
+      </c>
+      <c r="H9" s="6" t="str">
         <f>_xlfn.CONCAT("itemicon_",B9)</f>
         <v>itemicon_720005</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="9"/>
+      <c r="B10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6798,245 +6783,241 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="19" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="1" max="2" width="9" style="6"/>
+    <col min="3" max="3" width="19" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="25.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:9">
-      <c r="A3" s="7" t="s">
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>730001</v>
       </c>
-      <c r="C5" s="4" t="str">
+      <c r="C5" s="6" t="str">
         <f>_xlfn.CONCAT("itemname_",B5)</f>
         <v>itemname_730001</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="str">
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="str">
         <f>_xlfn.CONCAT("itemicon_",B5)</f>
         <v>itemicon_730001</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>730002</v>
       </c>
-      <c r="C6" s="4" t="str">
+      <c r="C6" s="6" t="str">
         <f>_xlfn.CONCAT("itemname_",B6)</f>
         <v>itemname_730002</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="str">
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="str">
         <f>_xlfn.CONCAT("itemicon_",B6)</f>
         <v>itemicon_730002</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>730003</v>
       </c>
-      <c r="C7" s="4" t="str">
+      <c r="C7" s="6" t="str">
         <f>_xlfn.CONCAT("itemname_",B7)</f>
         <v>itemname_730003</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="str">
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="str">
         <f>_xlfn.CONCAT("itemicon_",B7)</f>
         <v>itemicon_730003</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>730004</v>
       </c>
-      <c r="C8" s="4" t="str">
+      <c r="C8" s="6" t="str">
         <f>_xlfn.CONCAT("itemname_",B8)</f>
         <v>itemname_730004</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="str">
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="str">
         <f>_xlfn.CONCAT("itemicon_",B8)</f>
         <v>itemicon_730004</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>730005</v>
       </c>
-      <c r="C9" s="4" t="str">
+      <c r="C9" s="6" t="str">
         <f>_xlfn.CONCAT("itemname_",B9)</f>
         <v>itemname_730005</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="str">
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="str">
         <f>_xlfn.CONCAT("itemicon_",B9)</f>
         <v>itemicon_730005</v>
       </c>
@@ -7050,135 +7031,380 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="6">
+        <v>740001</v>
+      </c>
+      <c r="C5" s="6" t="str">
+        <f>_xlfn.CONCAT("itemname_",B5)</f>
+        <v>itemname_740001</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6" t="str">
+        <f>_xlfn.CONCAT("itemicon_",B5)</f>
+        <v>itemicon_740001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="6">
+        <v>740002</v>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f>_xlfn.CONCAT("itemname_",B6)</f>
+        <v>itemname_740002</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6" t="str">
+        <f>_xlfn.CONCAT("itemicon_",B6)</f>
+        <v>itemicon_740002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="6">
+        <v>740003</v>
+      </c>
+      <c r="C7" s="6" t="str">
+        <f>_xlfn.CONCAT("itemname_",B7)</f>
+        <v>itemname_740003</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>20</v>
+      </c>
+      <c r="H7" s="6" t="str">
+        <f>_xlfn.CONCAT("itemicon_",B7)</f>
+        <v>itemicon_740003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="6">
+        <v>740004</v>
+      </c>
+      <c r="C8" s="6" t="str">
+        <f>_xlfn.CONCAT("itemname_",B8)</f>
+        <v>itemname_740004</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>20</v>
+      </c>
+      <c r="H8" s="6" t="str">
+        <f>_xlfn.CONCAT("itemicon_",B8)</f>
+        <v>itemicon_740004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="6">
+        <v>740005</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f>_xlfn.CONCAT("itemname_",B9)</f>
+        <v>itemname_740005</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>20</v>
+      </c>
+      <c r="H9" s="6" t="str">
+        <f>_xlfn.CONCAT("itemicon_",B9)</f>
+        <v>itemicon_740005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="4" customWidth="1"/>
     <col min="3" max="3" width="19" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="4" customWidth="1"/>
     <col min="5" max="5" width="22.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="4" customWidth="1"/>
     <col min="8" max="8" width="17.75" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:9">
-      <c r="A3" s="7" t="s">
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="4">
-        <v>740001</v>
-      </c>
-      <c r="C5" s="8" t="str">
+        <v>810001</v>
+      </c>
+      <c r="C5" s="4" t="str">
         <f>_xlfn.CONCAT("itemname_",B5)</f>
-        <v>itemname_740001</v>
+        <v>itemname_810001</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>26</v>
@@ -7187,111 +7413,111 @@
         <v>1</v>
       </c>
       <c r="G5" s="4">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="H5" s="4" t="str">
         <f>_xlfn.CONCAT("itemicon_",B5)</f>
-        <v>itemicon_740001</v>
+        <v>itemicon_810001</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="4">
-        <v>740002</v>
-      </c>
-      <c r="C6" s="8" t="str">
+        <v>810002</v>
+      </c>
+      <c r="C6" s="4" t="str">
         <f>_xlfn.CONCAT("itemname_",B6)</f>
-        <v>itemname_740002</v>
+        <v>itemname_810002</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="4">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="H6" s="4" t="str">
         <f>_xlfn.CONCAT("itemicon_",B6)</f>
-        <v>itemicon_740002</v>
+        <v>itemicon_810002</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="4">
-        <v>740003</v>
-      </c>
-      <c r="C7" s="8" t="str">
+        <v>810003</v>
+      </c>
+      <c r="C7" s="4" t="str">
         <f>_xlfn.CONCAT("itemname_",B7)</f>
-        <v>itemname_740003</v>
+        <v>itemname_810003</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="4">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="H7" s="4" t="str">
         <f>_xlfn.CONCAT("itemicon_",B7)</f>
-        <v>itemicon_740003</v>
+        <v>itemicon_810003</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="4">
-        <v>740004</v>
-      </c>
-      <c r="C8" s="8" t="str">
+        <v>810004</v>
+      </c>
+      <c r="C8" s="4" t="str">
         <f>_xlfn.CONCAT("itemname_",B8)</f>
-        <v>itemname_740004</v>
+        <v>itemname_810004</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="H8" s="4" t="str">
         <f>_xlfn.CONCAT("itemicon_",B8)</f>
-        <v>itemicon_740004</v>
+        <v>itemicon_810004</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="4">
-        <v>740005</v>
-      </c>
-      <c r="C9" s="8" t="str">
+        <v>810005</v>
+      </c>
+      <c r="C9" s="4" t="str">
         <f>_xlfn.CONCAT("itemname_",B9)</f>
-        <v>itemname_740005</v>
+        <v>itemname_810005</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="4">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="H9" s="4" t="str">
         <f>_xlfn.CONCAT("itemicon_",B9)</f>
-        <v>itemicon_740005</v>
+        <v>itemicon_810005</v>
       </c>
     </row>
   </sheetData>
